--- a/CODE.xlsx
+++ b/CODE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E97D2A7-6B50-4971-A128-5BABE678AA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1572D2F9-E9AB-47C7-8DC6-ACE40BE64A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4860" yWindow="765" windowWidth="16290" windowHeight="14715" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TARGET DAY" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="20">
   <si>
     <t>DATE</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>10.32am</t>
+  </si>
+  <si>
+    <t>10.56/10.58</t>
+  </si>
+  <si>
+    <t>2hrs</t>
   </si>
 </sst>
 </file>
@@ -206,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -243,22 +249,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -295,6 +286,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -665,2200 +662,2200 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="30">
+      <c r="A2" s="25">
         <v>44708</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="22">
+      <c r="A3" s="17">
         <v>44709</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="22">
+      <c r="A4" s="17">
         <v>44710</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="17">
         <v>44711</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
+      <c r="A6" s="17">
         <v>44712</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="22">
+      <c r="A7" s="17">
         <v>44713</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="17">
         <v>44714</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A9" s="30">
+      <c r="A9" s="25">
         <v>44715</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A10" s="22">
+      <c r="A10" s="17">
         <v>44716</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="17">
         <v>44717</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
+      <c r="A12" s="17">
         <v>44718</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A13" s="22">
+      <c r="A13" s="17">
         <v>44719</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="17">
         <v>44720</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A15" s="22">
+      <c r="A15" s="17">
         <v>44721</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A16" s="30">
+      <c r="A16" s="25">
         <v>44722</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
     </row>
     <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="17">
         <v>44723</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
     </row>
     <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A18" s="22">
+      <c r="A18" s="17">
         <v>44724</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
     </row>
     <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A19" s="22">
+      <c r="A19" s="17">
         <v>44725</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+      <c r="A20" s="17">
         <v>44726</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
     </row>
     <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="22">
+      <c r="A21" s="17">
         <v>44727</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
     </row>
     <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="A22" s="17">
         <v>44728</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
     </row>
     <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A23" s="22">
+      <c r="A23" s="17">
         <v>44729</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
     </row>
     <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="17">
         <v>44730</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
     </row>
     <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A25" s="22">
+      <c r="A25" s="17">
         <v>44731</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
     </row>
     <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A26" s="22">
+      <c r="A26" s="17">
         <v>44732</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
     </row>
     <row r="27" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="17">
         <v>44733</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
     </row>
     <row r="28" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A28" s="22">
+      <c r="A28" s="17">
         <v>44734</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
     </row>
     <row r="29" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
+      <c r="A29" s="17">
         <v>44735</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
     </row>
     <row r="30" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A30" s="22">
+      <c r="A30" s="17">
         <v>44736</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
     </row>
     <row r="31" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="22">
+      <c r="A31" s="17">
         <v>44737</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
     </row>
     <row r="32" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A32" s="22">
+      <c r="A32" s="17">
         <v>44738</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
     </row>
     <row r="33" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A33" s="22">
+      <c r="A33" s="17">
         <v>44739</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
     </row>
     <row r="34" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A34" s="22">
+      <c r="A34" s="17">
         <v>44740</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
     </row>
     <row r="35" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A35" s="22">
+      <c r="A35" s="17">
         <v>44741</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
     </row>
     <row r="36" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A36" s="22">
+      <c r="A36" s="17">
         <v>44742</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
     </row>
     <row r="37" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A37" s="22">
+      <c r="A37" s="17">
         <v>44743</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
     </row>
     <row r="38" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A38" s="22">
+      <c r="A38" s="17">
         <v>44744</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
     </row>
     <row r="39" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A39" s="22">
+      <c r="A39" s="17">
         <v>44745</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
     </row>
     <row r="40" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A40" s="22">
+      <c r="A40" s="17">
         <v>44746</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
     </row>
     <row r="41" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="22">
+      <c r="A41" s="17">
         <v>44747</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
     </row>
     <row r="42" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A42" s="22">
+      <c r="A42" s="17">
         <v>44748</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
     </row>
     <row r="43" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A43" s="22">
+      <c r="A43" s="17">
         <v>44749</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
     </row>
     <row r="44" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A44" s="22">
+      <c r="A44" s="17">
         <v>44750</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
     </row>
     <row r="45" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A45" s="22">
+      <c r="A45" s="17">
         <v>44751</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
     </row>
     <row r="46" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A46" s="22">
+      <c r="A46" s="17">
         <v>44752</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
     </row>
     <row r="47" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A47" s="22">
+      <c r="A47" s="17">
         <v>44753</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
     </row>
     <row r="48" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A48" s="22">
+      <c r="A48" s="17">
         <v>44754</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
     </row>
     <row r="49" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A49" s="22">
+      <c r="A49" s="17">
         <v>44755</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
     </row>
     <row r="50" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A50" s="22">
+      <c r="A50" s="17">
         <v>44756</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
     </row>
     <row r="51" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A51" s="22">
+      <c r="A51" s="17">
         <v>44757</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
     </row>
     <row r="52" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A52" s="22">
+      <c r="A52" s="17">
         <v>44758</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
     </row>
     <row r="53" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A53" s="22">
+      <c r="A53" s="17">
         <v>44759</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
     </row>
     <row r="54" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A54" s="22">
+      <c r="A54" s="17">
         <v>44760</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
     </row>
     <row r="55" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A55" s="22">
+      <c r="A55" s="17">
         <v>44761</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
     </row>
     <row r="56" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A56" s="22">
+      <c r="A56" s="17">
         <v>44762</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
     </row>
     <row r="57" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A57" s="22">
+      <c r="A57" s="17">
         <v>44763</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
     </row>
     <row r="58" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A58" s="22">
+      <c r="A58" s="17">
         <v>44764</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
     </row>
     <row r="59" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A59" s="22">
+      <c r="A59" s="17">
         <v>44765</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
     </row>
     <row r="60" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A60" s="22">
+      <c r="A60" s="17">
         <v>44766</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
     </row>
     <row r="61" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A61" s="22">
+      <c r="A61" s="17">
         <v>44767</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
     </row>
     <row r="62" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A62" s="22">
+      <c r="A62" s="17">
         <v>44768</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
     </row>
     <row r="63" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A63" s="22">
+      <c r="A63" s="17">
         <v>44769</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
     </row>
     <row r="64" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A64" s="22">
+      <c r="A64" s="17">
         <v>44770</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
     </row>
     <row r="65" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A65" s="22">
+      <c r="A65" s="17">
         <v>44771</v>
       </c>
-      <c r="B65" s="23" t="s">
+      <c r="B65" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
     </row>
     <row r="66" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A66" s="22">
+      <c r="A66" s="17">
         <v>44772</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
     </row>
     <row r="67" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A67" s="22">
+      <c r="A67" s="17">
         <v>44773</v>
       </c>
-      <c r="B67" s="23" t="s">
+      <c r="B67" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
     </row>
     <row r="68" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A68" s="22">
+      <c r="A68" s="17">
         <v>44774</v>
       </c>
-      <c r="B68" s="23" t="s">
+      <c r="B68" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
     </row>
     <row r="69" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A69" s="22">
+      <c r="A69" s="17">
         <v>44775</v>
       </c>
-      <c r="B69" s="23" t="s">
+      <c r="B69" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
     </row>
     <row r="70" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A70" s="22">
+      <c r="A70" s="17">
         <v>44776</v>
       </c>
-      <c r="B70" s="23" t="s">
+      <c r="B70" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
     </row>
     <row r="71" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A71" s="22">
+      <c r="A71" s="17">
         <v>44777</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
     </row>
     <row r="72" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A72" s="22">
+      <c r="A72" s="17">
         <v>44778</v>
       </c>
-      <c r="B72" s="23" t="s">
+      <c r="B72" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
     </row>
     <row r="73" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A73" s="22">
+      <c r="A73" s="17">
         <v>44779</v>
       </c>
-      <c r="B73" s="23" t="s">
+      <c r="B73" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
     </row>
     <row r="74" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A74" s="22">
+      <c r="A74" s="17">
         <v>44780</v>
       </c>
-      <c r="B74" s="23" t="s">
+      <c r="B74" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
     </row>
     <row r="75" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A75" s="22">
+      <c r="A75" s="17">
         <v>44781</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
     </row>
     <row r="76" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A76" s="22">
+      <c r="A76" s="17">
         <v>44782</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="B76" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
     </row>
     <row r="77" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A77" s="22">
+      <c r="A77" s="17">
         <v>44783</v>
       </c>
-      <c r="B77" s="23" t="s">
+      <c r="B77" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
     </row>
     <row r="78" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A78" s="22">
+      <c r="A78" s="17">
         <v>44784</v>
       </c>
-      <c r="B78" s="23" t="s">
+      <c r="B78" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
     </row>
     <row r="79" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A79" s="22">
+      <c r="A79" s="17">
         <v>44785</v>
       </c>
-      <c r="B79" s="23" t="s">
+      <c r="B79" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
     </row>
     <row r="80" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A80" s="22">
+      <c r="A80" s="17">
         <v>44786</v>
       </c>
-      <c r="B80" s="23" t="s">
+      <c r="B80" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
     </row>
     <row r="81" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A81" s="22">
+      <c r="A81" s="17">
         <v>44787</v>
       </c>
-      <c r="B81" s="23" t="s">
+      <c r="B81" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
     </row>
     <row r="82" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A82" s="22">
+      <c r="A82" s="17">
         <v>44788</v>
       </c>
-      <c r="B82" s="23" t="s">
+      <c r="B82" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
     </row>
     <row r="83" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A83" s="22">
+      <c r="A83" s="17">
         <v>44789</v>
       </c>
-      <c r="B83" s="23" t="s">
+      <c r="B83" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
     </row>
     <row r="84" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A84" s="22">
+      <c r="A84" s="17">
         <v>44790</v>
       </c>
-      <c r="B84" s="23" t="s">
+      <c r="B84" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
     </row>
     <row r="85" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A85" s="22">
+      <c r="A85" s="17">
         <v>44791</v>
       </c>
-      <c r="B85" s="23" t="s">
+      <c r="B85" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
     </row>
     <row r="86" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A86" s="22">
+      <c r="A86" s="17">
         <v>44792</v>
       </c>
-      <c r="B86" s="23" t="s">
+      <c r="B86" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
     </row>
     <row r="87" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A87" s="22">
+      <c r="A87" s="17">
         <v>44793</v>
       </c>
-      <c r="B87" s="23" t="s">
+      <c r="B87" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
     </row>
     <row r="88" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A88" s="22">
+      <c r="A88" s="17">
         <v>44794</v>
       </c>
-      <c r="B88" s="23" t="s">
+      <c r="B88" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
     </row>
     <row r="89" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A89" s="22">
+      <c r="A89" s="17">
         <v>44795</v>
       </c>
-      <c r="B89" s="23" t="s">
+      <c r="B89" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
     </row>
     <row r="90" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A90" s="22">
+      <c r="A90" s="17">
         <v>44796</v>
       </c>
-      <c r="B90" s="23" t="s">
+      <c r="B90" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
     </row>
     <row r="91" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A91" s="22">
+      <c r="A91" s="17">
         <v>44797</v>
       </c>
-      <c r="B91" s="23" t="s">
+      <c r="B91" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
     </row>
     <row r="92" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A92" s="22">
+      <c r="A92" s="17">
         <v>44798</v>
       </c>
-      <c r="B92" s="23" t="s">
+      <c r="B92" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
     </row>
     <row r="93" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A93" s="22">
+      <c r="A93" s="17">
         <v>44799</v>
       </c>
-      <c r="B93" s="23" t="s">
+      <c r="B93" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C93" s="23"/>
-      <c r="D93" s="23"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
     </row>
     <row r="94" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A94" s="22">
+      <c r="A94" s="17">
         <v>44800</v>
       </c>
-      <c r="B94" s="23" t="s">
+      <c r="B94" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
     </row>
     <row r="95" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A95" s="22">
+      <c r="A95" s="17">
         <v>44801</v>
       </c>
-      <c r="B95" s="23" t="s">
+      <c r="B95" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C95" s="23"/>
-      <c r="D95" s="23"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
     </row>
     <row r="96" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A96" s="22">
+      <c r="A96" s="17">
         <v>44802</v>
       </c>
-      <c r="B96" s="23" t="s">
+      <c r="B96" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
     </row>
     <row r="97" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A97" s="22">
+      <c r="A97" s="17">
         <v>44803</v>
       </c>
-      <c r="B97" s="23" t="s">
+      <c r="B97" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="23"/>
-      <c r="D97" s="23"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
     </row>
     <row r="98" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A98" s="22">
+      <c r="A98" s="17">
         <v>44804</v>
       </c>
-      <c r="B98" s="23" t="s">
+      <c r="B98" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C98" s="23"/>
-      <c r="D98" s="23"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
     </row>
     <row r="99" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A99" s="22">
+      <c r="A99" s="17">
         <v>44805</v>
       </c>
-      <c r="B99" s="23" t="s">
+      <c r="B99" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C99" s="23"/>
-      <c r="D99" s="23"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
     </row>
     <row r="100" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A100" s="22">
+      <c r="A100" s="17">
         <v>44806</v>
       </c>
-      <c r="B100" s="23" t="s">
+      <c r="B100" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
     </row>
     <row r="101" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A101" s="22">
+      <c r="A101" s="17">
         <v>44807</v>
       </c>
-      <c r="B101" s="23" t="s">
+      <c r="B101" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C101" s="23"/>
-      <c r="D101" s="23"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
     </row>
     <row r="102" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A102" s="22">
+      <c r="A102" s="17">
         <v>44808</v>
       </c>
-      <c r="B102" s="23" t="s">
+      <c r="B102" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C102" s="23"/>
-      <c r="D102" s="23"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
     </row>
     <row r="103" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A103" s="22">
+      <c r="A103" s="17">
         <v>44809</v>
       </c>
-      <c r="B103" s="23" t="s">
+      <c r="B103" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="23"/>
-      <c r="D103" s="23"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
     </row>
     <row r="104" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A104" s="22">
+      <c r="A104" s="17">
         <v>44810</v>
       </c>
-      <c r="B104" s="23" t="s">
+      <c r="B104" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="23"/>
-      <c r="D104" s="23"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
     </row>
     <row r="105" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A105" s="22">
+      <c r="A105" s="17">
         <v>44811</v>
       </c>
-      <c r="B105" s="23" t="s">
+      <c r="B105" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C105" s="23"/>
-      <c r="D105" s="23"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
     </row>
     <row r="106" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A106" s="22">
+      <c r="A106" s="17">
         <v>44812</v>
       </c>
-      <c r="B106" s="23" t="s">
+      <c r="B106" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C106" s="23"/>
-      <c r="D106" s="23"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
     </row>
     <row r="107" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A107" s="22">
+      <c r="A107" s="17">
         <v>44813</v>
       </c>
-      <c r="B107" s="23" t="s">
+      <c r="B107" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C107" s="23"/>
-      <c r="D107" s="23"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
     </row>
     <row r="108" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A108" s="22">
+      <c r="A108" s="17">
         <v>44814</v>
       </c>
-      <c r="B108" s="23" t="s">
+      <c r="B108" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C108" s="23"/>
-      <c r="D108" s="23"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
     </row>
     <row r="109" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A109" s="22">
+      <c r="A109" s="17">
         <v>44815</v>
       </c>
-      <c r="B109" s="23" t="s">
+      <c r="B109" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C109" s="23"/>
-      <c r="D109" s="23"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
     </row>
     <row r="110" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A110" s="22">
+      <c r="A110" s="17">
         <v>44816</v>
       </c>
-      <c r="B110" s="23" t="s">
+      <c r="B110" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
     </row>
     <row r="111" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A111" s="22">
+      <c r="A111" s="17">
         <v>44817</v>
       </c>
-      <c r="B111" s="23" t="s">
+      <c r="B111" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C111" s="23"/>
-      <c r="D111" s="23"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="18"/>
     </row>
     <row r="112" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A112" s="22">
+      <c r="A112" s="17">
         <v>44818</v>
       </c>
-      <c r="B112" s="23" t="s">
+      <c r="B112" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C112" s="23"/>
-      <c r="D112" s="23"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
     </row>
     <row r="113" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A113" s="22">
+      <c r="A113" s="17">
         <v>44819</v>
       </c>
-      <c r="B113" s="23" t="s">
+      <c r="B113" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C113" s="23"/>
-      <c r="D113" s="23"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
     </row>
     <row r="114" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A114" s="22">
+      <c r="A114" s="17">
         <v>44820</v>
       </c>
-      <c r="B114" s="23" t="s">
+      <c r="B114" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C114" s="23"/>
-      <c r="D114" s="23"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
     </row>
     <row r="115" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A115" s="22">
+      <c r="A115" s="17">
         <v>44821</v>
       </c>
-      <c r="B115" s="23" t="s">
+      <c r="B115" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C115" s="23"/>
-      <c r="D115" s="23"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
     </row>
     <row r="116" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A116" s="22">
+      <c r="A116" s="17">
         <v>44822</v>
       </c>
-      <c r="B116" s="23" t="s">
+      <c r="B116" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C116" s="23"/>
-      <c r="D116" s="23"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="18"/>
     </row>
     <row r="117" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A117" s="22">
+      <c r="A117" s="17">
         <v>44823</v>
       </c>
-      <c r="B117" s="23" t="s">
+      <c r="B117" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C117" s="23"/>
-      <c r="D117" s="23"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="18"/>
     </row>
     <row r="118" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A118" s="22">
+      <c r="A118" s="17">
         <v>44824</v>
       </c>
-      <c r="B118" s="23" t="s">
+      <c r="B118" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C118" s="23"/>
-      <c r="D118" s="23"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
     </row>
     <row r="119" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A119" s="22">
+      <c r="A119" s="17">
         <v>44825</v>
       </c>
-      <c r="B119" s="23" t="s">
+      <c r="B119" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C119" s="23"/>
-      <c r="D119" s="23"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="18"/>
     </row>
     <row r="120" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A120" s="22">
+      <c r="A120" s="17">
         <v>44826</v>
       </c>
-      <c r="B120" s="23" t="s">
+      <c r="B120" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C120" s="23"/>
-      <c r="D120" s="23"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="18"/>
     </row>
     <row r="121" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A121" s="22">
+      <c r="A121" s="17">
         <v>44827</v>
       </c>
-      <c r="B121" s="23" t="s">
+      <c r="B121" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C121" s="23"/>
-      <c r="D121" s="23"/>
+      <c r="C121" s="18"/>
+      <c r="D121" s="18"/>
     </row>
     <row r="122" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A122" s="22">
+      <c r="A122" s="17">
         <v>44828</v>
       </c>
-      <c r="B122" s="23" t="s">
+      <c r="B122" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C122" s="23"/>
-      <c r="D122" s="23"/>
+      <c r="C122" s="18"/>
+      <c r="D122" s="18"/>
     </row>
     <row r="123" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A123" s="22">
+      <c r="A123" s="17">
         <v>44829</v>
       </c>
-      <c r="B123" s="23" t="s">
+      <c r="B123" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C123" s="23"/>
-      <c r="D123" s="23"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
     </row>
     <row r="124" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A124" s="22">
+      <c r="A124" s="17">
         <v>44830</v>
       </c>
-      <c r="B124" s="23" t="s">
+      <c r="B124" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C124" s="23"/>
-      <c r="D124" s="23"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="18"/>
     </row>
     <row r="125" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A125" s="22">
+      <c r="A125" s="17">
         <v>44831</v>
       </c>
-      <c r="B125" s="23" t="s">
+      <c r="B125" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C125" s="23"/>
-      <c r="D125" s="23"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="18"/>
     </row>
     <row r="126" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A126" s="22">
+      <c r="A126" s="17">
         <v>44832</v>
       </c>
-      <c r="B126" s="23" t="s">
+      <c r="B126" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C126" s="23"/>
-      <c r="D126" s="23"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="18"/>
     </row>
     <row r="127" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A127" s="22">
+      <c r="A127" s="17">
         <v>44833</v>
       </c>
-      <c r="B127" s="23" t="s">
+      <c r="B127" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C127" s="23"/>
-      <c r="D127" s="23"/>
+      <c r="C127" s="18"/>
+      <c r="D127" s="18"/>
     </row>
     <row r="128" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A128" s="22">
+      <c r="A128" s="17">
         <v>44834</v>
       </c>
-      <c r="B128" s="23" t="s">
+      <c r="B128" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C128" s="23"/>
-      <c r="D128" s="23"/>
+      <c r="C128" s="18"/>
+      <c r="D128" s="18"/>
     </row>
     <row r="129" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A129" s="22">
+      <c r="A129" s="17">
         <v>44835</v>
       </c>
-      <c r="B129" s="23" t="s">
+      <c r="B129" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C129" s="23"/>
-      <c r="D129" s="23"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="18"/>
     </row>
     <row r="130" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A130" s="22">
+      <c r="A130" s="17">
         <v>44836</v>
       </c>
-      <c r="B130" s="23" t="s">
+      <c r="B130" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C130" s="23"/>
-      <c r="D130" s="23"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="18"/>
     </row>
     <row r="131" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A131" s="22">
+      <c r="A131" s="17">
         <v>44837</v>
       </c>
-      <c r="B131" s="23" t="s">
+      <c r="B131" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C131" s="23"/>
-      <c r="D131" s="23"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="18"/>
     </row>
     <row r="132" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A132" s="22">
+      <c r="A132" s="17">
         <v>44838</v>
       </c>
-      <c r="B132" s="23" t="s">
+      <c r="B132" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C132" s="23"/>
-      <c r="D132" s="23"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="18"/>
     </row>
     <row r="133" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A133" s="22">
+      <c r="A133" s="17">
         <v>44839</v>
       </c>
-      <c r="B133" s="23" t="s">
+      <c r="B133" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C133" s="23"/>
-      <c r="D133" s="23"/>
+      <c r="C133" s="18"/>
+      <c r="D133" s="18"/>
     </row>
     <row r="134" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A134" s="22">
+      <c r="A134" s="17">
         <v>44840</v>
       </c>
-      <c r="B134" s="23" t="s">
+      <c r="B134" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C134" s="23"/>
-      <c r="D134" s="23"/>
+      <c r="C134" s="18"/>
+      <c r="D134" s="18"/>
     </row>
     <row r="135" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A135" s="22">
+      <c r="A135" s="17">
         <v>44841</v>
       </c>
-      <c r="B135" s="23" t="s">
+      <c r="B135" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C135" s="23"/>
-      <c r="D135" s="23"/>
+      <c r="C135" s="18"/>
+      <c r="D135" s="18"/>
     </row>
     <row r="136" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A136" s="22">
+      <c r="A136" s="17">
         <v>44842</v>
       </c>
-      <c r="B136" s="23" t="s">
+      <c r="B136" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C136" s="23"/>
-      <c r="D136" s="23"/>
+      <c r="C136" s="18"/>
+      <c r="D136" s="18"/>
     </row>
     <row r="137" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A137" s="22">
+      <c r="A137" s="17">
         <v>44843</v>
       </c>
-      <c r="B137" s="23" t="s">
+      <c r="B137" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C137" s="23"/>
-      <c r="D137" s="23"/>
+      <c r="C137" s="18"/>
+      <c r="D137" s="18"/>
     </row>
     <row r="138" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A138" s="22">
+      <c r="A138" s="17">
         <v>44844</v>
       </c>
-      <c r="B138" s="23" t="s">
+      <c r="B138" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C138" s="23"/>
-      <c r="D138" s="23"/>
+      <c r="C138" s="18"/>
+      <c r="D138" s="18"/>
     </row>
     <row r="139" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A139" s="22">
+      <c r="A139" s="17">
         <v>44845</v>
       </c>
-      <c r="B139" s="23" t="s">
+      <c r="B139" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C139" s="23"/>
-      <c r="D139" s="23"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="18"/>
     </row>
     <row r="140" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A140" s="22">
+      <c r="A140" s="17">
         <v>44846</v>
       </c>
-      <c r="B140" s="23" t="s">
+      <c r="B140" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C140" s="23"/>
-      <c r="D140" s="23"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="18"/>
     </row>
     <row r="141" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A141" s="22">
+      <c r="A141" s="17">
         <v>44847</v>
       </c>
-      <c r="B141" s="23" t="s">
+      <c r="B141" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C141" s="23"/>
-      <c r="D141" s="23"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="18"/>
     </row>
     <row r="142" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A142" s="22">
+      <c r="A142" s="17">
         <v>44848</v>
       </c>
-      <c r="B142" s="23" t="s">
+      <c r="B142" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C142" s="23"/>
-      <c r="D142" s="23"/>
+      <c r="C142" s="18"/>
+      <c r="D142" s="18"/>
     </row>
     <row r="143" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A143" s="22">
+      <c r="A143" s="17">
         <v>44849</v>
       </c>
-      <c r="B143" s="23" t="s">
+      <c r="B143" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C143" s="23"/>
-      <c r="D143" s="23"/>
+      <c r="C143" s="18"/>
+      <c r="D143" s="18"/>
     </row>
     <row r="144" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A144" s="22">
+      <c r="A144" s="17">
         <v>44850</v>
       </c>
-      <c r="B144" s="23" t="s">
+      <c r="B144" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C144" s="23"/>
-      <c r="D144" s="23"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="18"/>
     </row>
     <row r="145" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A145" s="22">
+      <c r="A145" s="17">
         <v>44851</v>
       </c>
-      <c r="B145" s="23" t="s">
+      <c r="B145" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C145" s="23"/>
-      <c r="D145" s="23"/>
+      <c r="C145" s="18"/>
+      <c r="D145" s="18"/>
     </row>
     <row r="146" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A146" s="22">
+      <c r="A146" s="17">
         <v>44852</v>
       </c>
-      <c r="B146" s="23" t="s">
+      <c r="B146" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C146" s="23"/>
-      <c r="D146" s="23"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="18"/>
     </row>
     <row r="147" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A147" s="22">
+      <c r="A147" s="17">
         <v>44853</v>
       </c>
-      <c r="B147" s="23" t="s">
+      <c r="B147" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C147" s="23"/>
-      <c r="D147" s="23"/>
+      <c r="C147" s="18"/>
+      <c r="D147" s="18"/>
     </row>
     <row r="148" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A148" s="22">
+      <c r="A148" s="17">
         <v>44854</v>
       </c>
-      <c r="B148" s="23" t="s">
+      <c r="B148" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C148" s="23"/>
-      <c r="D148" s="23"/>
+      <c r="C148" s="18"/>
+      <c r="D148" s="18"/>
     </row>
     <row r="149" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A149" s="22">
+      <c r="A149" s="17">
         <v>44855</v>
       </c>
-      <c r="B149" s="23" t="s">
+      <c r="B149" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C149" s="23"/>
-      <c r="D149" s="23"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="18"/>
     </row>
     <row r="150" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A150" s="22">
+      <c r="A150" s="17">
         <v>44856</v>
       </c>
-      <c r="B150" s="23" t="s">
+      <c r="B150" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C150" s="23"/>
-      <c r="D150" s="23"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="18"/>
     </row>
     <row r="151" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A151" s="22">
+      <c r="A151" s="17">
         <v>44857</v>
       </c>
-      <c r="B151" s="23" t="s">
+      <c r="B151" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C151" s="23"/>
-      <c r="D151" s="23"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="18"/>
     </row>
     <row r="152" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A152" s="22">
+      <c r="A152" s="17">
         <v>44858</v>
       </c>
-      <c r="B152" s="23" t="s">
+      <c r="B152" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C152" s="23"/>
-      <c r="D152" s="23"/>
+      <c r="C152" s="18"/>
+      <c r="D152" s="18"/>
     </row>
     <row r="153" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A153" s="22">
+      <c r="A153" s="17">
         <v>44859</v>
       </c>
-      <c r="B153" s="23" t="s">
+      <c r="B153" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C153" s="23"/>
-      <c r="D153" s="23"/>
+      <c r="C153" s="18"/>
+      <c r="D153" s="18"/>
     </row>
     <row r="154" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A154" s="22">
+      <c r="A154" s="17">
         <v>44860</v>
       </c>
-      <c r="B154" s="23" t="s">
+      <c r="B154" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C154" s="23"/>
-      <c r="D154" s="23"/>
+      <c r="C154" s="18"/>
+      <c r="D154" s="18"/>
     </row>
     <row r="155" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A155" s="22">
+      <c r="A155" s="17">
         <v>44861</v>
       </c>
-      <c r="B155" s="23" t="s">
+      <c r="B155" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C155" s="23"/>
-      <c r="D155" s="23"/>
+      <c r="C155" s="18"/>
+      <c r="D155" s="18"/>
     </row>
     <row r="156" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A156" s="22">
+      <c r="A156" s="17">
         <v>44862</v>
       </c>
-      <c r="B156" s="23" t="s">
+      <c r="B156" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C156" s="23"/>
-      <c r="D156" s="23"/>
+      <c r="C156" s="18"/>
+      <c r="D156" s="18"/>
     </row>
     <row r="157" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A157" s="22">
+      <c r="A157" s="17">
         <v>44863</v>
       </c>
-      <c r="B157" s="23" t="s">
+      <c r="B157" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C157" s="23"/>
-      <c r="D157" s="23"/>
+      <c r="C157" s="18"/>
+      <c r="D157" s="18"/>
     </row>
     <row r="158" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A158" s="22">
+      <c r="A158" s="17">
         <v>44864</v>
       </c>
-      <c r="B158" s="23" t="s">
+      <c r="B158" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C158" s="23"/>
-      <c r="D158" s="23"/>
+      <c r="C158" s="18"/>
+      <c r="D158" s="18"/>
     </row>
     <row r="159" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A159" s="22">
+      <c r="A159" s="17">
         <v>44865</v>
       </c>
-      <c r="B159" s="23" t="s">
+      <c r="B159" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C159" s="23"/>
-      <c r="D159" s="23"/>
+      <c r="C159" s="18"/>
+      <c r="D159" s="18"/>
     </row>
     <row r="160" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A160" s="22">
+      <c r="A160" s="17">
         <v>44866</v>
       </c>
-      <c r="B160" s="23" t="s">
+      <c r="B160" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C160" s="23"/>
-      <c r="D160" s="23"/>
+      <c r="C160" s="18"/>
+      <c r="D160" s="18"/>
     </row>
     <row r="161" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A161" s="22">
+      <c r="A161" s="17">
         <v>44867</v>
       </c>
-      <c r="B161" s="23" t="s">
+      <c r="B161" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C161" s="23"/>
-      <c r="D161" s="23"/>
+      <c r="C161" s="18"/>
+      <c r="D161" s="18"/>
     </row>
     <row r="162" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A162" s="22">
+      <c r="A162" s="17">
         <v>44868</v>
       </c>
-      <c r="B162" s="23" t="s">
+      <c r="B162" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C162" s="23"/>
-      <c r="D162" s="23"/>
+      <c r="C162" s="18"/>
+      <c r="D162" s="18"/>
     </row>
     <row r="163" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A163" s="22">
+      <c r="A163" s="17">
         <v>44869</v>
       </c>
-      <c r="B163" s="23" t="s">
+      <c r="B163" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C163" s="23"/>
-      <c r="D163" s="23"/>
+      <c r="C163" s="18"/>
+      <c r="D163" s="18"/>
     </row>
     <row r="164" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A164" s="22">
+      <c r="A164" s="17">
         <v>44870</v>
       </c>
-      <c r="B164" s="23" t="s">
+      <c r="B164" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C164" s="23"/>
-      <c r="D164" s="23"/>
+      <c r="C164" s="18"/>
+      <c r="D164" s="18"/>
     </row>
     <row r="165" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A165" s="22">
+      <c r="A165" s="17">
         <v>44871</v>
       </c>
-      <c r="B165" s="23" t="s">
+      <c r="B165" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C165" s="23"/>
-      <c r="D165" s="23"/>
+      <c r="C165" s="18"/>
+      <c r="D165" s="18"/>
     </row>
     <row r="166" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A166" s="22">
+      <c r="A166" s="17">
         <v>44872</v>
       </c>
-      <c r="B166" s="23" t="s">
+      <c r="B166" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C166" s="23"/>
-      <c r="D166" s="23"/>
+      <c r="C166" s="18"/>
+      <c r="D166" s="18"/>
     </row>
     <row r="167" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A167" s="22">
+      <c r="A167" s="17">
         <v>44873</v>
       </c>
-      <c r="B167" s="23" t="s">
+      <c r="B167" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C167" s="23"/>
-      <c r="D167" s="23"/>
+      <c r="C167" s="18"/>
+      <c r="D167" s="18"/>
     </row>
     <row r="168" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A168" s="22">
+      <c r="A168" s="17">
         <v>44874</v>
       </c>
-      <c r="B168" s="23" t="s">
+      <c r="B168" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C168" s="23"/>
-      <c r="D168" s="23"/>
+      <c r="C168" s="18"/>
+      <c r="D168" s="18"/>
     </row>
     <row r="169" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A169" s="22">
+      <c r="A169" s="17">
         <v>44875</v>
       </c>
-      <c r="B169" s="23" t="s">
+      <c r="B169" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C169" s="23"/>
-      <c r="D169" s="23"/>
+      <c r="C169" s="18"/>
+      <c r="D169" s="18"/>
     </row>
     <row r="170" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A170" s="22">
+      <c r="A170" s="17">
         <v>44876</v>
       </c>
-      <c r="B170" s="23" t="s">
+      <c r="B170" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C170" s="23"/>
-      <c r="D170" s="23"/>
+      <c r="C170" s="18"/>
+      <c r="D170" s="18"/>
     </row>
     <row r="171" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A171" s="22">
+      <c r="A171" s="17">
         <v>44877</v>
       </c>
-      <c r="B171" s="23" t="s">
+      <c r="B171" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C171" s="23"/>
-      <c r="D171" s="23"/>
+      <c r="C171" s="18"/>
+      <c r="D171" s="18"/>
     </row>
     <row r="172" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A172" s="22">
+      <c r="A172" s="17">
         <v>44878</v>
       </c>
-      <c r="B172" s="23" t="s">
+      <c r="B172" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C172" s="23"/>
-      <c r="D172" s="23"/>
+      <c r="C172" s="18"/>
+      <c r="D172" s="18"/>
     </row>
     <row r="173" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A173" s="22">
+      <c r="A173" s="17">
         <v>44879</v>
       </c>
-      <c r="B173" s="23" t="s">
+      <c r="B173" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C173" s="23"/>
-      <c r="D173" s="23"/>
+      <c r="C173" s="18"/>
+      <c r="D173" s="18"/>
     </row>
     <row r="174" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A174" s="22">
+      <c r="A174" s="17">
         <v>44880</v>
       </c>
-      <c r="B174" s="23" t="s">
+      <c r="B174" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C174" s="23"/>
-      <c r="D174" s="23"/>
+      <c r="C174" s="18"/>
+      <c r="D174" s="18"/>
     </row>
     <row r="175" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A175" s="22">
+      <c r="A175" s="17">
         <v>44881</v>
       </c>
-      <c r="B175" s="23" t="s">
+      <c r="B175" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C175" s="23"/>
-      <c r="D175" s="23"/>
+      <c r="C175" s="18"/>
+      <c r="D175" s="18"/>
     </row>
     <row r="176" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A176" s="22">
+      <c r="A176" s="17">
         <v>44882</v>
       </c>
-      <c r="B176" s="23" t="s">
+      <c r="B176" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C176" s="23"/>
-      <c r="D176" s="23"/>
+      <c r="C176" s="18"/>
+      <c r="D176" s="18"/>
     </row>
     <row r="177" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A177" s="22">
+      <c r="A177" s="17">
         <v>44883</v>
       </c>
-      <c r="B177" s="23" t="s">
+      <c r="B177" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C177" s="23"/>
-      <c r="D177" s="23"/>
+      <c r="C177" s="18"/>
+      <c r="D177" s="18"/>
     </row>
     <row r="178" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A178" s="22">
+      <c r="A178" s="17">
         <v>44884</v>
       </c>
-      <c r="B178" s="23" t="s">
+      <c r="B178" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C178" s="23"/>
-      <c r="D178" s="23"/>
+      <c r="C178" s="18"/>
+      <c r="D178" s="18"/>
     </row>
     <row r="179" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A179" s="22">
+      <c r="A179" s="17">
         <v>44885</v>
       </c>
-      <c r="B179" s="23" t="s">
+      <c r="B179" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C179" s="23"/>
-      <c r="D179" s="23"/>
+      <c r="C179" s="18"/>
+      <c r="D179" s="18"/>
     </row>
     <row r="180" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A180" s="22">
+      <c r="A180" s="17">
         <v>44886</v>
       </c>
-      <c r="B180" s="23" t="s">
+      <c r="B180" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C180" s="23"/>
-      <c r="D180" s="23"/>
+      <c r="C180" s="18"/>
+      <c r="D180" s="18"/>
     </row>
     <row r="181" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A181" s="22">
+      <c r="A181" s="17">
         <v>44887</v>
       </c>
-      <c r="B181" s="23" t="s">
+      <c r="B181" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C181" s="23"/>
-      <c r="D181" s="23"/>
+      <c r="C181" s="18"/>
+      <c r="D181" s="18"/>
     </row>
     <row r="182" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A182" s="22">
+      <c r="A182" s="17">
         <v>44888</v>
       </c>
-      <c r="B182" s="23" t="s">
+      <c r="B182" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C182" s="23"/>
-      <c r="D182" s="23"/>
+      <c r="C182" s="18"/>
+      <c r="D182" s="18"/>
     </row>
     <row r="183" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A183" s="22">
+      <c r="A183" s="17">
         <v>44889</v>
       </c>
-      <c r="B183" s="23" t="s">
+      <c r="B183" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C183" s="23"/>
-      <c r="D183" s="23"/>
+      <c r="C183" s="18"/>
+      <c r="D183" s="18"/>
     </row>
     <row r="184" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A184" s="22">
+      <c r="A184" s="17">
         <v>44890</v>
       </c>
-      <c r="B184" s="23" t="s">
+      <c r="B184" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C184" s="23"/>
-      <c r="D184" s="23"/>
+      <c r="C184" s="18"/>
+      <c r="D184" s="18"/>
     </row>
     <row r="185" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A185" s="22">
+      <c r="A185" s="17">
         <v>44891</v>
       </c>
-      <c r="B185" s="23" t="s">
+      <c r="B185" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C185" s="23"/>
-      <c r="D185" s="23"/>
+      <c r="C185" s="18"/>
+      <c r="D185" s="18"/>
     </row>
     <row r="186" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A186" s="22">
+      <c r="A186" s="17">
         <v>44892</v>
       </c>
-      <c r="B186" s="23" t="s">
+      <c r="B186" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C186" s="23"/>
-      <c r="D186" s="23"/>
+      <c r="C186" s="18"/>
+      <c r="D186" s="18"/>
     </row>
     <row r="187" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A187" s="22">
+      <c r="A187" s="17">
         <v>44893</v>
       </c>
-      <c r="B187" s="23" t="s">
+      <c r="B187" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C187" s="23"/>
-      <c r="D187" s="23"/>
+      <c r="C187" s="18"/>
+      <c r="D187" s="18"/>
     </row>
     <row r="188" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A188" s="22">
+      <c r="A188" s="17">
         <v>44894</v>
       </c>
-      <c r="B188" s="23" t="s">
+      <c r="B188" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C188" s="23"/>
-      <c r="D188" s="23"/>
+      <c r="C188" s="18"/>
+      <c r="D188" s="18"/>
     </row>
     <row r="189" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A189" s="22">
+      <c r="A189" s="17">
         <v>44895</v>
       </c>
-      <c r="B189" s="23" t="s">
+      <c r="B189" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C189" s="23"/>
-      <c r="D189" s="23"/>
+      <c r="C189" s="18"/>
+      <c r="D189" s="18"/>
     </row>
     <row r="190" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A190" s="22">
+      <c r="A190" s="17">
         <v>44896</v>
       </c>
-      <c r="B190" s="23" t="s">
+      <c r="B190" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C190" s="23"/>
-      <c r="D190" s="23"/>
+      <c r="C190" s="18"/>
+      <c r="D190" s="18"/>
     </row>
     <row r="191" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A191" s="22">
+      <c r="A191" s="17">
         <v>44897</v>
       </c>
-      <c r="B191" s="23" t="s">
+      <c r="B191" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C191" s="23"/>
-      <c r="D191" s="23"/>
+      <c r="C191" s="18"/>
+      <c r="D191" s="18"/>
     </row>
     <row r="192" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A192" s="22">
+      <c r="A192" s="17">
         <v>44898</v>
       </c>
-      <c r="B192" s="23" t="s">
+      <c r="B192" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C192" s="23"/>
-      <c r="D192" s="23"/>
+      <c r="C192" s="18"/>
+      <c r="D192" s="18"/>
     </row>
     <row r="193" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A193" s="22">
+      <c r="A193" s="17">
         <v>44899</v>
       </c>
-      <c r="B193" s="23" t="s">
+      <c r="B193" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C193" s="23"/>
-      <c r="D193" s="23"/>
+      <c r="C193" s="18"/>
+      <c r="D193" s="18"/>
     </row>
     <row r="194" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A194" s="22">
+      <c r="A194" s="17">
         <v>44900</v>
       </c>
-      <c r="B194" s="23" t="s">
+      <c r="B194" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C194" s="23"/>
-      <c r="D194" s="23"/>
+      <c r="C194" s="18"/>
+      <c r="D194" s="18"/>
     </row>
     <row r="195" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A195" s="22">
+      <c r="A195" s="17">
         <v>44901</v>
       </c>
-      <c r="B195" s="23" t="s">
+      <c r="B195" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C195" s="23"/>
-      <c r="D195" s="23"/>
+      <c r="C195" s="18"/>
+      <c r="D195" s="18"/>
     </row>
     <row r="196" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A196" s="22">
+      <c r="A196" s="17">
         <v>44902</v>
       </c>
-      <c r="B196" s="23" t="s">
+      <c r="B196" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C196" s="23"/>
-      <c r="D196" s="23"/>
+      <c r="C196" s="18"/>
+      <c r="D196" s="18"/>
     </row>
     <row r="197" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A197" s="22">
+      <c r="A197" s="17">
         <v>44903</v>
       </c>
-      <c r="B197" s="23" t="s">
+      <c r="B197" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C197" s="23"/>
-      <c r="D197" s="23"/>
+      <c r="C197" s="18"/>
+      <c r="D197" s="18"/>
     </row>
     <row r="198" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A198" s="22">
+      <c r="A198" s="17">
         <v>44904</v>
       </c>
-      <c r="B198" s="23" t="s">
+      <c r="B198" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C198" s="23"/>
-      <c r="D198" s="23"/>
+      <c r="C198" s="18"/>
+      <c r="D198" s="18"/>
     </row>
     <row r="199" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A199" s="22">
+      <c r="A199" s="17">
         <v>44905</v>
       </c>
-      <c r="B199" s="23" t="s">
+      <c r="B199" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C199" s="23"/>
-      <c r="D199" s="23"/>
+      <c r="C199" s="18"/>
+      <c r="D199" s="18"/>
     </row>
     <row r="200" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A200" s="22">
+      <c r="A200" s="17">
         <v>44906</v>
       </c>
-      <c r="B200" s="23" t="s">
+      <c r="B200" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C200" s="23"/>
-      <c r="D200" s="23"/>
+      <c r="C200" s="18"/>
+      <c r="D200" s="18"/>
     </row>
     <row r="201" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A201" s="22">
+      <c r="A201" s="17">
         <v>44907</v>
       </c>
-      <c r="B201" s="23" t="s">
+      <c r="B201" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C201" s="23"/>
-      <c r="D201" s="23"/>
+      <c r="C201" s="18"/>
+      <c r="D201" s="18"/>
     </row>
     <row r="202" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A202" s="22">
+      <c r="A202" s="17">
         <v>44908</v>
       </c>
-      <c r="B202" s="23" t="s">
+      <c r="B202" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C202" s="23"/>
-      <c r="D202" s="23"/>
+      <c r="C202" s="18"/>
+      <c r="D202" s="18"/>
     </row>
     <row r="203" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A203" s="22">
+      <c r="A203" s="17">
         <v>44909</v>
       </c>
-      <c r="B203" s="23" t="s">
+      <c r="B203" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C203" s="23"/>
-      <c r="D203" s="23"/>
+      <c r="C203" s="18"/>
+      <c r="D203" s="18"/>
     </row>
     <row r="204" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A204" s="22">
+      <c r="A204" s="17">
         <v>44910</v>
       </c>
-      <c r="B204" s="23" t="s">
+      <c r="B204" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C204" s="23"/>
-      <c r="D204" s="23"/>
+      <c r="C204" s="18"/>
+      <c r="D204" s="18"/>
     </row>
     <row r="205" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A205" s="22">
+      <c r="A205" s="17">
         <v>44911</v>
       </c>
-      <c r="B205" s="23" t="s">
+      <c r="B205" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C205" s="23"/>
-      <c r="D205" s="23"/>
+      <c r="C205" s="18"/>
+      <c r="D205" s="18"/>
     </row>
     <row r="206" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A206" s="22">
+      <c r="A206" s="17">
         <v>44912</v>
       </c>
-      <c r="B206" s="23" t="s">
+      <c r="B206" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C206" s="23"/>
-      <c r="D206" s="23"/>
+      <c r="C206" s="18"/>
+      <c r="D206" s="18"/>
     </row>
     <row r="207" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A207" s="22">
+      <c r="A207" s="17">
         <v>44913</v>
       </c>
-      <c r="B207" s="23" t="s">
+      <c r="B207" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C207" s="23"/>
-      <c r="D207" s="23"/>
+      <c r="C207" s="18"/>
+      <c r="D207" s="18"/>
     </row>
     <row r="208" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A208" s="22">
+      <c r="A208" s="17">
         <v>44914</v>
       </c>
-      <c r="B208" s="23" t="s">
+      <c r="B208" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C208" s="23"/>
-      <c r="D208" s="23"/>
+      <c r="C208" s="18"/>
+      <c r="D208" s="18"/>
     </row>
     <row r="209" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A209" s="22">
+      <c r="A209" s="17">
         <v>44915</v>
       </c>
-      <c r="B209" s="23" t="s">
+      <c r="B209" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C209" s="23"/>
-      <c r="D209" s="23"/>
+      <c r="C209" s="18"/>
+      <c r="D209" s="18"/>
     </row>
     <row r="210" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A210" s="22">
+      <c r="A210" s="17">
         <v>44916</v>
       </c>
-      <c r="B210" s="23" t="s">
+      <c r="B210" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C210" s="23"/>
-      <c r="D210" s="23"/>
+      <c r="C210" s="18"/>
+      <c r="D210" s="18"/>
     </row>
     <row r="211" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A211" s="22">
+      <c r="A211" s="17">
         <v>44917</v>
       </c>
-      <c r="B211" s="23" t="s">
+      <c r="B211" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C211" s="23"/>
-      <c r="D211" s="23"/>
+      <c r="C211" s="18"/>
+      <c r="D211" s="18"/>
     </row>
     <row r="212" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A212" s="22">
+      <c r="A212" s="17">
         <v>44918</v>
       </c>
-      <c r="B212" s="23" t="s">
+      <c r="B212" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C212" s="23"/>
-      <c r="D212" s="23"/>
+      <c r="C212" s="18"/>
+      <c r="D212" s="18"/>
     </row>
     <row r="213" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A213" s="22">
+      <c r="A213" s="17">
         <v>44919</v>
       </c>
-      <c r="B213" s="23" t="s">
+      <c r="B213" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C213" s="23"/>
-      <c r="D213" s="23"/>
+      <c r="C213" s="18"/>
+      <c r="D213" s="18"/>
     </row>
     <row r="214" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A214" s="22">
+      <c r="A214" s="17">
         <v>44920</v>
       </c>
-      <c r="B214" s="23" t="s">
+      <c r="B214" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C214" s="23"/>
-      <c r="D214" s="23"/>
+      <c r="C214" s="18"/>
+      <c r="D214" s="18"/>
     </row>
     <row r="215" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A215" s="22">
+      <c r="A215" s="17">
         <v>44921</v>
       </c>
-      <c r="B215" s="23" t="s">
+      <c r="B215" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C215" s="23"/>
-      <c r="D215" s="23"/>
+      <c r="C215" s="18"/>
+      <c r="D215" s="18"/>
     </row>
     <row r="216" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A216" s="22">
+      <c r="A216" s="17">
         <v>44922</v>
       </c>
-      <c r="B216" s="23" t="s">
+      <c r="B216" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C216" s="23"/>
-      <c r="D216" s="23"/>
+      <c r="C216" s="18"/>
+      <c r="D216" s="18"/>
     </row>
     <row r="217" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A217" s="22">
+      <c r="A217" s="17">
         <v>44923</v>
       </c>
-      <c r="B217" s="23" t="s">
+      <c r="B217" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C217" s="23"/>
-      <c r="D217" s="23"/>
+      <c r="C217" s="18"/>
+      <c r="D217" s="18"/>
     </row>
     <row r="218" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A218" s="22">
+      <c r="A218" s="17">
         <v>44924</v>
       </c>
-      <c r="B218" s="23" t="s">
+      <c r="B218" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C218" s="23"/>
-      <c r="D218" s="23"/>
+      <c r="C218" s="18"/>
+      <c r="D218" s="18"/>
     </row>
     <row r="219" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A219" s="22">
+      <c r="A219" s="17">
         <v>44925</v>
       </c>
-      <c r="B219" s="23" t="s">
+      <c r="B219" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C219" s="23"/>
-      <c r="D219" s="23"/>
+      <c r="C219" s="18"/>
+      <c r="D219" s="18"/>
     </row>
     <row r="220" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A220" s="22">
+      <c r="A220" s="17">
         <v>44926</v>
       </c>
-      <c r="B220" s="23" t="s">
+      <c r="B220" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C220" s="23"/>
-      <c r="D220" s="23"/>
+      <c r="C220" s="18"/>
+      <c r="D220" s="18"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A221" s="21"/>
-      <c r="B221" s="21"/>
-      <c r="C221" s="21"/>
-      <c r="D221" s="21"/>
+      <c r="A221" s="16"/>
+      <c r="B221" s="16"/>
+      <c r="C221" s="16"/>
+      <c r="D221" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2915,174 +2912,174 @@
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="27">
+      <c r="A3" s="22">
         <v>44708</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="26"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="26"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="26"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="28"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
-      <c r="F13" s="28"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="28"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="28"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="28"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="28"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="28"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
@@ -3092,7 +3089,7 @@
         <f>SUM(D3:D23)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="24">
         <f>E2+D24</f>
         <v>300</v>
       </c>
@@ -3115,72 +3112,37 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="16" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="16" hidden="1"/>
+    <col min="1" max="1" width="26.140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="14" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="14">
+      <c r="A1" s="15">
         <v>44708</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
-      <c r="C4" s="20"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="20"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="20"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="15"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="17"/>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="18"/>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="19"/>
+      <c r="C1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="27"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CODE.xlsx
+++ b/CODE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1572D2F9-E9AB-47C7-8DC6-ACE40BE64A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E23595F-85CD-4455-A4E1-F1D0F4747BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="765" windowWidth="16290" windowHeight="14715" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4860" yWindow="765" windowWidth="16290" windowHeight="14715" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TARGET DAY" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="23">
   <si>
     <t>DATE</t>
   </si>
@@ -85,10 +85,19 @@
     <t>10.32am</t>
   </si>
   <si>
-    <t>10.56/10.58</t>
+    <t>2hrs</t>
   </si>
   <si>
-    <t>2hrs</t>
+    <t>2.50pm</t>
+  </si>
+  <si>
+    <t>7.50pm</t>
+  </si>
+  <si>
+    <t>1hrs</t>
+  </si>
+  <si>
+    <t>5hrs</t>
   </si>
 </sst>
 </file>
@@ -2867,8 +2876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2907,7 +2916,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
       <c r="E2" s="12">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="F2" s="7"/>
     </row>
@@ -2915,7 +2924,9 @@
       <c r="A3" s="22">
         <v>44708</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="22" t="s">
+        <v>22</v>
+      </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
@@ -3091,7 +3102,7 @@
       </c>
       <c r="E24" s="24">
         <f>E2+D24</f>
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="F24" s="10">
         <f>SUM(F5:F23)</f>
@@ -3111,8 +3122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -3131,11 +3142,24 @@
       <c r="B1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="15" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
         <v>19</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">

--- a/CODE.xlsx
+++ b/CODE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E23595F-85CD-4455-A4E1-F1D0F4747BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A745C628-4E75-4CCB-AAB3-00BB5310AD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="765" windowWidth="16290" windowHeight="14715" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="915" windowWidth="19830" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TARGET DAY" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="23">
   <si>
     <t>DATE</t>
   </si>
@@ -643,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G221"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -677,7 +677,9 @@
       <c r="B2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.3">
@@ -2876,7 +2878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>

--- a/CODE.xlsx
+++ b/CODE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A745C628-4E75-4CCB-AAB3-00BB5310AD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB85B17C-CD50-4EF1-A456-71F9FC0D2F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="630" yWindow="915" windowWidth="19830" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="22">
   <si>
     <t>DATE</t>
   </si>
@@ -82,22 +82,19 @@
     <t>TOTAL CODING HOURS</t>
   </si>
   <si>
-    <t>10.32am</t>
+    <t>2.50pm</t>
+  </si>
+  <si>
+    <t>5hrs</t>
+  </si>
+  <si>
+    <t>4.50pm</t>
   </si>
   <si>
     <t>2hrs</t>
   </si>
   <si>
-    <t>2.50pm</t>
-  </si>
-  <si>
-    <t>7.50pm</t>
-  </si>
-  <si>
-    <t>1hrs</t>
-  </si>
-  <si>
-    <t>5hrs</t>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -221,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -301,6 +298,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -644,7 +644,7 @@
   <dimension ref="A1:G221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="26"/>
     </row>
@@ -689,8 +689,12 @@
       <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="C3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
@@ -2927,7 +2931,7 @@
         <v>44708</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
@@ -3125,7 +3129,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -3138,30 +3142,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="15">
-        <v>44708</v>
+      <c r="A1" s="29">
+        <v>44709</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>17</v>
       </c>
+      <c r="C1" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="D1" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">

--- a/CODE.xlsx
+++ b/CODE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB85B17C-CD50-4EF1-A456-71F9FC0D2F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6904AFDC-B1D5-4211-B82B-9117549ED06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="630" yWindow="915" windowWidth="19830" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="26">
   <si>
     <t>DATE</t>
   </si>
@@ -82,19 +82,31 @@
     <t>TOTAL CODING HOURS</t>
   </si>
   <si>
-    <t>2.50pm</t>
-  </si>
-  <si>
     <t>5hrs</t>
   </si>
   <si>
-    <t>4.50pm</t>
+    <t>done</t>
   </si>
   <si>
-    <t>2hrs</t>
+    <t>10.55am</t>
   </si>
   <si>
-    <t>done</t>
+    <t>11.52am</t>
+  </si>
+  <si>
+    <t>1hr</t>
+  </si>
+  <si>
+    <t>1pm</t>
+  </si>
+  <si>
+    <t>5.30pm</t>
+  </si>
+  <si>
+    <t>4.30hrs</t>
+  </si>
+  <si>
+    <t>30min</t>
   </si>
 </sst>
 </file>
@@ -218,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -301,6 +313,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -644,13 +671,14 @@
   <dimension ref="A1:G221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="22.28515625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="27.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" style="34" customWidth="1"/>
     <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="3" hidden="1"/>
@@ -666,7 +694,7 @@
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
     </row>
@@ -678,9 +706,9 @@
         <v>3</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="26"/>
+        <v>25</v>
+      </c>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="17">
@@ -690,10 +718,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.3">
@@ -703,8 +731,12 @@
       <c r="B4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
@@ -713,8 +745,12 @@
       <c r="B5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
@@ -724,7 +760,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
@@ -734,7 +770,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
@@ -744,7 +780,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="D8" s="32"/>
     </row>
     <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A9" s="25">
@@ -754,7 +790,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="D9" s="31"/>
     </row>
     <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
@@ -764,7 +800,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="D10" s="32"/>
     </row>
     <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
@@ -774,7 +810,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="D11" s="32"/>
     </row>
     <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
@@ -784,7 +820,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="D12" s="32"/>
     </row>
     <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
@@ -794,7 +830,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
+      <c r="D13" s="32"/>
     </row>
     <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
@@ -804,7 +840,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="D14" s="32"/>
     </row>
     <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
@@ -814,7 +850,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="D15" s="32"/>
     </row>
     <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="25">
@@ -824,7 +860,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
+      <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
@@ -834,7 +870,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="D17" s="32"/>
     </row>
     <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
@@ -844,7 +880,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="D18" s="32"/>
     </row>
     <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
@@ -854,7 +890,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="D19" s="32"/>
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
@@ -864,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="D20" s="32"/>
     </row>
     <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
@@ -874,7 +910,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="D21" s="32"/>
     </row>
     <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
@@ -884,7 +920,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="D22" s="32"/>
     </row>
     <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
@@ -894,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
+      <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
@@ -904,7 +940,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+      <c r="D24" s="32"/>
     </row>
     <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
@@ -914,7 +950,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
+      <c r="D25" s="32"/>
     </row>
     <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
@@ -924,7 +960,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="D26" s="32"/>
     </row>
     <row r="27" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
@@ -934,7 +970,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
+      <c r="D27" s="32"/>
     </row>
     <row r="28" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
@@ -944,7 +980,7 @@
         <v>8</v>
       </c>
       <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="D28" s="32"/>
     </row>
     <row r="29" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
@@ -954,7 +990,7 @@
         <v>9</v>
       </c>
       <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="D29" s="32"/>
     </row>
     <row r="30" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
@@ -964,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
+      <c r="D30" s="32"/>
     </row>
     <row r="31" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
@@ -974,7 +1010,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
+      <c r="D31" s="32"/>
     </row>
     <row r="32" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
@@ -984,7 +1020,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="D32" s="32"/>
     </row>
     <row r="33" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
@@ -994,7 +1030,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
+      <c r="D33" s="32"/>
     </row>
     <row r="34" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
@@ -1004,7 +1040,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
+      <c r="D34" s="32"/>
     </row>
     <row r="35" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
@@ -1014,7 +1050,7 @@
         <v>8</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
+      <c r="D35" s="32"/>
     </row>
     <row r="36" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
@@ -1024,7 +1060,7 @@
         <v>9</v>
       </c>
       <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="D36" s="32"/>
     </row>
     <row r="37" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
@@ -1034,7 +1070,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
+      <c r="D37" s="32"/>
     </row>
     <row r="38" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A38" s="17">
@@ -1044,7 +1080,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
+      <c r="D38" s="32"/>
     </row>
     <row r="39" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
@@ -1054,7 +1090,7 @@
         <v>5</v>
       </c>
       <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
+      <c r="D39" s="32"/>
     </row>
     <row r="40" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A40" s="17">
@@ -1064,7 +1100,7 @@
         <v>6</v>
       </c>
       <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
+      <c r="D40" s="32"/>
     </row>
     <row r="41" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A41" s="17">
@@ -1074,7 +1110,7 @@
         <v>7</v>
       </c>
       <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
+      <c r="D41" s="32"/>
     </row>
     <row r="42" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A42" s="17">
@@ -1084,7 +1120,7 @@
         <v>8</v>
       </c>
       <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
+      <c r="D42" s="32"/>
     </row>
     <row r="43" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
@@ -1094,7 +1130,7 @@
         <v>9</v>
       </c>
       <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
+      <c r="D43" s="32"/>
     </row>
     <row r="44" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A44" s="17">
@@ -1104,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
+      <c r="D44" s="32"/>
     </row>
     <row r="45" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A45" s="17">
@@ -1114,7 +1150,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="D45" s="32"/>
     </row>
     <row r="46" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="17">
@@ -1124,7 +1160,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
+      <c r="D46" s="32"/>
     </row>
     <row r="47" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A47" s="17">
@@ -1134,7 +1170,7 @@
         <v>6</v>
       </c>
       <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
+      <c r="D47" s="32"/>
     </row>
     <row r="48" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A48" s="17">
@@ -1144,7 +1180,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
+      <c r="D48" s="32"/>
     </row>
     <row r="49" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A49" s="17">
@@ -1154,7 +1190,7 @@
         <v>8</v>
       </c>
       <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
+      <c r="D49" s="32"/>
     </row>
     <row r="50" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A50" s="17">
@@ -1164,7 +1200,7 @@
         <v>9</v>
       </c>
       <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
+      <c r="D50" s="32"/>
     </row>
     <row r="51" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A51" s="17">
@@ -1174,7 +1210,7 @@
         <v>3</v>
       </c>
       <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
+      <c r="D51" s="32"/>
     </row>
     <row r="52" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A52" s="17">
@@ -1184,7 +1220,7 @@
         <v>4</v>
       </c>
       <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
+      <c r="D52" s="32"/>
     </row>
     <row r="53" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A53" s="17">
@@ -1194,7 +1230,7 @@
         <v>5</v>
       </c>
       <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
+      <c r="D53" s="32"/>
     </row>
     <row r="54" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="17">
@@ -1204,7 +1240,7 @@
         <v>6</v>
       </c>
       <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
+      <c r="D54" s="32"/>
     </row>
     <row r="55" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A55" s="17">
@@ -1214,7 +1250,7 @@
         <v>7</v>
       </c>
       <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
+      <c r="D55" s="32"/>
     </row>
     <row r="56" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A56" s="17">
@@ -1224,7 +1260,7 @@
         <v>8</v>
       </c>
       <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
+      <c r="D56" s="32"/>
     </row>
     <row r="57" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A57" s="17">
@@ -1234,7 +1270,7 @@
         <v>9</v>
       </c>
       <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
+      <c r="D57" s="32"/>
     </row>
     <row r="58" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A58" s="17">
@@ -1244,7 +1280,7 @@
         <v>3</v>
       </c>
       <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
+      <c r="D58" s="32"/>
     </row>
     <row r="59" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A59" s="17">
@@ -1254,7 +1290,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
+      <c r="D59" s="32"/>
     </row>
     <row r="60" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="17">
@@ -1264,7 +1300,7 @@
         <v>5</v>
       </c>
       <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
+      <c r="D60" s="32"/>
     </row>
     <row r="61" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A61" s="17">
@@ -1274,7 +1310,7 @@
         <v>6</v>
       </c>
       <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
+      <c r="D61" s="32"/>
     </row>
     <row r="62" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A62" s="17">
@@ -1284,7 +1320,7 @@
         <v>7</v>
       </c>
       <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
+      <c r="D62" s="32"/>
     </row>
     <row r="63" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A63" s="17">
@@ -1294,7 +1330,7 @@
         <v>8</v>
       </c>
       <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
+      <c r="D63" s="32"/>
     </row>
     <row r="64" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
@@ -1304,7 +1340,7 @@
         <v>9</v>
       </c>
       <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
+      <c r="D64" s="32"/>
     </row>
     <row r="65" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="17">
@@ -1314,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
+      <c r="D65" s="32"/>
     </row>
     <row r="66" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A66" s="17">
@@ -1324,7 +1360,7 @@
         <v>4</v>
       </c>
       <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
+      <c r="D66" s="32"/>
     </row>
     <row r="67" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A67" s="17">
@@ -1334,7 +1370,7 @@
         <v>5</v>
       </c>
       <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
+      <c r="D67" s="32"/>
     </row>
     <row r="68" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A68" s="17">
@@ -1344,7 +1380,7 @@
         <v>6</v>
       </c>
       <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
+      <c r="D68" s="32"/>
     </row>
     <row r="69" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A69" s="17">
@@ -1354,7 +1390,7 @@
         <v>7</v>
       </c>
       <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
+      <c r="D69" s="32"/>
     </row>
     <row r="70" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A70" s="17">
@@ -1364,7 +1400,7 @@
         <v>8</v>
       </c>
       <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
+      <c r="D70" s="32"/>
     </row>
     <row r="71" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A71" s="17">
@@ -1374,7 +1410,7 @@
         <v>9</v>
       </c>
       <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
+      <c r="D71" s="32"/>
     </row>
     <row r="72" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A72" s="17">
@@ -1384,7 +1420,7 @@
         <v>3</v>
       </c>
       <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
+      <c r="D72" s="32"/>
     </row>
     <row r="73" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A73" s="17">
@@ -1394,7 +1430,7 @@
         <v>4</v>
       </c>
       <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
+      <c r="D73" s="32"/>
     </row>
     <row r="74" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A74" s="17">
@@ -1404,7 +1440,7 @@
         <v>5</v>
       </c>
       <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
+      <c r="D74" s="32"/>
     </row>
     <row r="75" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A75" s="17">
@@ -1414,7 +1450,7 @@
         <v>6</v>
       </c>
       <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
+      <c r="D75" s="32"/>
     </row>
     <row r="76" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A76" s="17">
@@ -1424,7 +1460,7 @@
         <v>7</v>
       </c>
       <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
+      <c r="D76" s="32"/>
     </row>
     <row r="77" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A77" s="17">
@@ -1434,7 +1470,7 @@
         <v>8</v>
       </c>
       <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
+      <c r="D77" s="32"/>
     </row>
     <row r="78" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A78" s="17">
@@ -1444,7 +1480,7 @@
         <v>9</v>
       </c>
       <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
+      <c r="D78" s="32"/>
     </row>
     <row r="79" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A79" s="17">
@@ -1454,7 +1490,7 @@
         <v>3</v>
       </c>
       <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
+      <c r="D79" s="32"/>
     </row>
     <row r="80" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A80" s="17">
@@ -1464,7 +1500,7 @@
         <v>4</v>
       </c>
       <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
+      <c r="D80" s="32"/>
     </row>
     <row r="81" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A81" s="17">
@@ -1474,7 +1510,7 @@
         <v>5</v>
       </c>
       <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
+      <c r="D81" s="32"/>
     </row>
     <row r="82" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A82" s="17">
@@ -1484,7 +1520,7 @@
         <v>6</v>
       </c>
       <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
+      <c r="D82" s="32"/>
     </row>
     <row r="83" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A83" s="17">
@@ -1494,7 +1530,7 @@
         <v>7</v>
       </c>
       <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
+      <c r="D83" s="32"/>
     </row>
     <row r="84" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A84" s="17">
@@ -1504,7 +1540,7 @@
         <v>8</v>
       </c>
       <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
+      <c r="D84" s="32"/>
     </row>
     <row r="85" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A85" s="17">
@@ -1514,7 +1550,7 @@
         <v>9</v>
       </c>
       <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
+      <c r="D85" s="32"/>
     </row>
     <row r="86" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A86" s="17">
@@ -1524,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
+      <c r="D86" s="32"/>
     </row>
     <row r="87" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A87" s="17">
@@ -1534,7 +1570,7 @@
         <v>4</v>
       </c>
       <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
+      <c r="D87" s="32"/>
     </row>
     <row r="88" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A88" s="17">
@@ -1544,7 +1580,7 @@
         <v>5</v>
       </c>
       <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
+      <c r="D88" s="32"/>
     </row>
     <row r="89" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A89" s="17">
@@ -1554,7 +1590,7 @@
         <v>6</v>
       </c>
       <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
+      <c r="D89" s="32"/>
     </row>
     <row r="90" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A90" s="17">
@@ -1564,7 +1600,7 @@
         <v>7</v>
       </c>
       <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
+      <c r="D90" s="32"/>
     </row>
     <row r="91" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A91" s="17">
@@ -1574,7 +1610,7 @@
         <v>8</v>
       </c>
       <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
+      <c r="D91" s="32"/>
     </row>
     <row r="92" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A92" s="17">
@@ -1584,7 +1620,7 @@
         <v>9</v>
       </c>
       <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
+      <c r="D92" s="32"/>
     </row>
     <row r="93" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A93" s="17">
@@ -1594,7 +1630,7 @@
         <v>3</v>
       </c>
       <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
+      <c r="D93" s="32"/>
     </row>
     <row r="94" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A94" s="17">
@@ -1604,7 +1640,7 @@
         <v>4</v>
       </c>
       <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
+      <c r="D94" s="32"/>
     </row>
     <row r="95" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A95" s="17">
@@ -1614,7 +1650,7 @@
         <v>5</v>
       </c>
       <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
+      <c r="D95" s="32"/>
     </row>
     <row r="96" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A96" s="17">
@@ -1624,7 +1660,7 @@
         <v>6</v>
       </c>
       <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
+      <c r="D96" s="32"/>
     </row>
     <row r="97" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A97" s="17">
@@ -1634,7 +1670,7 @@
         <v>7</v>
       </c>
       <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
+      <c r="D97" s="32"/>
     </row>
     <row r="98" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A98" s="17">
@@ -1644,7 +1680,7 @@
         <v>8</v>
       </c>
       <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
+      <c r="D98" s="32"/>
     </row>
     <row r="99" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A99" s="17">
@@ -1654,7 +1690,7 @@
         <v>9</v>
       </c>
       <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
+      <c r="D99" s="32"/>
     </row>
     <row r="100" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A100" s="17">
@@ -1664,7 +1700,7 @@
         <v>3</v>
       </c>
       <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
+      <c r="D100" s="32"/>
     </row>
     <row r="101" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A101" s="17">
@@ -1674,7 +1710,7 @@
         <v>4</v>
       </c>
       <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
+      <c r="D101" s="32"/>
     </row>
     <row r="102" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A102" s="17">
@@ -1684,7 +1720,7 @@
         <v>5</v>
       </c>
       <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
+      <c r="D102" s="32"/>
     </row>
     <row r="103" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A103" s="17">
@@ -1694,7 +1730,7 @@
         <v>6</v>
       </c>
       <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
+      <c r="D103" s="32"/>
     </row>
     <row r="104" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A104" s="17">
@@ -1704,7 +1740,7 @@
         <v>7</v>
       </c>
       <c r="C104" s="18"/>
-      <c r="D104" s="18"/>
+      <c r="D104" s="32"/>
     </row>
     <row r="105" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A105" s="17">
@@ -1714,7 +1750,7 @@
         <v>8</v>
       </c>
       <c r="C105" s="18"/>
-      <c r="D105" s="18"/>
+      <c r="D105" s="32"/>
     </row>
     <row r="106" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A106" s="17">
@@ -1724,7 +1760,7 @@
         <v>9</v>
       </c>
       <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
+      <c r="D106" s="32"/>
     </row>
     <row r="107" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A107" s="17">
@@ -1734,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
+      <c r="D107" s="32"/>
     </row>
     <row r="108" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A108" s="17">
@@ -1744,7 +1780,7 @@
         <v>4</v>
       </c>
       <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
+      <c r="D108" s="32"/>
     </row>
     <row r="109" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A109" s="17">
@@ -1754,7 +1790,7 @@
         <v>5</v>
       </c>
       <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
+      <c r="D109" s="32"/>
     </row>
     <row r="110" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A110" s="17">
@@ -1764,7 +1800,7 @@
         <v>6</v>
       </c>
       <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
+      <c r="D110" s="32"/>
     </row>
     <row r="111" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A111" s="17">
@@ -1774,7 +1810,7 @@
         <v>7</v>
       </c>
       <c r="C111" s="18"/>
-      <c r="D111" s="18"/>
+      <c r="D111" s="32"/>
     </row>
     <row r="112" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A112" s="17">
@@ -1784,7 +1820,7 @@
         <v>8</v>
       </c>
       <c r="C112" s="18"/>
-      <c r="D112" s="18"/>
+      <c r="D112" s="32"/>
     </row>
     <row r="113" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A113" s="17">
@@ -1794,7 +1830,7 @@
         <v>9</v>
       </c>
       <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
+      <c r="D113" s="32"/>
     </row>
     <row r="114" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A114" s="17">
@@ -1804,7 +1840,7 @@
         <v>3</v>
       </c>
       <c r="C114" s="18"/>
-      <c r="D114" s="18"/>
+      <c r="D114" s="32"/>
     </row>
     <row r="115" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A115" s="17">
@@ -1814,7 +1850,7 @@
         <v>4</v>
       </c>
       <c r="C115" s="18"/>
-      <c r="D115" s="18"/>
+      <c r="D115" s="32"/>
     </row>
     <row r="116" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A116" s="17">
@@ -1824,7 +1860,7 @@
         <v>5</v>
       </c>
       <c r="C116" s="18"/>
-      <c r="D116" s="18"/>
+      <c r="D116" s="32"/>
     </row>
     <row r="117" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A117" s="17">
@@ -1834,7 +1870,7 @@
         <v>6</v>
       </c>
       <c r="C117" s="18"/>
-      <c r="D117" s="18"/>
+      <c r="D117" s="32"/>
     </row>
     <row r="118" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A118" s="17">
@@ -1844,7 +1880,7 @@
         <v>7</v>
       </c>
       <c r="C118" s="18"/>
-      <c r="D118" s="18"/>
+      <c r="D118" s="32"/>
     </row>
     <row r="119" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A119" s="17">
@@ -1854,7 +1890,7 @@
         <v>8</v>
       </c>
       <c r="C119" s="18"/>
-      <c r="D119" s="18"/>
+      <c r="D119" s="32"/>
     </row>
     <row r="120" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A120" s="17">
@@ -1864,7 +1900,7 @@
         <v>9</v>
       </c>
       <c r="C120" s="18"/>
-      <c r="D120" s="18"/>
+      <c r="D120" s="32"/>
     </row>
     <row r="121" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A121" s="17">
@@ -1874,7 +1910,7 @@
         <v>3</v>
       </c>
       <c r="C121" s="18"/>
-      <c r="D121" s="18"/>
+      <c r="D121" s="32"/>
     </row>
     <row r="122" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A122" s="17">
@@ -1884,7 +1920,7 @@
         <v>4</v>
       </c>
       <c r="C122" s="18"/>
-      <c r="D122" s="18"/>
+      <c r="D122" s="32"/>
     </row>
     <row r="123" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A123" s="17">
@@ -1894,7 +1930,7 @@
         <v>5</v>
       </c>
       <c r="C123" s="18"/>
-      <c r="D123" s="18"/>
+      <c r="D123" s="32"/>
     </row>
     <row r="124" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A124" s="17">
@@ -1904,7 +1940,7 @@
         <v>6</v>
       </c>
       <c r="C124" s="18"/>
-      <c r="D124" s="18"/>
+      <c r="D124" s="32"/>
     </row>
     <row r="125" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A125" s="17">
@@ -1914,7 +1950,7 @@
         <v>7</v>
       </c>
       <c r="C125" s="18"/>
-      <c r="D125" s="18"/>
+      <c r="D125" s="32"/>
     </row>
     <row r="126" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A126" s="17">
@@ -1924,7 +1960,7 @@
         <v>8</v>
       </c>
       <c r="C126" s="18"/>
-      <c r="D126" s="18"/>
+      <c r="D126" s="32"/>
     </row>
     <row r="127" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A127" s="17">
@@ -1934,7 +1970,7 @@
         <v>9</v>
       </c>
       <c r="C127" s="18"/>
-      <c r="D127" s="18"/>
+      <c r="D127" s="32"/>
     </row>
     <row r="128" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A128" s="17">
@@ -1944,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="C128" s="18"/>
-      <c r="D128" s="18"/>
+      <c r="D128" s="32"/>
     </row>
     <row r="129" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A129" s="17">
@@ -1954,7 +1990,7 @@
         <v>4</v>
       </c>
       <c r="C129" s="18"/>
-      <c r="D129" s="18"/>
+      <c r="D129" s="32"/>
     </row>
     <row r="130" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A130" s="17">
@@ -1964,7 +2000,7 @@
         <v>5</v>
       </c>
       <c r="C130" s="18"/>
-      <c r="D130" s="18"/>
+      <c r="D130" s="32"/>
     </row>
     <row r="131" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A131" s="17">
@@ -1974,7 +2010,7 @@
         <v>6</v>
       </c>
       <c r="C131" s="18"/>
-      <c r="D131" s="18"/>
+      <c r="D131" s="32"/>
     </row>
     <row r="132" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A132" s="17">
@@ -1984,7 +2020,7 @@
         <v>7</v>
       </c>
       <c r="C132" s="18"/>
-      <c r="D132" s="18"/>
+      <c r="D132" s="32"/>
     </row>
     <row r="133" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A133" s="17">
@@ -1994,7 +2030,7 @@
         <v>8</v>
       </c>
       <c r="C133" s="18"/>
-      <c r="D133" s="18"/>
+      <c r="D133" s="32"/>
     </row>
     <row r="134" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A134" s="17">
@@ -2004,7 +2040,7 @@
         <v>9</v>
       </c>
       <c r="C134" s="18"/>
-      <c r="D134" s="18"/>
+      <c r="D134" s="32"/>
     </row>
     <row r="135" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A135" s="17">
@@ -2014,7 +2050,7 @@
         <v>3</v>
       </c>
       <c r="C135" s="18"/>
-      <c r="D135" s="18"/>
+      <c r="D135" s="32"/>
     </row>
     <row r="136" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A136" s="17">
@@ -2024,7 +2060,7 @@
         <v>4</v>
       </c>
       <c r="C136" s="18"/>
-      <c r="D136" s="18"/>
+      <c r="D136" s="32"/>
     </row>
     <row r="137" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A137" s="17">
@@ -2034,7 +2070,7 @@
         <v>5</v>
       </c>
       <c r="C137" s="18"/>
-      <c r="D137" s="18"/>
+      <c r="D137" s="32"/>
     </row>
     <row r="138" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A138" s="17">
@@ -2044,7 +2080,7 @@
         <v>6</v>
       </c>
       <c r="C138" s="18"/>
-      <c r="D138" s="18"/>
+      <c r="D138" s="32"/>
     </row>
     <row r="139" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A139" s="17">
@@ -2054,7 +2090,7 @@
         <v>7</v>
       </c>
       <c r="C139" s="18"/>
-      <c r="D139" s="18"/>
+      <c r="D139" s="32"/>
     </row>
     <row r="140" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A140" s="17">
@@ -2064,7 +2100,7 @@
         <v>8</v>
       </c>
       <c r="C140" s="18"/>
-      <c r="D140" s="18"/>
+      <c r="D140" s="32"/>
     </row>
     <row r="141" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A141" s="17">
@@ -2074,7 +2110,7 @@
         <v>9</v>
       </c>
       <c r="C141" s="18"/>
-      <c r="D141" s="18"/>
+      <c r="D141" s="32"/>
     </row>
     <row r="142" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A142" s="17">
@@ -2084,7 +2120,7 @@
         <v>3</v>
       </c>
       <c r="C142" s="18"/>
-      <c r="D142" s="18"/>
+      <c r="D142" s="32"/>
     </row>
     <row r="143" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A143" s="17">
@@ -2094,7 +2130,7 @@
         <v>4</v>
       </c>
       <c r="C143" s="18"/>
-      <c r="D143" s="18"/>
+      <c r="D143" s="32"/>
     </row>
     <row r="144" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A144" s="17">
@@ -2104,7 +2140,7 @@
         <v>5</v>
       </c>
       <c r="C144" s="18"/>
-      <c r="D144" s="18"/>
+      <c r="D144" s="32"/>
     </row>
     <row r="145" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A145" s="17">
@@ -2114,7 +2150,7 @@
         <v>6</v>
       </c>
       <c r="C145" s="18"/>
-      <c r="D145" s="18"/>
+      <c r="D145" s="32"/>
     </row>
     <row r="146" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A146" s="17">
@@ -2124,7 +2160,7 @@
         <v>7</v>
       </c>
       <c r="C146" s="18"/>
-      <c r="D146" s="18"/>
+      <c r="D146" s="32"/>
     </row>
     <row r="147" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A147" s="17">
@@ -2134,7 +2170,7 @@
         <v>8</v>
       </c>
       <c r="C147" s="18"/>
-      <c r="D147" s="18"/>
+      <c r="D147" s="32"/>
     </row>
     <row r="148" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A148" s="17">
@@ -2144,7 +2180,7 @@
         <v>9</v>
       </c>
       <c r="C148" s="18"/>
-      <c r="D148" s="18"/>
+      <c r="D148" s="32"/>
     </row>
     <row r="149" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A149" s="17">
@@ -2154,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="C149" s="18"/>
-      <c r="D149" s="18"/>
+      <c r="D149" s="32"/>
     </row>
     <row r="150" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A150" s="17">
@@ -2164,7 +2200,7 @@
         <v>4</v>
       </c>
       <c r="C150" s="18"/>
-      <c r="D150" s="18"/>
+      <c r="D150" s="32"/>
     </row>
     <row r="151" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A151" s="17">
@@ -2174,7 +2210,7 @@
         <v>5</v>
       </c>
       <c r="C151" s="18"/>
-      <c r="D151" s="18"/>
+      <c r="D151" s="32"/>
     </row>
     <row r="152" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A152" s="17">
@@ -2184,7 +2220,7 @@
         <v>6</v>
       </c>
       <c r="C152" s="18"/>
-      <c r="D152" s="18"/>
+      <c r="D152" s="32"/>
     </row>
     <row r="153" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A153" s="17">
@@ -2194,7 +2230,7 @@
         <v>7</v>
       </c>
       <c r="C153" s="18"/>
-      <c r="D153" s="18"/>
+      <c r="D153" s="32"/>
     </row>
     <row r="154" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A154" s="17">
@@ -2204,7 +2240,7 @@
         <v>8</v>
       </c>
       <c r="C154" s="18"/>
-      <c r="D154" s="18"/>
+      <c r="D154" s="32"/>
     </row>
     <row r="155" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A155" s="17">
@@ -2214,7 +2250,7 @@
         <v>9</v>
       </c>
       <c r="C155" s="18"/>
-      <c r="D155" s="18"/>
+      <c r="D155" s="32"/>
     </row>
     <row r="156" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A156" s="17">
@@ -2224,7 +2260,7 @@
         <v>3</v>
       </c>
       <c r="C156" s="18"/>
-      <c r="D156" s="18"/>
+      <c r="D156" s="32"/>
     </row>
     <row r="157" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A157" s="17">
@@ -2234,7 +2270,7 @@
         <v>4</v>
       </c>
       <c r="C157" s="18"/>
-      <c r="D157" s="18"/>
+      <c r="D157" s="32"/>
     </row>
     <row r="158" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A158" s="17">
@@ -2244,7 +2280,7 @@
         <v>5</v>
       </c>
       <c r="C158" s="18"/>
-      <c r="D158" s="18"/>
+      <c r="D158" s="32"/>
     </row>
     <row r="159" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A159" s="17">
@@ -2254,7 +2290,7 @@
         <v>6</v>
       </c>
       <c r="C159" s="18"/>
-      <c r="D159" s="18"/>
+      <c r="D159" s="32"/>
     </row>
     <row r="160" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A160" s="17">
@@ -2264,7 +2300,7 @@
         <v>7</v>
       </c>
       <c r="C160" s="18"/>
-      <c r="D160" s="18"/>
+      <c r="D160" s="32"/>
     </row>
     <row r="161" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A161" s="17">
@@ -2274,7 +2310,7 @@
         <v>8</v>
       </c>
       <c r="C161" s="18"/>
-      <c r="D161" s="18"/>
+      <c r="D161" s="32"/>
     </row>
     <row r="162" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A162" s="17">
@@ -2284,7 +2320,7 @@
         <v>9</v>
       </c>
       <c r="C162" s="18"/>
-      <c r="D162" s="18"/>
+      <c r="D162" s="32"/>
     </row>
     <row r="163" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A163" s="17">
@@ -2294,7 +2330,7 @@
         <v>3</v>
       </c>
       <c r="C163" s="18"/>
-      <c r="D163" s="18"/>
+      <c r="D163" s="32"/>
     </row>
     <row r="164" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A164" s="17">
@@ -2304,7 +2340,7 @@
         <v>4</v>
       </c>
       <c r="C164" s="18"/>
-      <c r="D164" s="18"/>
+      <c r="D164" s="32"/>
     </row>
     <row r="165" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A165" s="17">
@@ -2314,7 +2350,7 @@
         <v>5</v>
       </c>
       <c r="C165" s="18"/>
-      <c r="D165" s="18"/>
+      <c r="D165" s="32"/>
     </row>
     <row r="166" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A166" s="17">
@@ -2324,7 +2360,7 @@
         <v>6</v>
       </c>
       <c r="C166" s="18"/>
-      <c r="D166" s="18"/>
+      <c r="D166" s="32"/>
     </row>
     <row r="167" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A167" s="17">
@@ -2334,7 +2370,7 @@
         <v>7</v>
       </c>
       <c r="C167" s="18"/>
-      <c r="D167" s="18"/>
+      <c r="D167" s="32"/>
     </row>
     <row r="168" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A168" s="17">
@@ -2344,7 +2380,7 @@
         <v>8</v>
       </c>
       <c r="C168" s="18"/>
-      <c r="D168" s="18"/>
+      <c r="D168" s="32"/>
     </row>
     <row r="169" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A169" s="17">
@@ -2354,7 +2390,7 @@
         <v>9</v>
       </c>
       <c r="C169" s="18"/>
-      <c r="D169" s="18"/>
+      <c r="D169" s="32"/>
     </row>
     <row r="170" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A170" s="17">
@@ -2364,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="C170" s="18"/>
-      <c r="D170" s="18"/>
+      <c r="D170" s="32"/>
     </row>
     <row r="171" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A171" s="17">
@@ -2374,7 +2410,7 @@
         <v>4</v>
       </c>
       <c r="C171" s="18"/>
-      <c r="D171" s="18"/>
+      <c r="D171" s="32"/>
     </row>
     <row r="172" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A172" s="17">
@@ -2384,7 +2420,7 @@
         <v>5</v>
       </c>
       <c r="C172" s="18"/>
-      <c r="D172" s="18"/>
+      <c r="D172" s="32"/>
     </row>
     <row r="173" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A173" s="17">
@@ -2394,7 +2430,7 @@
         <v>6</v>
       </c>
       <c r="C173" s="18"/>
-      <c r="D173" s="18"/>
+      <c r="D173" s="32"/>
     </row>
     <row r="174" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A174" s="17">
@@ -2404,7 +2440,7 @@
         <v>7</v>
       </c>
       <c r="C174" s="18"/>
-      <c r="D174" s="18"/>
+      <c r="D174" s="32"/>
     </row>
     <row r="175" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A175" s="17">
@@ -2414,7 +2450,7 @@
         <v>8</v>
       </c>
       <c r="C175" s="18"/>
-      <c r="D175" s="18"/>
+      <c r="D175" s="32"/>
     </row>
     <row r="176" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A176" s="17">
@@ -2424,7 +2460,7 @@
         <v>9</v>
       </c>
       <c r="C176" s="18"/>
-      <c r="D176" s="18"/>
+      <c r="D176" s="32"/>
     </row>
     <row r="177" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A177" s="17">
@@ -2434,7 +2470,7 @@
         <v>3</v>
       </c>
       <c r="C177" s="18"/>
-      <c r="D177" s="18"/>
+      <c r="D177" s="32"/>
     </row>
     <row r="178" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A178" s="17">
@@ -2444,7 +2480,7 @@
         <v>4</v>
       </c>
       <c r="C178" s="18"/>
-      <c r="D178" s="18"/>
+      <c r="D178" s="32"/>
     </row>
     <row r="179" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A179" s="17">
@@ -2454,7 +2490,7 @@
         <v>5</v>
       </c>
       <c r="C179" s="18"/>
-      <c r="D179" s="18"/>
+      <c r="D179" s="32"/>
     </row>
     <row r="180" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A180" s="17">
@@ -2464,7 +2500,7 @@
         <v>6</v>
       </c>
       <c r="C180" s="18"/>
-      <c r="D180" s="18"/>
+      <c r="D180" s="32"/>
     </row>
     <row r="181" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A181" s="17">
@@ -2474,7 +2510,7 @@
         <v>7</v>
       </c>
       <c r="C181" s="18"/>
-      <c r="D181" s="18"/>
+      <c r="D181" s="32"/>
     </row>
     <row r="182" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A182" s="17">
@@ -2484,7 +2520,7 @@
         <v>8</v>
       </c>
       <c r="C182" s="18"/>
-      <c r="D182" s="18"/>
+      <c r="D182" s="32"/>
     </row>
     <row r="183" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A183" s="17">
@@ -2494,7 +2530,7 @@
         <v>9</v>
       </c>
       <c r="C183" s="18"/>
-      <c r="D183" s="18"/>
+      <c r="D183" s="32"/>
     </row>
     <row r="184" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A184" s="17">
@@ -2504,7 +2540,7 @@
         <v>3</v>
       </c>
       <c r="C184" s="18"/>
-      <c r="D184" s="18"/>
+      <c r="D184" s="32"/>
     </row>
     <row r="185" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A185" s="17">
@@ -2514,7 +2550,7 @@
         <v>4</v>
       </c>
       <c r="C185" s="18"/>
-      <c r="D185" s="18"/>
+      <c r="D185" s="32"/>
     </row>
     <row r="186" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A186" s="17">
@@ -2524,7 +2560,7 @@
         <v>5</v>
       </c>
       <c r="C186" s="18"/>
-      <c r="D186" s="18"/>
+      <c r="D186" s="32"/>
     </row>
     <row r="187" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A187" s="17">
@@ -2534,7 +2570,7 @@
         <v>6</v>
       </c>
       <c r="C187" s="18"/>
-      <c r="D187" s="18"/>
+      <c r="D187" s="32"/>
     </row>
     <row r="188" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A188" s="17">
@@ -2544,7 +2580,7 @@
         <v>7</v>
       </c>
       <c r="C188" s="18"/>
-      <c r="D188" s="18"/>
+      <c r="D188" s="32"/>
     </row>
     <row r="189" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A189" s="17">
@@ -2554,7 +2590,7 @@
         <v>8</v>
       </c>
       <c r="C189" s="18"/>
-      <c r="D189" s="18"/>
+      <c r="D189" s="32"/>
     </row>
     <row r="190" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A190" s="17">
@@ -2564,7 +2600,7 @@
         <v>9</v>
       </c>
       <c r="C190" s="18"/>
-      <c r="D190" s="18"/>
+      <c r="D190" s="32"/>
     </row>
     <row r="191" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A191" s="17">
@@ -2574,7 +2610,7 @@
         <v>3</v>
       </c>
       <c r="C191" s="18"/>
-      <c r="D191" s="18"/>
+      <c r="D191" s="32"/>
     </row>
     <row r="192" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A192" s="17">
@@ -2584,7 +2620,7 @@
         <v>4</v>
       </c>
       <c r="C192" s="18"/>
-      <c r="D192" s="18"/>
+      <c r="D192" s="32"/>
     </row>
     <row r="193" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A193" s="17">
@@ -2594,7 +2630,7 @@
         <v>5</v>
       </c>
       <c r="C193" s="18"/>
-      <c r="D193" s="18"/>
+      <c r="D193" s="32"/>
     </row>
     <row r="194" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A194" s="17">
@@ -2604,7 +2640,7 @@
         <v>6</v>
       </c>
       <c r="C194" s="18"/>
-      <c r="D194" s="18"/>
+      <c r="D194" s="32"/>
     </row>
     <row r="195" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A195" s="17">
@@ -2614,7 +2650,7 @@
         <v>7</v>
       </c>
       <c r="C195" s="18"/>
-      <c r="D195" s="18"/>
+      <c r="D195" s="32"/>
     </row>
     <row r="196" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A196" s="17">
@@ -2624,7 +2660,7 @@
         <v>8</v>
       </c>
       <c r="C196" s="18"/>
-      <c r="D196" s="18"/>
+      <c r="D196" s="32"/>
     </row>
     <row r="197" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A197" s="17">
@@ -2634,7 +2670,7 @@
         <v>9</v>
       </c>
       <c r="C197" s="18"/>
-      <c r="D197" s="18"/>
+      <c r="D197" s="32"/>
     </row>
     <row r="198" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A198" s="17">
@@ -2644,7 +2680,7 @@
         <v>3</v>
       </c>
       <c r="C198" s="18"/>
-      <c r="D198" s="18"/>
+      <c r="D198" s="32"/>
     </row>
     <row r="199" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A199" s="17">
@@ -2654,7 +2690,7 @@
         <v>4</v>
       </c>
       <c r="C199" s="18"/>
-      <c r="D199" s="18"/>
+      <c r="D199" s="32"/>
     </row>
     <row r="200" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A200" s="17">
@@ -2664,7 +2700,7 @@
         <v>5</v>
       </c>
       <c r="C200" s="18"/>
-      <c r="D200" s="18"/>
+      <c r="D200" s="32"/>
     </row>
     <row r="201" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A201" s="17">
@@ -2674,7 +2710,7 @@
         <v>6</v>
       </c>
       <c r="C201" s="18"/>
-      <c r="D201" s="18"/>
+      <c r="D201" s="32"/>
     </row>
     <row r="202" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A202" s="17">
@@ -2684,7 +2720,7 @@
         <v>7</v>
       </c>
       <c r="C202" s="18"/>
-      <c r="D202" s="18"/>
+      <c r="D202" s="32"/>
     </row>
     <row r="203" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A203" s="17">
@@ -2694,7 +2730,7 @@
         <v>8</v>
       </c>
       <c r="C203" s="18"/>
-      <c r="D203" s="18"/>
+      <c r="D203" s="32"/>
     </row>
     <row r="204" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A204" s="17">
@@ -2704,7 +2740,7 @@
         <v>9</v>
       </c>
       <c r="C204" s="18"/>
-      <c r="D204" s="18"/>
+      <c r="D204" s="32"/>
     </row>
     <row r="205" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A205" s="17">
@@ -2714,7 +2750,7 @@
         <v>3</v>
       </c>
       <c r="C205" s="18"/>
-      <c r="D205" s="18"/>
+      <c r="D205" s="32"/>
     </row>
     <row r="206" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A206" s="17">
@@ -2724,7 +2760,7 @@
         <v>4</v>
       </c>
       <c r="C206" s="18"/>
-      <c r="D206" s="18"/>
+      <c r="D206" s="32"/>
     </row>
     <row r="207" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A207" s="17">
@@ -2734,7 +2770,7 @@
         <v>5</v>
       </c>
       <c r="C207" s="18"/>
-      <c r="D207" s="18"/>
+      <c r="D207" s="32"/>
     </row>
     <row r="208" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A208" s="17">
@@ -2744,7 +2780,7 @@
         <v>6</v>
       </c>
       <c r="C208" s="18"/>
-      <c r="D208" s="18"/>
+      <c r="D208" s="32"/>
     </row>
     <row r="209" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A209" s="17">
@@ -2754,7 +2790,7 @@
         <v>7</v>
       </c>
       <c r="C209" s="18"/>
-      <c r="D209" s="18"/>
+      <c r="D209" s="32"/>
     </row>
     <row r="210" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A210" s="17">
@@ -2764,7 +2800,7 @@
         <v>8</v>
       </c>
       <c r="C210" s="18"/>
-      <c r="D210" s="18"/>
+      <c r="D210" s="32"/>
     </row>
     <row r="211" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A211" s="17">
@@ -2774,7 +2810,7 @@
         <v>9</v>
       </c>
       <c r="C211" s="18"/>
-      <c r="D211" s="18"/>
+      <c r="D211" s="32"/>
     </row>
     <row r="212" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A212" s="17">
@@ -2784,7 +2820,7 @@
         <v>3</v>
       </c>
       <c r="C212" s="18"/>
-      <c r="D212" s="18"/>
+      <c r="D212" s="32"/>
     </row>
     <row r="213" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A213" s="17">
@@ -2794,7 +2830,7 @@
         <v>4</v>
       </c>
       <c r="C213" s="18"/>
-      <c r="D213" s="18"/>
+      <c r="D213" s="32"/>
     </row>
     <row r="214" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A214" s="17">
@@ -2804,7 +2840,7 @@
         <v>5</v>
       </c>
       <c r="C214" s="18"/>
-      <c r="D214" s="18"/>
+      <c r="D214" s="32"/>
     </row>
     <row r="215" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A215" s="17">
@@ -2814,7 +2850,7 @@
         <v>6</v>
       </c>
       <c r="C215" s="18"/>
-      <c r="D215" s="18"/>
+      <c r="D215" s="32"/>
     </row>
     <row r="216" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A216" s="17">
@@ -2824,7 +2860,7 @@
         <v>7</v>
       </c>
       <c r="C216" s="18"/>
-      <c r="D216" s="18"/>
+      <c r="D216" s="32"/>
     </row>
     <row r="217" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A217" s="17">
@@ -2834,7 +2870,7 @@
         <v>8</v>
       </c>
       <c r="C217" s="18"/>
-      <c r="D217" s="18"/>
+      <c r="D217" s="32"/>
     </row>
     <row r="218" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A218" s="17">
@@ -2844,7 +2880,7 @@
         <v>9</v>
       </c>
       <c r="C218" s="18"/>
-      <c r="D218" s="18"/>
+      <c r="D218" s="32"/>
     </row>
     <row r="219" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A219" s="17">
@@ -2854,7 +2890,7 @@
         <v>3</v>
       </c>
       <c r="C219" s="18"/>
-      <c r="D219" s="18"/>
+      <c r="D219" s="32"/>
     </row>
     <row r="220" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A220" s="17">
@@ -2864,13 +2900,13 @@
         <v>4</v>
       </c>
       <c r="C220" s="18"/>
-      <c r="D220" s="18"/>
+      <c r="D220" s="32"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="16"/>
       <c r="B221" s="16"/>
       <c r="C221" s="16"/>
-      <c r="D221" s="16"/>
+      <c r="D221" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2931,7 +2967,7 @@
         <v>44708</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
@@ -3129,7 +3165,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -3143,16 +3179,29 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="29">
-        <v>44709</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="15" t="s">
+        <v>44711</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="C2" s="15" t="s">
         <v>20</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">

--- a/CODE.xlsx
+++ b/CODE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6904AFDC-B1D5-4211-B82B-9117549ED06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18380A7B-EF47-4F8E-A335-7C0BE46890B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="915" windowWidth="19830" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="915" windowWidth="19830" windowHeight="14715" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TARGET DAY" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="29">
   <si>
     <t>DATE</t>
   </si>
@@ -88,25 +88,34 @@
     <t>done</t>
   </si>
   <si>
-    <t>10.55am</t>
-  </si>
-  <si>
-    <t>11.52am</t>
-  </si>
-  <si>
-    <t>1hr</t>
-  </si>
-  <si>
     <t>1pm</t>
   </si>
   <si>
-    <t>5.30pm</t>
+    <t>30min</t>
   </si>
   <si>
-    <t>4.30hrs</t>
+    <t>10am</t>
   </si>
   <si>
-    <t>30min</t>
+    <t>3hrs</t>
+  </si>
+  <si>
+    <t>12.15pm</t>
+  </si>
+  <si>
+    <t>3pm</t>
+  </si>
+  <si>
+    <t>5pm</t>
+  </si>
+  <si>
+    <t>2hrs</t>
+  </si>
+  <si>
+    <t>7pm</t>
+  </si>
+  <si>
+    <t>9pm</t>
   </si>
 </sst>
 </file>
@@ -670,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -706,7 +715,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D2" s="31"/>
     </row>
@@ -3164,8 +3173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -3179,29 +3188,45 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="29">
-        <v>44711</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="D13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="15" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
         <v>24</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">

--- a/CODE.xlsx
+++ b/CODE.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18380A7B-EF47-4F8E-A335-7C0BE46890B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3784C2B5-2463-4B34-87D6-CA70B28E4CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="915" windowWidth="19830" windowHeight="14715" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="915" windowWidth="19830" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TARGET DAY" sheetId="1" r:id="rId1"/>
     <sheet name="TARGET DETAILS " sheetId="2" r:id="rId2"/>
     <sheet name="TARGET HOURS" sheetId="3" r:id="rId3"/>
+    <sheet name="LOANS" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="35">
   <si>
     <t>DATE</t>
   </si>
@@ -91,9 +92,6 @@
     <t>1pm</t>
   </si>
   <si>
-    <t>30min</t>
-  </si>
-  <si>
     <t>10am</t>
   </si>
   <si>
@@ -117,12 +115,33 @@
   <si>
     <t>9pm</t>
   </si>
+  <si>
+    <t>12.35pm</t>
+  </si>
+  <si>
+    <t>20mins</t>
+  </si>
+  <si>
+    <t>2.45pm</t>
+  </si>
+  <si>
+    <t>2.15mins</t>
+  </si>
+  <si>
+    <t>6.45pm</t>
+  </si>
+  <si>
+    <t>20min</t>
+  </si>
+  <si>
+    <t>Plus 10mins Extra</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +186,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -239,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -337,6 +364,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -679,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G221"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -715,7 +747,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D2" s="31"/>
     </row>
@@ -768,8 +800,12 @@
       <c r="B6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="32"/>
+      <c r="C6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
@@ -3171,10 +3207,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:XFD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -3182,8 +3218,9 @@
     <col min="1" max="1" width="26.140625" style="15" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" style="15" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="15" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="14" hidden="1"/>
+    <col min="4" max="4" width="25" style="15" customWidth="1"/>
+    <col min="5" max="16383" width="9.140625" style="14" hidden="1"/>
+    <col min="16384" max="16384" width="0.28515625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3193,40 +3230,78 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="37" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="D14" s="15" t="s">
         <v>25</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>28</v>
-      </c>
       <c r="D15" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">
@@ -3234,6 +3309,130 @@
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6BC4EC-74D1-47F7-93CE-D93ADF8E9329}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="35">
+        <v>700</v>
+      </c>
+      <c r="B1" s="36">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+    </row>
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+    </row>
+    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+    </row>
+    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+    </row>
+    <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+    </row>
+    <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+    </row>
+    <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+    </row>
+    <row r="9" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+    </row>
+    <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+    </row>
+    <row r="11" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+    </row>
+    <row r="12" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+    </row>
+    <row r="13" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+    </row>
+    <row r="14" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+    </row>
+    <row r="15" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+    </row>
+    <row r="16" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+    </row>
+    <row r="17" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+    </row>
+    <row r="18" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+    </row>
+    <row r="19" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+    </row>
+    <row r="20" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+    </row>
+    <row r="21" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+    </row>
+    <row r="22" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+    </row>
+    <row r="23" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+    </row>
+    <row r="24" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+    </row>
+    <row r="25" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CODE.xlsx
+++ b/CODE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3784C2B5-2463-4B34-87D6-CA70B28E4CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6537CE66-8A9A-432C-AF69-D5FBBA833FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="630" yWindow="915" windowWidth="19830" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="35">
   <si>
     <t>DATE</t>
   </si>
@@ -98,9 +98,6 @@
     <t>3hrs</t>
   </si>
   <si>
-    <t>12.15pm</t>
-  </si>
-  <si>
     <t>3pm</t>
   </si>
   <si>
@@ -116,25 +113,28 @@
     <t>9pm</t>
   </si>
   <si>
-    <t>12.35pm</t>
-  </si>
-  <si>
-    <t>20mins</t>
-  </si>
-  <si>
-    <t>2.45pm</t>
-  </si>
-  <si>
-    <t>2.15mins</t>
-  </si>
-  <si>
-    <t>6.45pm</t>
-  </si>
-  <si>
     <t>20min</t>
   </si>
   <si>
-    <t>Plus 10mins Extra</t>
+    <t>12.45pm</t>
+  </si>
+  <si>
+    <t>2.30pm</t>
+  </si>
+  <si>
+    <t>3.25pm</t>
+  </si>
+  <si>
+    <t>2.40hrs</t>
+  </si>
+  <si>
+    <t>1hr</t>
+  </si>
+  <si>
+    <t>3.50pm</t>
+  </si>
+  <si>
+    <t>1.10pm</t>
   </si>
 </sst>
 </file>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -747,7 +747,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D2" s="31"/>
     </row>
@@ -814,8 +814,12 @@
       <c r="B7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="32"/>
+      <c r="C7" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
@@ -3207,10 +3211,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:XFD24"/>
+  <dimension ref="A1:XFC24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -3225,44 +3229,39 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="29">
-        <v>44712</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D5" s="15" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3284,24 +3283,24 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="D14" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>27</v>
-      </c>
       <c r="D15" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">

--- a/CODE.xlsx
+++ b/CODE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6537CE66-8A9A-432C-AF69-D5FBBA833FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECB2EEE-1BA3-4DFD-B386-E3F506AB9462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="915" windowWidth="19830" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="915" windowWidth="19830" windowHeight="14715" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TARGET DAY" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="39">
   <si>
     <t>DATE</t>
   </si>
@@ -116,25 +116,37 @@
     <t>20min</t>
   </si>
   <si>
-    <t>12.45pm</t>
-  </si>
-  <si>
-    <t>2.30pm</t>
-  </si>
-  <si>
-    <t>3.25pm</t>
-  </si>
-  <si>
-    <t>2.40hrs</t>
-  </si>
-  <si>
-    <t>1hr</t>
-  </si>
-  <si>
-    <t>3.50pm</t>
+    <t>10.20am</t>
+  </si>
+  <si>
+    <t>10.30am</t>
+  </si>
+  <si>
+    <t>10mins</t>
+  </si>
+  <si>
+    <t>11.30am</t>
   </si>
   <si>
     <t>1.10pm</t>
+  </si>
+  <si>
+    <t>1.40hrs</t>
+  </si>
+  <si>
+    <t>2.40pm</t>
+  </si>
+  <si>
+    <t>4.30pm</t>
+  </si>
+  <si>
+    <t>1.50hrs</t>
+  </si>
+  <si>
+    <t>3.40hrs</t>
+  </si>
+  <si>
+    <t>not done</t>
   </si>
 </sst>
 </file>
@@ -266,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -290,9 +302,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -371,6 +380,22 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,15 +736,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="22.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" style="34" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" style="33" customWidth="1"/>
     <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="3" hidden="1"/>
@@ -735,2227 +760,2231 @@
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="25">
+      <c r="A2" s="24">
         <v>44708</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="31"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>44709</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="31" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>44710</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>44711</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="31" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>44712</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="31" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>44713</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="31" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>44714</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="32"/>
+      <c r="C8" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A9" s="25">
+      <c r="A9" s="24">
         <v>44715</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="30"/>
     </row>
     <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>44716</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="32"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="31"/>
     </row>
     <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>44717</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="32"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="31"/>
     </row>
     <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>44718</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="32"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="31"/>
     </row>
     <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
+      <c r="A13" s="16">
         <v>44719</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="32"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="31"/>
     </row>
     <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
+      <c r="A14" s="16">
         <v>44720</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="32"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="31"/>
     </row>
     <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
+      <c r="A15" s="16">
         <v>44721</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="32"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="31"/>
     </row>
     <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A16" s="25">
+      <c r="A16" s="24">
         <v>44722</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="31"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="30"/>
     </row>
     <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
+      <c r="A17" s="16">
         <v>44723</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="32"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="31"/>
     </row>
     <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
+      <c r="A18" s="16">
         <v>44724</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="32"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="31"/>
     </row>
     <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
+      <c r="A19" s="16">
         <v>44725</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="32"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="31"/>
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
+      <c r="A20" s="16">
         <v>44726</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="32"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="31"/>
     </row>
     <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
+      <c r="A21" s="16">
         <v>44727</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="32"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="31"/>
     </row>
     <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
+      <c r="A22" s="16">
         <v>44728</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="32"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="31"/>
     </row>
     <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
+      <c r="A23" s="16">
         <v>44729</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="32"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="31"/>
     </row>
     <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
+      <c r="A24" s="16">
         <v>44730</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="32"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="31"/>
     </row>
     <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A25" s="17">
+      <c r="A25" s="16">
         <v>44731</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="32"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="31"/>
     </row>
     <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A26" s="17">
+      <c r="A26" s="16">
         <v>44732</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="32"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="31"/>
     </row>
     <row r="27" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A27" s="17">
+      <c r="A27" s="16">
         <v>44733</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="32"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="31"/>
     </row>
     <row r="28" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A28" s="17">
+      <c r="A28" s="16">
         <v>44734</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="32"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="31"/>
     </row>
     <row r="29" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A29" s="17">
+      <c r="A29" s="16">
         <v>44735</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="32"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="31"/>
     </row>
     <row r="30" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A30" s="17">
+      <c r="A30" s="16">
         <v>44736</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="32"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="31"/>
     </row>
     <row r="31" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="17">
+      <c r="A31" s="16">
         <v>44737</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="32"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="31"/>
     </row>
     <row r="32" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A32" s="17">
+      <c r="A32" s="16">
         <v>44738</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="32"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="31"/>
     </row>
     <row r="33" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A33" s="17">
+      <c r="A33" s="16">
         <v>44739</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="32"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="31"/>
     </row>
     <row r="34" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A34" s="17">
+      <c r="A34" s="16">
         <v>44740</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="32"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="31"/>
     </row>
     <row r="35" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A35" s="17">
+      <c r="A35" s="16">
         <v>44741</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="32"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="31"/>
     </row>
     <row r="36" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A36" s="17">
+      <c r="A36" s="16">
         <v>44742</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="32"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="31"/>
     </row>
     <row r="37" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A37" s="17">
+      <c r="A37" s="16">
         <v>44743</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="32"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="31"/>
     </row>
     <row r="38" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A38" s="17">
+      <c r="A38" s="16">
         <v>44744</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="32"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="31"/>
     </row>
     <row r="39" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A39" s="17">
+      <c r="A39" s="16">
         <v>44745</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="32"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="31"/>
     </row>
     <row r="40" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A40" s="17">
+      <c r="A40" s="16">
         <v>44746</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="32"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="31"/>
     </row>
     <row r="41" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="17">
+      <c r="A41" s="16">
         <v>44747</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="32"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="31"/>
     </row>
     <row r="42" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A42" s="17">
+      <c r="A42" s="16">
         <v>44748</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="32"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="31"/>
     </row>
     <row r="43" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A43" s="17">
+      <c r="A43" s="16">
         <v>44749</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="32"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="31"/>
     </row>
     <row r="44" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A44" s="17">
+      <c r="A44" s="16">
         <v>44750</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="32"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="31"/>
     </row>
     <row r="45" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A45" s="17">
+      <c r="A45" s="16">
         <v>44751</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="32"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="31"/>
     </row>
     <row r="46" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A46" s="17">
+      <c r="A46" s="16">
         <v>44752</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="32"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="31"/>
     </row>
     <row r="47" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A47" s="17">
+      <c r="A47" s="16">
         <v>44753</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="18"/>
-      <c r="D47" s="32"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="31"/>
     </row>
     <row r="48" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A48" s="17">
+      <c r="A48" s="16">
         <v>44754</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="32"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="31"/>
     </row>
     <row r="49" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A49" s="17">
+      <c r="A49" s="16">
         <v>44755</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="32"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="31"/>
     </row>
     <row r="50" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A50" s="17">
+      <c r="A50" s="16">
         <v>44756</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="32"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="31"/>
     </row>
     <row r="51" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A51" s="17">
+      <c r="A51" s="16">
         <v>44757</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="32"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="31"/>
     </row>
     <row r="52" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A52" s="17">
+      <c r="A52" s="16">
         <v>44758</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="18"/>
-      <c r="D52" s="32"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="31"/>
     </row>
     <row r="53" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A53" s="17">
+      <c r="A53" s="16">
         <v>44759</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="18"/>
-      <c r="D53" s="32"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="31"/>
     </row>
     <row r="54" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A54" s="17">
+      <c r="A54" s="16">
         <v>44760</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="18"/>
-      <c r="D54" s="32"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="31"/>
     </row>
     <row r="55" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A55" s="17">
+      <c r="A55" s="16">
         <v>44761</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="18"/>
-      <c r="D55" s="32"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="31"/>
     </row>
     <row r="56" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A56" s="17">
+      <c r="A56" s="16">
         <v>44762</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="18"/>
-      <c r="D56" s="32"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="31"/>
     </row>
     <row r="57" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A57" s="17">
+      <c r="A57" s="16">
         <v>44763</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="18"/>
-      <c r="D57" s="32"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="31"/>
     </row>
     <row r="58" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A58" s="17">
+      <c r="A58" s="16">
         <v>44764</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="18"/>
-      <c r="D58" s="32"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="31"/>
     </row>
     <row r="59" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A59" s="17">
+      <c r="A59" s="16">
         <v>44765</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="18"/>
-      <c r="D59" s="32"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="31"/>
     </row>
     <row r="60" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A60" s="17">
+      <c r="A60" s="16">
         <v>44766</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="18"/>
-      <c r="D60" s="32"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="31"/>
     </row>
     <row r="61" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A61" s="17">
+      <c r="A61" s="16">
         <v>44767</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="18"/>
-      <c r="D61" s="32"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="31"/>
     </row>
     <row r="62" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A62" s="17">
+      <c r="A62" s="16">
         <v>44768</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="18"/>
-      <c r="D62" s="32"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="31"/>
     </row>
     <row r="63" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A63" s="17">
+      <c r="A63" s="16">
         <v>44769</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="18"/>
-      <c r="D63" s="32"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="31"/>
     </row>
     <row r="64" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A64" s="17">
+      <c r="A64" s="16">
         <v>44770</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="18"/>
-      <c r="D64" s="32"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="31"/>
     </row>
     <row r="65" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A65" s="17">
+      <c r="A65" s="16">
         <v>44771</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="18"/>
-      <c r="D65" s="32"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="31"/>
     </row>
     <row r="66" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A66" s="17">
+      <c r="A66" s="16">
         <v>44772</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="18"/>
-      <c r="D66" s="32"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="31"/>
     </row>
     <row r="67" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A67" s="17">
+      <c r="A67" s="16">
         <v>44773</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="18"/>
-      <c r="D67" s="32"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="31"/>
     </row>
     <row r="68" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A68" s="17">
+      <c r="A68" s="16">
         <v>44774</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="18"/>
-      <c r="D68" s="32"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="31"/>
     </row>
     <row r="69" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A69" s="17">
+      <c r="A69" s="16">
         <v>44775</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="18"/>
-      <c r="D69" s="32"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="31"/>
     </row>
     <row r="70" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A70" s="17">
+      <c r="A70" s="16">
         <v>44776</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="18"/>
-      <c r="D70" s="32"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="31"/>
     </row>
     <row r="71" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A71" s="17">
+      <c r="A71" s="16">
         <v>44777</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="18"/>
-      <c r="D71" s="32"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="31"/>
     </row>
     <row r="72" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A72" s="17">
+      <c r="A72" s="16">
         <v>44778</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="18"/>
-      <c r="D72" s="32"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="31"/>
     </row>
     <row r="73" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A73" s="17">
+      <c r="A73" s="16">
         <v>44779</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C73" s="18"/>
-      <c r="D73" s="32"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="31"/>
     </row>
     <row r="74" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A74" s="17">
+      <c r="A74" s="16">
         <v>44780</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="18"/>
-      <c r="D74" s="32"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="31"/>
     </row>
     <row r="75" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A75" s="17">
+      <c r="A75" s="16">
         <v>44781</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="18"/>
-      <c r="D75" s="32"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="31"/>
     </row>
     <row r="76" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A76" s="17">
+      <c r="A76" s="16">
         <v>44782</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="18"/>
-      <c r="D76" s="32"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="31"/>
     </row>
     <row r="77" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A77" s="17">
+      <c r="A77" s="16">
         <v>44783</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="18"/>
-      <c r="D77" s="32"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="31"/>
     </row>
     <row r="78" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A78" s="17">
+      <c r="A78" s="16">
         <v>44784</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C78" s="18"/>
-      <c r="D78" s="32"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="31"/>
     </row>
     <row r="79" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A79" s="17">
+      <c r="A79" s="16">
         <v>44785</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="18"/>
-      <c r="D79" s="32"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="31"/>
     </row>
     <row r="80" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A80" s="17">
+      <c r="A80" s="16">
         <v>44786</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C80" s="18"/>
-      <c r="D80" s="32"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="31"/>
     </row>
     <row r="81" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A81" s="17">
+      <c r="A81" s="16">
         <v>44787</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C81" s="18"/>
-      <c r="D81" s="32"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="31"/>
     </row>
     <row r="82" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A82" s="17">
+      <c r="A82" s="16">
         <v>44788</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C82" s="18"/>
-      <c r="D82" s="32"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="31"/>
     </row>
     <row r="83" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A83" s="17">
+      <c r="A83" s="16">
         <v>44789</v>
       </c>
-      <c r="B83" s="18" t="s">
+      <c r="B83" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="18"/>
-      <c r="D83" s="32"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="31"/>
     </row>
     <row r="84" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A84" s="17">
+      <c r="A84" s="16">
         <v>44790</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="18"/>
-      <c r="D84" s="32"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="31"/>
     </row>
     <row r="85" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A85" s="17">
+      <c r="A85" s="16">
         <v>44791</v>
       </c>
-      <c r="B85" s="18" t="s">
+      <c r="B85" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C85" s="18"/>
-      <c r="D85" s="32"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="31"/>
     </row>
     <row r="86" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A86" s="17">
+      <c r="A86" s="16">
         <v>44792</v>
       </c>
-      <c r="B86" s="18" t="s">
+      <c r="B86" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C86" s="18"/>
-      <c r="D86" s="32"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="31"/>
     </row>
     <row r="87" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A87" s="17">
+      <c r="A87" s="16">
         <v>44793</v>
       </c>
-      <c r="B87" s="18" t="s">
+      <c r="B87" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C87" s="18"/>
-      <c r="D87" s="32"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="31"/>
     </row>
     <row r="88" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A88" s="17">
+      <c r="A88" s="16">
         <v>44794</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C88" s="18"/>
-      <c r="D88" s="32"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="31"/>
     </row>
     <row r="89" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A89" s="17">
+      <c r="A89" s="16">
         <v>44795</v>
       </c>
-      <c r="B89" s="18" t="s">
+      <c r="B89" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="18"/>
-      <c r="D89" s="32"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="31"/>
     </row>
     <row r="90" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A90" s="17">
+      <c r="A90" s="16">
         <v>44796</v>
       </c>
-      <c r="B90" s="18" t="s">
+      <c r="B90" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="18"/>
-      <c r="D90" s="32"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="31"/>
     </row>
     <row r="91" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A91" s="17">
+      <c r="A91" s="16">
         <v>44797</v>
       </c>
-      <c r="B91" s="18" t="s">
+      <c r="B91" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C91" s="18"/>
-      <c r="D91" s="32"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="31"/>
     </row>
     <row r="92" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A92" s="17">
+      <c r="A92" s="16">
         <v>44798</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="B92" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C92" s="18"/>
-      <c r="D92" s="32"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="31"/>
     </row>
     <row r="93" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A93" s="17">
+      <c r="A93" s="16">
         <v>44799</v>
       </c>
-      <c r="B93" s="18" t="s">
+      <c r="B93" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C93" s="18"/>
-      <c r="D93" s="32"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="31"/>
     </row>
     <row r="94" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A94" s="17">
+      <c r="A94" s="16">
         <v>44800</v>
       </c>
-      <c r="B94" s="18" t="s">
+      <c r="B94" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C94" s="18"/>
-      <c r="D94" s="32"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="31"/>
     </row>
     <row r="95" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A95" s="17">
+      <c r="A95" s="16">
         <v>44801</v>
       </c>
-      <c r="B95" s="18" t="s">
+      <c r="B95" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C95" s="18"/>
-      <c r="D95" s="32"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="31"/>
     </row>
     <row r="96" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A96" s="17">
+      <c r="A96" s="16">
         <v>44802</v>
       </c>
-      <c r="B96" s="18" t="s">
+      <c r="B96" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="18"/>
-      <c r="D96" s="32"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="31"/>
     </row>
     <row r="97" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A97" s="17">
+      <c r="A97" s="16">
         <v>44803</v>
       </c>
-      <c r="B97" s="18" t="s">
+      <c r="B97" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="18"/>
-      <c r="D97" s="32"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="31"/>
     </row>
     <row r="98" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A98" s="17">
+      <c r="A98" s="16">
         <v>44804</v>
       </c>
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C98" s="18"/>
-      <c r="D98" s="32"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="31"/>
     </row>
     <row r="99" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A99" s="17">
+      <c r="A99" s="16">
         <v>44805</v>
       </c>
-      <c r="B99" s="18" t="s">
+      <c r="B99" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C99" s="18"/>
-      <c r="D99" s="32"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="31"/>
     </row>
     <row r="100" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A100" s="17">
+      <c r="A100" s="16">
         <v>44806</v>
       </c>
-      <c r="B100" s="18" t="s">
+      <c r="B100" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C100" s="18"/>
-      <c r="D100" s="32"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="31"/>
     </row>
     <row r="101" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A101" s="17">
+      <c r="A101" s="16">
         <v>44807</v>
       </c>
-      <c r="B101" s="18" t="s">
+      <c r="B101" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C101" s="18"/>
-      <c r="D101" s="32"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="31"/>
     </row>
     <row r="102" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A102" s="17">
+      <c r="A102" s="16">
         <v>44808</v>
       </c>
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C102" s="18"/>
-      <c r="D102" s="32"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="31"/>
     </row>
     <row r="103" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A103" s="17">
+      <c r="A103" s="16">
         <v>44809</v>
       </c>
-      <c r="B103" s="18" t="s">
+      <c r="B103" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="18"/>
-      <c r="D103" s="32"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="31"/>
     </row>
     <row r="104" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A104" s="17">
+      <c r="A104" s="16">
         <v>44810</v>
       </c>
-      <c r="B104" s="18" t="s">
+      <c r="B104" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="18"/>
-      <c r="D104" s="32"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="31"/>
     </row>
     <row r="105" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A105" s="17">
+      <c r="A105" s="16">
         <v>44811</v>
       </c>
-      <c r="B105" s="18" t="s">
+      <c r="B105" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C105" s="18"/>
-      <c r="D105" s="32"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="31"/>
     </row>
     <row r="106" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A106" s="17">
+      <c r="A106" s="16">
         <v>44812</v>
       </c>
-      <c r="B106" s="18" t="s">
+      <c r="B106" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C106" s="18"/>
-      <c r="D106" s="32"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="31"/>
     </row>
     <row r="107" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A107" s="17">
+      <c r="A107" s="16">
         <v>44813</v>
       </c>
-      <c r="B107" s="18" t="s">
+      <c r="B107" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C107" s="18"/>
-      <c r="D107" s="32"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="31"/>
     </row>
     <row r="108" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A108" s="17">
+      <c r="A108" s="16">
         <v>44814</v>
       </c>
-      <c r="B108" s="18" t="s">
+      <c r="B108" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C108" s="18"/>
-      <c r="D108" s="32"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="31"/>
     </row>
     <row r="109" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A109" s="17">
+      <c r="A109" s="16">
         <v>44815</v>
       </c>
-      <c r="B109" s="18" t="s">
+      <c r="B109" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C109" s="18"/>
-      <c r="D109" s="32"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="31"/>
     </row>
     <row r="110" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A110" s="17">
+      <c r="A110" s="16">
         <v>44816</v>
       </c>
-      <c r="B110" s="18" t="s">
+      <c r="B110" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C110" s="18"/>
-      <c r="D110" s="32"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="31"/>
     </row>
     <row r="111" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A111" s="17">
+      <c r="A111" s="16">
         <v>44817</v>
       </c>
-      <c r="B111" s="18" t="s">
+      <c r="B111" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C111" s="18"/>
-      <c r="D111" s="32"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="31"/>
     </row>
     <row r="112" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A112" s="17">
+      <c r="A112" s="16">
         <v>44818</v>
       </c>
-      <c r="B112" s="18" t="s">
+      <c r="B112" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C112" s="18"/>
-      <c r="D112" s="32"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="31"/>
     </row>
     <row r="113" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A113" s="17">
+      <c r="A113" s="16">
         <v>44819</v>
       </c>
-      <c r="B113" s="18" t="s">
+      <c r="B113" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C113" s="18"/>
-      <c r="D113" s="32"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="31"/>
     </row>
     <row r="114" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A114" s="17">
+      <c r="A114" s="16">
         <v>44820</v>
       </c>
-      <c r="B114" s="18" t="s">
+      <c r="B114" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C114" s="18"/>
-      <c r="D114" s="32"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="31"/>
     </row>
     <row r="115" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A115" s="17">
+      <c r="A115" s="16">
         <v>44821</v>
       </c>
-      <c r="B115" s="18" t="s">
+      <c r="B115" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C115" s="18"/>
-      <c r="D115" s="32"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="31"/>
     </row>
     <row r="116" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A116" s="17">
+      <c r="A116" s="16">
         <v>44822</v>
       </c>
-      <c r="B116" s="18" t="s">
+      <c r="B116" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C116" s="18"/>
-      <c r="D116" s="32"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="31"/>
     </row>
     <row r="117" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A117" s="17">
+      <c r="A117" s="16">
         <v>44823</v>
       </c>
-      <c r="B117" s="18" t="s">
+      <c r="B117" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C117" s="18"/>
-      <c r="D117" s="32"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="31"/>
     </row>
     <row r="118" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A118" s="17">
+      <c r="A118" s="16">
         <v>44824</v>
       </c>
-      <c r="B118" s="18" t="s">
+      <c r="B118" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C118" s="18"/>
-      <c r="D118" s="32"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="31"/>
     </row>
     <row r="119" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A119" s="17">
+      <c r="A119" s="16">
         <v>44825</v>
       </c>
-      <c r="B119" s="18" t="s">
+      <c r="B119" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C119" s="18"/>
-      <c r="D119" s="32"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="31"/>
     </row>
     <row r="120" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A120" s="17">
+      <c r="A120" s="16">
         <v>44826</v>
       </c>
-      <c r="B120" s="18" t="s">
+      <c r="B120" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C120" s="18"/>
-      <c r="D120" s="32"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="31"/>
     </row>
     <row r="121" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A121" s="17">
+      <c r="A121" s="16">
         <v>44827</v>
       </c>
-      <c r="B121" s="18" t="s">
+      <c r="B121" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C121" s="18"/>
-      <c r="D121" s="32"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="31"/>
     </row>
     <row r="122" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A122" s="17">
+      <c r="A122" s="16">
         <v>44828</v>
       </c>
-      <c r="B122" s="18" t="s">
+      <c r="B122" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C122" s="18"/>
-      <c r="D122" s="32"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="31"/>
     </row>
     <row r="123" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A123" s="17">
+      <c r="A123" s="16">
         <v>44829</v>
       </c>
-      <c r="B123" s="18" t="s">
+      <c r="B123" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C123" s="18"/>
-      <c r="D123" s="32"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="31"/>
     </row>
     <row r="124" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A124" s="17">
+      <c r="A124" s="16">
         <v>44830</v>
       </c>
-      <c r="B124" s="18" t="s">
+      <c r="B124" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C124" s="18"/>
-      <c r="D124" s="32"/>
+      <c r="C124" s="17"/>
+      <c r="D124" s="31"/>
     </row>
     <row r="125" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A125" s="17">
+      <c r="A125" s="16">
         <v>44831</v>
       </c>
-      <c r="B125" s="18" t="s">
+      <c r="B125" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C125" s="18"/>
-      <c r="D125" s="32"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="31"/>
     </row>
     <row r="126" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A126" s="17">
+      <c r="A126" s="16">
         <v>44832</v>
       </c>
-      <c r="B126" s="18" t="s">
+      <c r="B126" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C126" s="18"/>
-      <c r="D126" s="32"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="31"/>
     </row>
     <row r="127" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A127" s="17">
+      <c r="A127" s="16">
         <v>44833</v>
       </c>
-      <c r="B127" s="18" t="s">
+      <c r="B127" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C127" s="18"/>
-      <c r="D127" s="32"/>
+      <c r="C127" s="17"/>
+      <c r="D127" s="31"/>
     </row>
     <row r="128" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A128" s="17">
+      <c r="A128" s="16">
         <v>44834</v>
       </c>
-      <c r="B128" s="18" t="s">
+      <c r="B128" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C128" s="18"/>
-      <c r="D128" s="32"/>
+      <c r="C128" s="17"/>
+      <c r="D128" s="31"/>
     </row>
     <row r="129" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A129" s="17">
+      <c r="A129" s="16">
         <v>44835</v>
       </c>
-      <c r="B129" s="18" t="s">
+      <c r="B129" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C129" s="18"/>
-      <c r="D129" s="32"/>
+      <c r="C129" s="17"/>
+      <c r="D129" s="31"/>
     </row>
     <row r="130" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A130" s="17">
+      <c r="A130" s="16">
         <v>44836</v>
       </c>
-      <c r="B130" s="18" t="s">
+      <c r="B130" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C130" s="18"/>
-      <c r="D130" s="32"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="31"/>
     </row>
     <row r="131" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A131" s="17">
+      <c r="A131" s="16">
         <v>44837</v>
       </c>
-      <c r="B131" s="18" t="s">
+      <c r="B131" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C131" s="18"/>
-      <c r="D131" s="32"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="31"/>
     </row>
     <row r="132" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A132" s="17">
+      <c r="A132" s="16">
         <v>44838</v>
       </c>
-      <c r="B132" s="18" t="s">
+      <c r="B132" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C132" s="18"/>
-      <c r="D132" s="32"/>
+      <c r="C132" s="17"/>
+      <c r="D132" s="31"/>
     </row>
     <row r="133" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A133" s="17">
+      <c r="A133" s="16">
         <v>44839</v>
       </c>
-      <c r="B133" s="18" t="s">
+      <c r="B133" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C133" s="18"/>
-      <c r="D133" s="32"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="31"/>
     </row>
     <row r="134" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A134" s="17">
+      <c r="A134" s="16">
         <v>44840</v>
       </c>
-      <c r="B134" s="18" t="s">
+      <c r="B134" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C134" s="18"/>
-      <c r="D134" s="32"/>
+      <c r="C134" s="17"/>
+      <c r="D134" s="31"/>
     </row>
     <row r="135" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A135" s="17">
+      <c r="A135" s="16">
         <v>44841</v>
       </c>
-      <c r="B135" s="18" t="s">
+      <c r="B135" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C135" s="18"/>
-      <c r="D135" s="32"/>
+      <c r="C135" s="17"/>
+      <c r="D135" s="31"/>
     </row>
     <row r="136" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A136" s="17">
+      <c r="A136" s="16">
         <v>44842</v>
       </c>
-      <c r="B136" s="18" t="s">
+      <c r="B136" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C136" s="18"/>
-      <c r="D136" s="32"/>
+      <c r="C136" s="17"/>
+      <c r="D136" s="31"/>
     </row>
     <row r="137" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A137" s="17">
+      <c r="A137" s="16">
         <v>44843</v>
       </c>
-      <c r="B137" s="18" t="s">
+      <c r="B137" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C137" s="18"/>
-      <c r="D137" s="32"/>
+      <c r="C137" s="17"/>
+      <c r="D137" s="31"/>
     </row>
     <row r="138" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A138" s="17">
+      <c r="A138" s="16">
         <v>44844</v>
       </c>
-      <c r="B138" s="18" t="s">
+      <c r="B138" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C138" s="18"/>
-      <c r="D138" s="32"/>
+      <c r="C138" s="17"/>
+      <c r="D138" s="31"/>
     </row>
     <row r="139" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A139" s="17">
+      <c r="A139" s="16">
         <v>44845</v>
       </c>
-      <c r="B139" s="18" t="s">
+      <c r="B139" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C139" s="18"/>
-      <c r="D139" s="32"/>
+      <c r="C139" s="17"/>
+      <c r="D139" s="31"/>
     </row>
     <row r="140" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A140" s="17">
+      <c r="A140" s="16">
         <v>44846</v>
       </c>
-      <c r="B140" s="18" t="s">
+      <c r="B140" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C140" s="18"/>
-      <c r="D140" s="32"/>
+      <c r="C140" s="17"/>
+      <c r="D140" s="31"/>
     </row>
     <row r="141" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A141" s="17">
+      <c r="A141" s="16">
         <v>44847</v>
       </c>
-      <c r="B141" s="18" t="s">
+      <c r="B141" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C141" s="18"/>
-      <c r="D141" s="32"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="31"/>
     </row>
     <row r="142" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A142" s="17">
+      <c r="A142" s="16">
         <v>44848</v>
       </c>
-      <c r="B142" s="18" t="s">
+      <c r="B142" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C142" s="18"/>
-      <c r="D142" s="32"/>
+      <c r="C142" s="17"/>
+      <c r="D142" s="31"/>
     </row>
     <row r="143" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A143" s="17">
+      <c r="A143" s="16">
         <v>44849</v>
       </c>
-      <c r="B143" s="18" t="s">
+      <c r="B143" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C143" s="18"/>
-      <c r="D143" s="32"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="31"/>
     </row>
     <row r="144" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A144" s="17">
+      <c r="A144" s="16">
         <v>44850</v>
       </c>
-      <c r="B144" s="18" t="s">
+      <c r="B144" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C144" s="18"/>
-      <c r="D144" s="32"/>
+      <c r="C144" s="17"/>
+      <c r="D144" s="31"/>
     </row>
     <row r="145" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A145" s="17">
+      <c r="A145" s="16">
         <v>44851</v>
       </c>
-      <c r="B145" s="18" t="s">
+      <c r="B145" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C145" s="18"/>
-      <c r="D145" s="32"/>
+      <c r="C145" s="17"/>
+      <c r="D145" s="31"/>
     </row>
     <row r="146" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A146" s="17">
+      <c r="A146" s="16">
         <v>44852</v>
       </c>
-      <c r="B146" s="18" t="s">
+      <c r="B146" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C146" s="18"/>
-      <c r="D146" s="32"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="31"/>
     </row>
     <row r="147" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A147" s="17">
+      <c r="A147" s="16">
         <v>44853</v>
       </c>
-      <c r="B147" s="18" t="s">
+      <c r="B147" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C147" s="18"/>
-      <c r="D147" s="32"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="31"/>
     </row>
     <row r="148" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A148" s="17">
+      <c r="A148" s="16">
         <v>44854</v>
       </c>
-      <c r="B148" s="18" t="s">
+      <c r="B148" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C148" s="18"/>
-      <c r="D148" s="32"/>
+      <c r="C148" s="17"/>
+      <c r="D148" s="31"/>
     </row>
     <row r="149" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A149" s="17">
+      <c r="A149" s="16">
         <v>44855</v>
       </c>
-      <c r="B149" s="18" t="s">
+      <c r="B149" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C149" s="18"/>
-      <c r="D149" s="32"/>
+      <c r="C149" s="17"/>
+      <c r="D149" s="31"/>
     </row>
     <row r="150" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A150" s="17">
+      <c r="A150" s="16">
         <v>44856</v>
       </c>
-      <c r="B150" s="18" t="s">
+      <c r="B150" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C150" s="18"/>
-      <c r="D150" s="32"/>
+      <c r="C150" s="17"/>
+      <c r="D150" s="31"/>
     </row>
     <row r="151" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A151" s="17">
+      <c r="A151" s="16">
         <v>44857</v>
       </c>
-      <c r="B151" s="18" t="s">
+      <c r="B151" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C151" s="18"/>
-      <c r="D151" s="32"/>
+      <c r="C151" s="17"/>
+      <c r="D151" s="31"/>
     </row>
     <row r="152" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A152" s="17">
+      <c r="A152" s="16">
         <v>44858</v>
       </c>
-      <c r="B152" s="18" t="s">
+      <c r="B152" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C152" s="18"/>
-      <c r="D152" s="32"/>
+      <c r="C152" s="17"/>
+      <c r="D152" s="31"/>
     </row>
     <row r="153" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A153" s="17">
+      <c r="A153" s="16">
         <v>44859</v>
       </c>
-      <c r="B153" s="18" t="s">
+      <c r="B153" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C153" s="18"/>
-      <c r="D153" s="32"/>
+      <c r="C153" s="17"/>
+      <c r="D153" s="31"/>
     </row>
     <row r="154" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A154" s="17">
+      <c r="A154" s="16">
         <v>44860</v>
       </c>
-      <c r="B154" s="18" t="s">
+      <c r="B154" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C154" s="18"/>
-      <c r="D154" s="32"/>
+      <c r="C154" s="17"/>
+      <c r="D154" s="31"/>
     </row>
     <row r="155" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A155" s="17">
+      <c r="A155" s="16">
         <v>44861</v>
       </c>
-      <c r="B155" s="18" t="s">
+      <c r="B155" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C155" s="18"/>
-      <c r="D155" s="32"/>
+      <c r="C155" s="17"/>
+      <c r="D155" s="31"/>
     </row>
     <row r="156" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A156" s="17">
+      <c r="A156" s="16">
         <v>44862</v>
       </c>
-      <c r="B156" s="18" t="s">
+      <c r="B156" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C156" s="18"/>
-      <c r="D156" s="32"/>
+      <c r="C156" s="17"/>
+      <c r="D156" s="31"/>
     </row>
     <row r="157" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A157" s="17">
+      <c r="A157" s="16">
         <v>44863</v>
       </c>
-      <c r="B157" s="18" t="s">
+      <c r="B157" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C157" s="18"/>
-      <c r="D157" s="32"/>
+      <c r="C157" s="17"/>
+      <c r="D157" s="31"/>
     </row>
     <row r="158" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A158" s="17">
+      <c r="A158" s="16">
         <v>44864</v>
       </c>
-      <c r="B158" s="18" t="s">
+      <c r="B158" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C158" s="18"/>
-      <c r="D158" s="32"/>
+      <c r="C158" s="17"/>
+      <c r="D158" s="31"/>
     </row>
     <row r="159" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A159" s="17">
+      <c r="A159" s="16">
         <v>44865</v>
       </c>
-      <c r="B159" s="18" t="s">
+      <c r="B159" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C159" s="18"/>
-      <c r="D159" s="32"/>
+      <c r="C159" s="17"/>
+      <c r="D159" s="31"/>
     </row>
     <row r="160" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A160" s="17">
+      <c r="A160" s="16">
         <v>44866</v>
       </c>
-      <c r="B160" s="18" t="s">
+      <c r="B160" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C160" s="18"/>
-      <c r="D160" s="32"/>
+      <c r="C160" s="17"/>
+      <c r="D160" s="31"/>
     </row>
     <row r="161" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A161" s="17">
+      <c r="A161" s="16">
         <v>44867</v>
       </c>
-      <c r="B161" s="18" t="s">
+      <c r="B161" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C161" s="18"/>
-      <c r="D161" s="32"/>
+      <c r="C161" s="17"/>
+      <c r="D161" s="31"/>
     </row>
     <row r="162" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A162" s="17">
+      <c r="A162" s="16">
         <v>44868</v>
       </c>
-      <c r="B162" s="18" t="s">
+      <c r="B162" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C162" s="18"/>
-      <c r="D162" s="32"/>
+      <c r="C162" s="17"/>
+      <c r="D162" s="31"/>
     </row>
     <row r="163" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A163" s="17">
+      <c r="A163" s="16">
         <v>44869</v>
       </c>
-      <c r="B163" s="18" t="s">
+      <c r="B163" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C163" s="18"/>
-      <c r="D163" s="32"/>
+      <c r="C163" s="17"/>
+      <c r="D163" s="31"/>
     </row>
     <row r="164" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A164" s="17">
+      <c r="A164" s="16">
         <v>44870</v>
       </c>
-      <c r="B164" s="18" t="s">
+      <c r="B164" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C164" s="18"/>
-      <c r="D164" s="32"/>
+      <c r="C164" s="17"/>
+      <c r="D164" s="31"/>
     </row>
     <row r="165" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A165" s="17">
+      <c r="A165" s="16">
         <v>44871</v>
       </c>
-      <c r="B165" s="18" t="s">
+      <c r="B165" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C165" s="18"/>
-      <c r="D165" s="32"/>
+      <c r="C165" s="17"/>
+      <c r="D165" s="31"/>
     </row>
     <row r="166" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A166" s="17">
+      <c r="A166" s="16">
         <v>44872</v>
       </c>
-      <c r="B166" s="18" t="s">
+      <c r="B166" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C166" s="18"/>
-      <c r="D166" s="32"/>
+      <c r="C166" s="17"/>
+      <c r="D166" s="31"/>
     </row>
     <row r="167" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A167" s="17">
+      <c r="A167" s="16">
         <v>44873</v>
       </c>
-      <c r="B167" s="18" t="s">
+      <c r="B167" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C167" s="18"/>
-      <c r="D167" s="32"/>
+      <c r="C167" s="17"/>
+      <c r="D167" s="31"/>
     </row>
     <row r="168" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A168" s="17">
+      <c r="A168" s="16">
         <v>44874</v>
       </c>
-      <c r="B168" s="18" t="s">
+      <c r="B168" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C168" s="18"/>
-      <c r="D168" s="32"/>
+      <c r="C168" s="17"/>
+      <c r="D168" s="31"/>
     </row>
     <row r="169" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A169" s="17">
+      <c r="A169" s="16">
         <v>44875</v>
       </c>
-      <c r="B169" s="18" t="s">
+      <c r="B169" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C169" s="18"/>
-      <c r="D169" s="32"/>
+      <c r="C169" s="17"/>
+      <c r="D169" s="31"/>
     </row>
     <row r="170" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A170" s="17">
+      <c r="A170" s="16">
         <v>44876</v>
       </c>
-      <c r="B170" s="18" t="s">
+      <c r="B170" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C170" s="18"/>
-      <c r="D170" s="32"/>
+      <c r="C170" s="17"/>
+      <c r="D170" s="31"/>
     </row>
     <row r="171" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A171" s="17">
+      <c r="A171" s="16">
         <v>44877</v>
       </c>
-      <c r="B171" s="18" t="s">
+      <c r="B171" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C171" s="18"/>
-      <c r="D171" s="32"/>
+      <c r="C171" s="17"/>
+      <c r="D171" s="31"/>
     </row>
     <row r="172" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A172" s="17">
+      <c r="A172" s="16">
         <v>44878</v>
       </c>
-      <c r="B172" s="18" t="s">
+      <c r="B172" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C172" s="18"/>
-      <c r="D172" s="32"/>
+      <c r="C172" s="17"/>
+      <c r="D172" s="31"/>
     </row>
     <row r="173" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A173" s="17">
+      <c r="A173" s="16">
         <v>44879</v>
       </c>
-      <c r="B173" s="18" t="s">
+      <c r="B173" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C173" s="18"/>
-      <c r="D173" s="32"/>
+      <c r="C173" s="17"/>
+      <c r="D173" s="31"/>
     </row>
     <row r="174" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A174" s="17">
+      <c r="A174" s="16">
         <v>44880</v>
       </c>
-      <c r="B174" s="18" t="s">
+      <c r="B174" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C174" s="18"/>
-      <c r="D174" s="32"/>
+      <c r="C174" s="17"/>
+      <c r="D174" s="31"/>
     </row>
     <row r="175" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A175" s="17">
+      <c r="A175" s="16">
         <v>44881</v>
       </c>
-      <c r="B175" s="18" t="s">
+      <c r="B175" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C175" s="18"/>
-      <c r="D175" s="32"/>
+      <c r="C175" s="17"/>
+      <c r="D175" s="31"/>
     </row>
     <row r="176" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A176" s="17">
+      <c r="A176" s="16">
         <v>44882</v>
       </c>
-      <c r="B176" s="18" t="s">
+      <c r="B176" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C176" s="18"/>
-      <c r="D176" s="32"/>
+      <c r="C176" s="17"/>
+      <c r="D176" s="31"/>
     </row>
     <row r="177" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A177" s="17">
+      <c r="A177" s="16">
         <v>44883</v>
       </c>
-      <c r="B177" s="18" t="s">
+      <c r="B177" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C177" s="18"/>
-      <c r="D177" s="32"/>
+      <c r="C177" s="17"/>
+      <c r="D177" s="31"/>
     </row>
     <row r="178" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A178" s="17">
+      <c r="A178" s="16">
         <v>44884</v>
       </c>
-      <c r="B178" s="18" t="s">
+      <c r="B178" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C178" s="18"/>
-      <c r="D178" s="32"/>
+      <c r="C178" s="17"/>
+      <c r="D178" s="31"/>
     </row>
     <row r="179" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A179" s="17">
+      <c r="A179" s="16">
         <v>44885</v>
       </c>
-      <c r="B179" s="18" t="s">
+      <c r="B179" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C179" s="18"/>
-      <c r="D179" s="32"/>
+      <c r="C179" s="17"/>
+      <c r="D179" s="31"/>
     </row>
     <row r="180" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A180" s="17">
+      <c r="A180" s="16">
         <v>44886</v>
       </c>
-      <c r="B180" s="18" t="s">
+      <c r="B180" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C180" s="18"/>
-      <c r="D180" s="32"/>
+      <c r="C180" s="17"/>
+      <c r="D180" s="31"/>
     </row>
     <row r="181" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A181" s="17">
+      <c r="A181" s="16">
         <v>44887</v>
       </c>
-      <c r="B181" s="18" t="s">
+      <c r="B181" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C181" s="18"/>
-      <c r="D181" s="32"/>
+      <c r="C181" s="17"/>
+      <c r="D181" s="31"/>
     </row>
     <row r="182" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A182" s="17">
+      <c r="A182" s="16">
         <v>44888</v>
       </c>
-      <c r="B182" s="18" t="s">
+      <c r="B182" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C182" s="18"/>
-      <c r="D182" s="32"/>
+      <c r="C182" s="17"/>
+      <c r="D182" s="31"/>
     </row>
     <row r="183" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A183" s="17">
+      <c r="A183" s="16">
         <v>44889</v>
       </c>
-      <c r="B183" s="18" t="s">
+      <c r="B183" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C183" s="18"/>
-      <c r="D183" s="32"/>
+      <c r="C183" s="17"/>
+      <c r="D183" s="31"/>
     </row>
     <row r="184" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A184" s="17">
+      <c r="A184" s="16">
         <v>44890</v>
       </c>
-      <c r="B184" s="18" t="s">
+      <c r="B184" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C184" s="18"/>
-      <c r="D184" s="32"/>
+      <c r="C184" s="17"/>
+      <c r="D184" s="31"/>
     </row>
     <row r="185" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A185" s="17">
+      <c r="A185" s="16">
         <v>44891</v>
       </c>
-      <c r="B185" s="18" t="s">
+      <c r="B185" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C185" s="18"/>
-      <c r="D185" s="32"/>
+      <c r="C185" s="17"/>
+      <c r="D185" s="31"/>
     </row>
     <row r="186" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A186" s="17">
+      <c r="A186" s="16">
         <v>44892</v>
       </c>
-      <c r="B186" s="18" t="s">
+      <c r="B186" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C186" s="18"/>
-      <c r="D186" s="32"/>
+      <c r="C186" s="17"/>
+      <c r="D186" s="31"/>
     </row>
     <row r="187" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A187" s="17">
+      <c r="A187" s="16">
         <v>44893</v>
       </c>
-      <c r="B187" s="18" t="s">
+      <c r="B187" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C187" s="18"/>
-      <c r="D187" s="32"/>
+      <c r="C187" s="17"/>
+      <c r="D187" s="31"/>
     </row>
     <row r="188" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A188" s="17">
+      <c r="A188" s="16">
         <v>44894</v>
       </c>
-      <c r="B188" s="18" t="s">
+      <c r="B188" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C188" s="18"/>
-      <c r="D188" s="32"/>
+      <c r="C188" s="17"/>
+      <c r="D188" s="31"/>
     </row>
     <row r="189" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A189" s="17">
+      <c r="A189" s="16">
         <v>44895</v>
       </c>
-      <c r="B189" s="18" t="s">
+      <c r="B189" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C189" s="18"/>
-      <c r="D189" s="32"/>
+      <c r="C189" s="17"/>
+      <c r="D189" s="31"/>
     </row>
     <row r="190" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A190" s="17">
+      <c r="A190" s="16">
         <v>44896</v>
       </c>
-      <c r="B190" s="18" t="s">
+      <c r="B190" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C190" s="18"/>
-      <c r="D190" s="32"/>
+      <c r="C190" s="17"/>
+      <c r="D190" s="31"/>
     </row>
     <row r="191" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A191" s="17">
+      <c r="A191" s="16">
         <v>44897</v>
       </c>
-      <c r="B191" s="18" t="s">
+      <c r="B191" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C191" s="18"/>
-      <c r="D191" s="32"/>
+      <c r="C191" s="17"/>
+      <c r="D191" s="31"/>
     </row>
     <row r="192" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A192" s="17">
+      <c r="A192" s="16">
         <v>44898</v>
       </c>
-      <c r="B192" s="18" t="s">
+      <c r="B192" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C192" s="18"/>
-      <c r="D192" s="32"/>
+      <c r="C192" s="17"/>
+      <c r="D192" s="31"/>
     </row>
     <row r="193" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A193" s="17">
+      <c r="A193" s="16">
         <v>44899</v>
       </c>
-      <c r="B193" s="18" t="s">
+      <c r="B193" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C193" s="18"/>
-      <c r="D193" s="32"/>
+      <c r="C193" s="17"/>
+      <c r="D193" s="31"/>
     </row>
     <row r="194" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A194" s="17">
+      <c r="A194" s="16">
         <v>44900</v>
       </c>
-      <c r="B194" s="18" t="s">
+      <c r="B194" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C194" s="18"/>
-      <c r="D194" s="32"/>
+      <c r="C194" s="17"/>
+      <c r="D194" s="31"/>
     </row>
     <row r="195" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A195" s="17">
+      <c r="A195" s="16">
         <v>44901</v>
       </c>
-      <c r="B195" s="18" t="s">
+      <c r="B195" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C195" s="18"/>
-      <c r="D195" s="32"/>
+      <c r="C195" s="17"/>
+      <c r="D195" s="31"/>
     </row>
     <row r="196" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A196" s="17">
+      <c r="A196" s="16">
         <v>44902</v>
       </c>
-      <c r="B196" s="18" t="s">
+      <c r="B196" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C196" s="18"/>
-      <c r="D196" s="32"/>
+      <c r="C196" s="17"/>
+      <c r="D196" s="31"/>
     </row>
     <row r="197" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A197" s="17">
+      <c r="A197" s="16">
         <v>44903</v>
       </c>
-      <c r="B197" s="18" t="s">
+      <c r="B197" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C197" s="18"/>
-      <c r="D197" s="32"/>
+      <c r="C197" s="17"/>
+      <c r="D197" s="31"/>
     </row>
     <row r="198" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A198" s="17">
+      <c r="A198" s="16">
         <v>44904</v>
       </c>
-      <c r="B198" s="18" t="s">
+      <c r="B198" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C198" s="18"/>
-      <c r="D198" s="32"/>
+      <c r="C198" s="17"/>
+      <c r="D198" s="31"/>
     </row>
     <row r="199" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A199" s="17">
+      <c r="A199" s="16">
         <v>44905</v>
       </c>
-      <c r="B199" s="18" t="s">
+      <c r="B199" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C199" s="18"/>
-      <c r="D199" s="32"/>
+      <c r="C199" s="17"/>
+      <c r="D199" s="31"/>
     </row>
     <row r="200" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A200" s="17">
+      <c r="A200" s="16">
         <v>44906</v>
       </c>
-      <c r="B200" s="18" t="s">
+      <c r="B200" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C200" s="18"/>
-      <c r="D200" s="32"/>
+      <c r="C200" s="17"/>
+      <c r="D200" s="31"/>
     </row>
     <row r="201" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A201" s="17">
+      <c r="A201" s="16">
         <v>44907</v>
       </c>
-      <c r="B201" s="18" t="s">
+      <c r="B201" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C201" s="18"/>
-      <c r="D201" s="32"/>
+      <c r="C201" s="17"/>
+      <c r="D201" s="31"/>
     </row>
     <row r="202" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A202" s="17">
+      <c r="A202" s="16">
         <v>44908</v>
       </c>
-      <c r="B202" s="18" t="s">
+      <c r="B202" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C202" s="18"/>
-      <c r="D202" s="32"/>
+      <c r="C202" s="17"/>
+      <c r="D202" s="31"/>
     </row>
     <row r="203" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A203" s="17">
+      <c r="A203" s="16">
         <v>44909</v>
       </c>
-      <c r="B203" s="18" t="s">
+      <c r="B203" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C203" s="18"/>
-      <c r="D203" s="32"/>
+      <c r="C203" s="17"/>
+      <c r="D203" s="31"/>
     </row>
     <row r="204" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A204" s="17">
+      <c r="A204" s="16">
         <v>44910</v>
       </c>
-      <c r="B204" s="18" t="s">
+      <c r="B204" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C204" s="18"/>
-      <c r="D204" s="32"/>
+      <c r="C204" s="17"/>
+      <c r="D204" s="31"/>
     </row>
     <row r="205" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A205" s="17">
+      <c r="A205" s="16">
         <v>44911</v>
       </c>
-      <c r="B205" s="18" t="s">
+      <c r="B205" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C205" s="18"/>
-      <c r="D205" s="32"/>
+      <c r="C205" s="17"/>
+      <c r="D205" s="31"/>
     </row>
     <row r="206" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A206" s="17">
+      <c r="A206" s="16">
         <v>44912</v>
       </c>
-      <c r="B206" s="18" t="s">
+      <c r="B206" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C206" s="18"/>
-      <c r="D206" s="32"/>
+      <c r="C206" s="17"/>
+      <c r="D206" s="31"/>
     </row>
     <row r="207" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A207" s="17">
+      <c r="A207" s="16">
         <v>44913</v>
       </c>
-      <c r="B207" s="18" t="s">
+      <c r="B207" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C207" s="18"/>
-      <c r="D207" s="32"/>
+      <c r="C207" s="17"/>
+      <c r="D207" s="31"/>
     </row>
     <row r="208" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A208" s="17">
+      <c r="A208" s="16">
         <v>44914</v>
       </c>
-      <c r="B208" s="18" t="s">
+      <c r="B208" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C208" s="18"/>
-      <c r="D208" s="32"/>
+      <c r="C208" s="17"/>
+      <c r="D208" s="31"/>
     </row>
     <row r="209" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A209" s="17">
+      <c r="A209" s="16">
         <v>44915</v>
       </c>
-      <c r="B209" s="18" t="s">
+      <c r="B209" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C209" s="18"/>
-      <c r="D209" s="32"/>
+      <c r="C209" s="17"/>
+      <c r="D209" s="31"/>
     </row>
     <row r="210" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A210" s="17">
+      <c r="A210" s="16">
         <v>44916</v>
       </c>
-      <c r="B210" s="18" t="s">
+      <c r="B210" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C210" s="18"/>
-      <c r="D210" s="32"/>
+      <c r="C210" s="17"/>
+      <c r="D210" s="31"/>
     </row>
     <row r="211" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A211" s="17">
+      <c r="A211" s="16">
         <v>44917</v>
       </c>
-      <c r="B211" s="18" t="s">
+      <c r="B211" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C211" s="18"/>
-      <c r="D211" s="32"/>
+      <c r="C211" s="17"/>
+      <c r="D211" s="31"/>
     </row>
     <row r="212" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A212" s="17">
+      <c r="A212" s="16">
         <v>44918</v>
       </c>
-      <c r="B212" s="18" t="s">
+      <c r="B212" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C212" s="18"/>
-      <c r="D212" s="32"/>
+      <c r="C212" s="17"/>
+      <c r="D212" s="31"/>
     </row>
     <row r="213" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A213" s="17">
+      <c r="A213" s="16">
         <v>44919</v>
       </c>
-      <c r="B213" s="18" t="s">
+      <c r="B213" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C213" s="18"/>
-      <c r="D213" s="32"/>
+      <c r="C213" s="17"/>
+      <c r="D213" s="31"/>
     </row>
     <row r="214" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A214" s="17">
+      <c r="A214" s="16">
         <v>44920</v>
       </c>
-      <c r="B214" s="18" t="s">
+      <c r="B214" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C214" s="18"/>
-      <c r="D214" s="32"/>
+      <c r="C214" s="17"/>
+      <c r="D214" s="31"/>
     </row>
     <row r="215" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A215" s="17">
+      <c r="A215" s="16">
         <v>44921</v>
       </c>
-      <c r="B215" s="18" t="s">
+      <c r="B215" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C215" s="18"/>
-      <c r="D215" s="32"/>
+      <c r="C215" s="17"/>
+      <c r="D215" s="31"/>
     </row>
     <row r="216" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A216" s="17">
+      <c r="A216" s="16">
         <v>44922</v>
       </c>
-      <c r="B216" s="18" t="s">
+      <c r="B216" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C216" s="18"/>
-      <c r="D216" s="32"/>
+      <c r="C216" s="17"/>
+      <c r="D216" s="31"/>
     </row>
     <row r="217" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A217" s="17">
+      <c r="A217" s="16">
         <v>44923</v>
       </c>
-      <c r="B217" s="18" t="s">
+      <c r="B217" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C217" s="18"/>
-      <c r="D217" s="32"/>
+      <c r="C217" s="17"/>
+      <c r="D217" s="31"/>
     </row>
     <row r="218" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A218" s="17">
+      <c r="A218" s="16">
         <v>44924</v>
       </c>
-      <c r="B218" s="18" t="s">
+      <c r="B218" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C218" s="18"/>
-      <c r="D218" s="32"/>
+      <c r="C218" s="17"/>
+      <c r="D218" s="31"/>
     </row>
     <row r="219" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A219" s="17">
+      <c r="A219" s="16">
         <v>44925</v>
       </c>
-      <c r="B219" s="18" t="s">
+      <c r="B219" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C219" s="18"/>
-      <c r="D219" s="32"/>
+      <c r="C219" s="17"/>
+      <c r="D219" s="31"/>
     </row>
     <row r="220" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A220" s="17">
+      <c r="A220" s="16">
         <v>44926</v>
       </c>
-      <c r="B220" s="18" t="s">
+      <c r="B220" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C220" s="18"/>
-      <c r="D220" s="32"/>
+      <c r="C220" s="17"/>
+      <c r="D220" s="31"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A221" s="16"/>
-      <c r="B221" s="16"/>
-      <c r="C221" s="16"/>
-      <c r="D221" s="33"/>
+      <c r="A221" s="15"/>
+      <c r="B221" s="15"/>
+      <c r="C221" s="15"/>
+      <c r="D221" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2967,17 +2996,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.5703125" style="1" customWidth="1"/>
     <col min="2" max="3" width="26.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="42" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32" style="11" customWidth="1"/>
+    <col min="6" max="6" width="32" style="10" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -2991,7 +3020,7 @@
       <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="37" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -3005,203 +3034,207 @@
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="12">
+      <c r="D2" s="38"/>
+      <c r="E2" s="11">
         <v>320</v>
       </c>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="22">
+      <c r="A3" s="21">
         <v>44708</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="C3" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="39">
+        <v>-300</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="21"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="21"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="21"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="23"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="23"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="9">
+      <c r="D24" s="41">
         <f>SUM(D3:D23)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="24">
+        <v>-300</v>
+      </c>
+      <c r="E24" s="23">
         <f>E2+D24</f>
-        <v>320</v>
-      </c>
-      <c r="F24" s="10">
+        <v>20</v>
+      </c>
+      <c r="F24" s="9">
         <f>SUM(F5:F23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E25" s="11"/>
+      <c r="E25" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3214,100 +3247,103 @@
   <dimension ref="A1:XFC24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="25" style="15" customWidth="1"/>
-    <col min="5" max="16383" width="9.140625" style="14" hidden="1"/>
-    <col min="16384" max="16384" width="0.28515625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="25" style="14" customWidth="1"/>
+    <col min="5" max="16383" width="9.140625" style="13" hidden="1"/>
+    <col min="16384" max="16384" width="0.28515625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="29">
-        <v>44713</v>
+      <c r="A1" s="28">
+        <v>44714</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="27"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="C13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6" s="37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="27"/>
+      <c r="D19" s="26"/>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="28"/>
+      <c r="D24" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3330,108 +3366,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="35">
+      <c r="A1" s="34">
         <v>700</v>
       </c>
-      <c r="B1" s="36">
+      <c r="B1" s="35">
         <v>44712</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
     </row>
     <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
     </row>
     <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
     </row>
     <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
     </row>
     <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
     </row>
     <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
     </row>
     <row r="9" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
     </row>
     <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
     </row>
     <row r="11" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
     </row>
     <row r="12" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
     </row>
     <row r="13" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
     </row>
     <row r="14" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
     </row>
     <row r="15" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
     </row>
     <row r="16" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
     </row>
     <row r="17" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
     </row>
     <row r="18" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
     </row>
     <row r="19" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
     </row>
     <row r="20" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
     </row>
     <row r="21" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
     </row>
     <row r="22" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
     </row>
     <row r="24" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
     </row>
     <row r="25" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CODE.xlsx
+++ b/CODE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECB2EEE-1BA3-4DFD-B386-E3F506AB9462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA85F1C-1FC9-4E0C-A484-CA7C94FA9252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="630" yWindow="915" windowWidth="19830" windowHeight="14715" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="41">
   <si>
     <t>DATE</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>not done</t>
+  </si>
+  <si>
+    <t>Eid ul Ajha</t>
+  </si>
+  <si>
+    <t>Loan</t>
   </si>
 </sst>
 </file>
@@ -737,7 +743,7 @@
   <dimension ref="A1:G221"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2994,23 +3000,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.5703125" style="1" customWidth="1"/>
     <col min="2" max="3" width="26.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="42" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="32" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
@@ -3030,17 +3037,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="38"/>
       <c r="E2" s="11">
-        <v>320</v>
+        <f>320+1000</f>
+        <v>1320</v>
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <v>44708</v>
       </c>
@@ -3053,111 +3061,121 @@
       <c r="D3" s="39">
         <v>-300</v>
       </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="21"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="39"/>
-      <c r="E4" s="21"/>
+      <c r="E4" s="39">
+        <v>1000</v>
+      </c>
       <c r="F4" s="21"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="18"/>
+      <c r="D5" s="40">
+        <v>-700</v>
+      </c>
+      <c r="E5" s="40"/>
       <c r="F5" s="20"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
       <c r="D6" s="40"/>
-      <c r="E6" s="18"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="19"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="19"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="18"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="19"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="21"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="18"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="21"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="39"/>
-      <c r="E11" s="12"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="39"/>
-      <c r="E12" s="21"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="39"/>
-      <c r="E13" s="12"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="21"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="39"/>
-      <c r="E14" s="21"/>
+      <c r="E14" s="39"/>
       <c r="F14" s="22"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="39"/>
-      <c r="E15" s="21"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="22"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="39"/>
-      <c r="E16" s="21"/>
+      <c r="E16" s="39"/>
       <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -3165,7 +3183,7 @@
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="39"/>
-      <c r="E17" s="21"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -3173,7 +3191,7 @@
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="39"/>
-      <c r="E18" s="21"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -3181,7 +3199,7 @@
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="39"/>
-      <c r="E19" s="21"/>
+      <c r="E19" s="39"/>
       <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -3189,7 +3207,7 @@
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="39"/>
-      <c r="E20" s="21"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -3197,7 +3215,7 @@
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="39"/>
-      <c r="E21" s="21"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -3205,7 +3223,7 @@
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="39"/>
-      <c r="E22" s="21"/>
+      <c r="E22" s="39"/>
       <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -3213,7 +3231,7 @@
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="21"/>
+      <c r="E23" s="39"/>
       <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -3222,11 +3240,11 @@
       <c r="C24" s="3"/>
       <c r="D24" s="41">
         <f>SUM(D3:D23)</f>
-        <v>-300</v>
+        <v>-1000</v>
       </c>
       <c r="E24" s="23">
         <f>E2+D24</f>
-        <v>20</v>
+        <v>320</v>
       </c>
       <c r="F24" s="9">
         <f>SUM(F5:F23)</f>
@@ -3356,7 +3374,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3366,12 +3384,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="34">
-        <v>700</v>
-      </c>
-      <c r="B1" s="35">
-        <v>44712</v>
-      </c>
+      <c r="A1" s="34"/>
+      <c r="B1" s="35"/>
     </row>
     <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="34"/>

--- a/CODE.xlsx
+++ b/CODE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA85F1C-1FC9-4E0C-A484-CA7C94FA9252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFE0035-EF5D-49B9-B0D6-77184ABD61E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="915" windowWidth="19830" windowHeight="14715" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="915" windowWidth="19830" windowHeight="14715" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TARGET DAY" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="35">
   <si>
     <t>DATE</t>
   </si>
@@ -116,33 +116,6 @@
     <t>20min</t>
   </si>
   <si>
-    <t>10.20am</t>
-  </si>
-  <si>
-    <t>10.30am</t>
-  </si>
-  <si>
-    <t>10mins</t>
-  </si>
-  <si>
-    <t>11.30am</t>
-  </si>
-  <si>
-    <t>1.10pm</t>
-  </si>
-  <si>
-    <t>1.40hrs</t>
-  </si>
-  <si>
-    <t>2.40pm</t>
-  </si>
-  <si>
-    <t>4.30pm</t>
-  </si>
-  <si>
-    <t>1.50hrs</t>
-  </si>
-  <si>
     <t>3.40hrs</t>
   </si>
   <si>
@@ -153,6 +126,15 @@
   </si>
   <si>
     <t>Loan</t>
+  </si>
+  <si>
+    <t>3:15pm</t>
+  </si>
+  <si>
+    <t>no target</t>
+  </si>
+  <si>
+    <t>7hrs</t>
   </si>
 </sst>
 </file>
@@ -284,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -308,9 +290,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -339,15 +318,9 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -383,9 +356,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -402,6 +372,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -743,14 +722,14 @@
   <dimension ref="A1:G221"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="22.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" style="33" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" style="30" customWidth="1"/>
     <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="3" hidden="1"/>
@@ -766,2231 +745,2233 @@
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="24">
+      <c r="A2" s="21">
         <v>44708</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="30"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>44709</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="28" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>44710</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="28" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>44711</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="28" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>44712</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="28" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>44713</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="28" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>44714</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>38</v>
+      <c r="C8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A9" s="24">
+      <c r="A9" s="21">
         <v>44715</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="30"/>
+      <c r="C9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>44716</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="31"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>44717</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="31"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>44718</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="31"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>44719</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="31"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="28"/>
     </row>
     <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>44720</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="31"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="28"/>
     </row>
     <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>44721</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="28"/>
     </row>
     <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A16" s="24">
+      <c r="A16" s="21">
         <v>44722</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="30"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <v>44723</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="31"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="28"/>
     </row>
     <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
+      <c r="A18" s="15">
         <v>44724</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="31"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="28"/>
     </row>
     <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>44725</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="31"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <v>44726</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="31"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="28"/>
     </row>
     <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <v>44727</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="31"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="28"/>
     </row>
     <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <v>44728</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="31"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A23" s="16">
+      <c r="A23" s="21">
         <v>44729</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="31"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="27"/>
     </row>
     <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A24" s="16">
+      <c r="A24" s="15">
         <v>44730</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="31"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="28"/>
     </row>
     <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A25" s="16">
+      <c r="A25" s="15">
         <v>44731</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="31"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="28"/>
     </row>
     <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A26" s="16">
+      <c r="A26" s="15">
         <v>44732</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="31"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="28"/>
     </row>
     <row r="27" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A27" s="16">
+      <c r="A27" s="15">
         <v>44733</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="31"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="28"/>
     </row>
     <row r="28" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A28" s="16">
+      <c r="A28" s="15">
         <v>44734</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="31"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="28"/>
     </row>
     <row r="29" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <v>44735</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="31"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="28"/>
     </row>
     <row r="30" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A30" s="16">
+      <c r="A30" s="15">
         <v>44736</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="31"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="28"/>
     </row>
     <row r="31" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="16">
+      <c r="A31" s="15">
         <v>44737</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="31"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="28"/>
     </row>
     <row r="32" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A32" s="16">
+      <c r="A32" s="15">
         <v>44738</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="31"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="28"/>
     </row>
     <row r="33" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A33" s="16">
+      <c r="A33" s="15">
         <v>44739</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="31"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="28"/>
     </row>
     <row r="34" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A34" s="16">
+      <c r="A34" s="15">
         <v>44740</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="31"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="28"/>
     </row>
     <row r="35" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A35" s="16">
+      <c r="A35" s="15">
         <v>44741</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="31"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="28"/>
     </row>
     <row r="36" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A36" s="16">
+      <c r="A36" s="15">
         <v>44742</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="31"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="28"/>
     </row>
     <row r="37" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A37" s="16">
+      <c r="A37" s="15">
         <v>44743</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="31"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="28"/>
     </row>
     <row r="38" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A38" s="16">
+      <c r="A38" s="15">
         <v>44744</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="31"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="28"/>
     </row>
     <row r="39" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A39" s="16">
+      <c r="A39" s="15">
         <v>44745</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="31"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="28"/>
     </row>
     <row r="40" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A40" s="16">
+      <c r="A40" s="15">
         <v>44746</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="31"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="28"/>
     </row>
     <row r="41" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="16">
+      <c r="A41" s="15">
         <v>44747</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="31"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="28"/>
     </row>
     <row r="42" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A42" s="16">
+      <c r="A42" s="15">
         <v>44748</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="31"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="28"/>
     </row>
     <row r="43" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A43" s="16">
+      <c r="A43" s="15">
         <v>44749</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="31"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="28"/>
     </row>
     <row r="44" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A44" s="16">
+      <c r="A44" s="15">
         <v>44750</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="31"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="28"/>
     </row>
     <row r="45" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A45" s="16">
+      <c r="A45" s="15">
         <v>44751</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="31"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="28"/>
     </row>
     <row r="46" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A46" s="16">
+      <c r="A46" s="15">
         <v>44752</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="31"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="28"/>
     </row>
     <row r="47" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A47" s="16">
+      <c r="A47" s="15">
         <v>44753</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="31"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="28"/>
     </row>
     <row r="48" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A48" s="16">
+      <c r="A48" s="15">
         <v>44754</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="31"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="28"/>
     </row>
     <row r="49" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A49" s="16">
+      <c r="A49" s="15">
         <v>44755</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="31"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="28"/>
     </row>
     <row r="50" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A50" s="16">
+      <c r="A50" s="15">
         <v>44756</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="31"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="28"/>
     </row>
     <row r="51" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A51" s="16">
+      <c r="A51" s="15">
         <v>44757</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="31"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="28"/>
     </row>
     <row r="52" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A52" s="16">
+      <c r="A52" s="15">
         <v>44758</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="17"/>
-      <c r="D52" s="31"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="28"/>
     </row>
     <row r="53" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A53" s="16">
+      <c r="A53" s="15">
         <v>44759</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="17"/>
-      <c r="D53" s="31"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="28"/>
     </row>
     <row r="54" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A54" s="16">
+      <c r="A54" s="15">
         <v>44760</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="31"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="28"/>
     </row>
     <row r="55" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A55" s="16">
+      <c r="A55" s="15">
         <v>44761</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="31"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="28"/>
     </row>
     <row r="56" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A56" s="16">
+      <c r="A56" s="15">
         <v>44762</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="31"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="28"/>
     </row>
     <row r="57" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A57" s="16">
+      <c r="A57" s="15">
         <v>44763</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="17"/>
-      <c r="D57" s="31"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="28"/>
     </row>
     <row r="58" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A58" s="16">
+      <c r="A58" s="15">
         <v>44764</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="31"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="28"/>
     </row>
     <row r="59" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A59" s="16">
+      <c r="A59" s="15">
         <v>44765</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="31"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="28"/>
     </row>
     <row r="60" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A60" s="16">
+      <c r="A60" s="15">
         <v>44766</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="17"/>
-      <c r="D60" s="31"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="28"/>
     </row>
     <row r="61" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A61" s="16">
+      <c r="A61" s="15">
         <v>44767</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="17"/>
-      <c r="D61" s="31"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="28"/>
     </row>
     <row r="62" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A62" s="16">
+      <c r="A62" s="15">
         <v>44768</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="17"/>
-      <c r="D62" s="31"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="28"/>
     </row>
     <row r="63" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A63" s="16">
+      <c r="A63" s="15">
         <v>44769</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="17"/>
-      <c r="D63" s="31"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="28"/>
     </row>
     <row r="64" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A64" s="16">
+      <c r="A64" s="15">
         <v>44770</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="17"/>
-      <c r="D64" s="31"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="28"/>
     </row>
     <row r="65" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A65" s="16">
+      <c r="A65" s="15">
         <v>44771</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="17"/>
-      <c r="D65" s="31"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="28"/>
     </row>
     <row r="66" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A66" s="16">
+      <c r="A66" s="15">
         <v>44772</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="17"/>
-      <c r="D66" s="31"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="28"/>
     </row>
     <row r="67" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A67" s="16">
+      <c r="A67" s="15">
         <v>44773</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="17"/>
-      <c r="D67" s="31"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="28"/>
     </row>
     <row r="68" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A68" s="16">
+      <c r="A68" s="15">
         <v>44774</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="17"/>
-      <c r="D68" s="31"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="28"/>
     </row>
     <row r="69" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A69" s="16">
+      <c r="A69" s="15">
         <v>44775</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="17"/>
-      <c r="D69" s="31"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="28"/>
     </row>
     <row r="70" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A70" s="16">
+      <c r="A70" s="15">
         <v>44776</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="17"/>
-      <c r="D70" s="31"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="28"/>
     </row>
     <row r="71" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A71" s="16">
+      <c r="A71" s="15">
         <v>44777</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="17"/>
-      <c r="D71" s="31"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="28"/>
     </row>
     <row r="72" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A72" s="16">
+      <c r="A72" s="15">
         <v>44778</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="17"/>
-      <c r="D72" s="31"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="28"/>
     </row>
     <row r="73" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A73" s="16">
+      <c r="A73" s="15">
         <v>44779</v>
       </c>
-      <c r="B73" s="17" t="s">
+      <c r="B73" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C73" s="17"/>
-      <c r="D73" s="31"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="28"/>
     </row>
     <row r="74" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A74" s="16">
+      <c r="A74" s="15">
         <v>44780</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="17"/>
-      <c r="D74" s="31"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="28"/>
     </row>
     <row r="75" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A75" s="16">
+      <c r="A75" s="15">
         <v>44781</v>
       </c>
-      <c r="B75" s="17" t="s">
+      <c r="B75" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="17"/>
-      <c r="D75" s="31"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="28"/>
     </row>
     <row r="76" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A76" s="16">
+      <c r="A76" s="15">
         <v>44782</v>
       </c>
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="17"/>
-      <c r="D76" s="31"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="28"/>
     </row>
     <row r="77" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A77" s="16">
+      <c r="A77" s="15">
         <v>44783</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="17"/>
-      <c r="D77" s="31"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="28"/>
     </row>
     <row r="78" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A78" s="16">
+      <c r="A78" s="15">
         <v>44784</v>
       </c>
-      <c r="B78" s="17" t="s">
+      <c r="B78" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C78" s="17"/>
-      <c r="D78" s="31"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="28"/>
     </row>
     <row r="79" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A79" s="16">
+      <c r="A79" s="15">
         <v>44785</v>
       </c>
-      <c r="B79" s="17" t="s">
+      <c r="B79" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="17"/>
-      <c r="D79" s="31"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="28"/>
     </row>
     <row r="80" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A80" s="16">
+      <c r="A80" s="15">
         <v>44786</v>
       </c>
-      <c r="B80" s="17" t="s">
+      <c r="B80" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C80" s="17"/>
-      <c r="D80" s="31"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="28"/>
     </row>
     <row r="81" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A81" s="16">
+      <c r="A81" s="15">
         <v>44787</v>
       </c>
-      <c r="B81" s="17" t="s">
+      <c r="B81" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C81" s="17"/>
-      <c r="D81" s="31"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="28"/>
     </row>
     <row r="82" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A82" s="16">
+      <c r="A82" s="15">
         <v>44788</v>
       </c>
-      <c r="B82" s="17" t="s">
+      <c r="B82" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C82" s="17"/>
-      <c r="D82" s="31"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="28"/>
     </row>
     <row r="83" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A83" s="16">
+      <c r="A83" s="15">
         <v>44789</v>
       </c>
-      <c r="B83" s="17" t="s">
+      <c r="B83" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="17"/>
-      <c r="D83" s="31"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="28"/>
     </row>
     <row r="84" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A84" s="16">
+      <c r="A84" s="15">
         <v>44790</v>
       </c>
-      <c r="B84" s="17" t="s">
+      <c r="B84" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="17"/>
-      <c r="D84" s="31"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="28"/>
     </row>
     <row r="85" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A85" s="16">
+      <c r="A85" s="15">
         <v>44791</v>
       </c>
-      <c r="B85" s="17" t="s">
+      <c r="B85" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C85" s="17"/>
-      <c r="D85" s="31"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="28"/>
     </row>
     <row r="86" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A86" s="16">
+      <c r="A86" s="15">
         <v>44792</v>
       </c>
-      <c r="B86" s="17" t="s">
+      <c r="B86" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C86" s="17"/>
-      <c r="D86" s="31"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="28"/>
     </row>
     <row r="87" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A87" s="16">
+      <c r="A87" s="15">
         <v>44793</v>
       </c>
-      <c r="B87" s="17" t="s">
+      <c r="B87" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C87" s="17"/>
-      <c r="D87" s="31"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="28"/>
     </row>
     <row r="88" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A88" s="16">
+      <c r="A88" s="15">
         <v>44794</v>
       </c>
-      <c r="B88" s="17" t="s">
+      <c r="B88" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C88" s="17"/>
-      <c r="D88" s="31"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="28"/>
     </row>
     <row r="89" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A89" s="16">
+      <c r="A89" s="15">
         <v>44795</v>
       </c>
-      <c r="B89" s="17" t="s">
+      <c r="B89" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="17"/>
-      <c r="D89" s="31"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="28"/>
     </row>
     <row r="90" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A90" s="16">
+      <c r="A90" s="15">
         <v>44796</v>
       </c>
-      <c r="B90" s="17" t="s">
+      <c r="B90" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="17"/>
-      <c r="D90" s="31"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="28"/>
     </row>
     <row r="91" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A91" s="16">
+      <c r="A91" s="15">
         <v>44797</v>
       </c>
-      <c r="B91" s="17" t="s">
+      <c r="B91" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C91" s="17"/>
-      <c r="D91" s="31"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="28"/>
     </row>
     <row r="92" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A92" s="16">
+      <c r="A92" s="15">
         <v>44798</v>
       </c>
-      <c r="B92" s="17" t="s">
+      <c r="B92" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C92" s="17"/>
-      <c r="D92" s="31"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="28"/>
     </row>
     <row r="93" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A93" s="16">
+      <c r="A93" s="15">
         <v>44799</v>
       </c>
-      <c r="B93" s="17" t="s">
+      <c r="B93" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C93" s="17"/>
-      <c r="D93" s="31"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="28"/>
     </row>
     <row r="94" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A94" s="16">
+      <c r="A94" s="15">
         <v>44800</v>
       </c>
-      <c r="B94" s="17" t="s">
+      <c r="B94" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C94" s="17"/>
-      <c r="D94" s="31"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="28"/>
     </row>
     <row r="95" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A95" s="16">
+      <c r="A95" s="15">
         <v>44801</v>
       </c>
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C95" s="17"/>
-      <c r="D95" s="31"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="28"/>
     </row>
     <row r="96" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A96" s="16">
+      <c r="A96" s="15">
         <v>44802</v>
       </c>
-      <c r="B96" s="17" t="s">
+      <c r="B96" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="17"/>
-      <c r="D96" s="31"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="28"/>
     </row>
     <row r="97" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A97" s="16">
+      <c r="A97" s="15">
         <v>44803</v>
       </c>
-      <c r="B97" s="17" t="s">
+      <c r="B97" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="17"/>
-      <c r="D97" s="31"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="28"/>
     </row>
     <row r="98" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A98" s="16">
+      <c r="A98" s="15">
         <v>44804</v>
       </c>
-      <c r="B98" s="17" t="s">
+      <c r="B98" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C98" s="17"/>
-      <c r="D98" s="31"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="28"/>
     </row>
     <row r="99" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A99" s="16">
+      <c r="A99" s="15">
         <v>44805</v>
       </c>
-      <c r="B99" s="17" t="s">
+      <c r="B99" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C99" s="17"/>
-      <c r="D99" s="31"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="28"/>
     </row>
     <row r="100" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A100" s="16">
+      <c r="A100" s="15">
         <v>44806</v>
       </c>
-      <c r="B100" s="17" t="s">
+      <c r="B100" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C100" s="17"/>
-      <c r="D100" s="31"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="28"/>
     </row>
     <row r="101" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A101" s="16">
+      <c r="A101" s="15">
         <v>44807</v>
       </c>
-      <c r="B101" s="17" t="s">
+      <c r="B101" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C101" s="17"/>
-      <c r="D101" s="31"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="28"/>
     </row>
     <row r="102" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A102" s="16">
+      <c r="A102" s="15">
         <v>44808</v>
       </c>
-      <c r="B102" s="17" t="s">
+      <c r="B102" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C102" s="17"/>
-      <c r="D102" s="31"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="28"/>
     </row>
     <row r="103" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A103" s="16">
+      <c r="A103" s="15">
         <v>44809</v>
       </c>
-      <c r="B103" s="17" t="s">
+      <c r="B103" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="17"/>
-      <c r="D103" s="31"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="28"/>
     </row>
     <row r="104" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A104" s="16">
+      <c r="A104" s="15">
         <v>44810</v>
       </c>
-      <c r="B104" s="17" t="s">
+      <c r="B104" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="17"/>
-      <c r="D104" s="31"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="28"/>
     </row>
     <row r="105" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A105" s="16">
+      <c r="A105" s="15">
         <v>44811</v>
       </c>
-      <c r="B105" s="17" t="s">
+      <c r="B105" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C105" s="17"/>
-      <c r="D105" s="31"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="28"/>
     </row>
     <row r="106" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A106" s="16">
+      <c r="A106" s="15">
         <v>44812</v>
       </c>
-      <c r="B106" s="17" t="s">
+      <c r="B106" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C106" s="17"/>
-      <c r="D106" s="31"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="28"/>
     </row>
     <row r="107" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A107" s="16">
+      <c r="A107" s="15">
         <v>44813</v>
       </c>
-      <c r="B107" s="17" t="s">
+      <c r="B107" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C107" s="17"/>
-      <c r="D107" s="31"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="28"/>
     </row>
     <row r="108" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A108" s="16">
+      <c r="A108" s="15">
         <v>44814</v>
       </c>
-      <c r="B108" s="17" t="s">
+      <c r="B108" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C108" s="17"/>
-      <c r="D108" s="31"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="28"/>
     </row>
     <row r="109" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A109" s="16">
+      <c r="A109" s="15">
         <v>44815</v>
       </c>
-      <c r="B109" s="17" t="s">
+      <c r="B109" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C109" s="17"/>
-      <c r="D109" s="31"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="28"/>
     </row>
     <row r="110" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A110" s="16">
+      <c r="A110" s="15">
         <v>44816</v>
       </c>
-      <c r="B110" s="17" t="s">
+      <c r="B110" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C110" s="17"/>
-      <c r="D110" s="31"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="28"/>
     </row>
     <row r="111" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A111" s="16">
+      <c r="A111" s="15">
         <v>44817</v>
       </c>
-      <c r="B111" s="17" t="s">
+      <c r="B111" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C111" s="17"/>
-      <c r="D111" s="31"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="28"/>
     </row>
     <row r="112" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A112" s="16">
+      <c r="A112" s="15">
         <v>44818</v>
       </c>
-      <c r="B112" s="17" t="s">
+      <c r="B112" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C112" s="17"/>
-      <c r="D112" s="31"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="28"/>
     </row>
     <row r="113" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A113" s="16">
+      <c r="A113" s="15">
         <v>44819</v>
       </c>
-      <c r="B113" s="17" t="s">
+      <c r="B113" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C113" s="17"/>
-      <c r="D113" s="31"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="28"/>
     </row>
     <row r="114" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A114" s="16">
+      <c r="A114" s="15">
         <v>44820</v>
       </c>
-      <c r="B114" s="17" t="s">
+      <c r="B114" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C114" s="17"/>
-      <c r="D114" s="31"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="28"/>
     </row>
     <row r="115" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A115" s="16">
+      <c r="A115" s="15">
         <v>44821</v>
       </c>
-      <c r="B115" s="17" t="s">
+      <c r="B115" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C115" s="17"/>
-      <c r="D115" s="31"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="28"/>
     </row>
     <row r="116" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A116" s="16">
+      <c r="A116" s="15">
         <v>44822</v>
       </c>
-      <c r="B116" s="17" t="s">
+      <c r="B116" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C116" s="17"/>
-      <c r="D116" s="31"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="28"/>
     </row>
     <row r="117" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A117" s="16">
+      <c r="A117" s="15">
         <v>44823</v>
       </c>
-      <c r="B117" s="17" t="s">
+      <c r="B117" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C117" s="17"/>
-      <c r="D117" s="31"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="28"/>
     </row>
     <row r="118" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A118" s="16">
+      <c r="A118" s="15">
         <v>44824</v>
       </c>
-      <c r="B118" s="17" t="s">
+      <c r="B118" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C118" s="17"/>
-      <c r="D118" s="31"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="28"/>
     </row>
     <row r="119" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A119" s="16">
+      <c r="A119" s="15">
         <v>44825</v>
       </c>
-      <c r="B119" s="17" t="s">
+      <c r="B119" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C119" s="17"/>
-      <c r="D119" s="31"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="28"/>
     </row>
     <row r="120" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A120" s="16">
+      <c r="A120" s="15">
         <v>44826</v>
       </c>
-      <c r="B120" s="17" t="s">
+      <c r="B120" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C120" s="17"/>
-      <c r="D120" s="31"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="28"/>
     </row>
     <row r="121" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A121" s="16">
+      <c r="A121" s="15">
         <v>44827</v>
       </c>
-      <c r="B121" s="17" t="s">
+      <c r="B121" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C121" s="17"/>
-      <c r="D121" s="31"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="28"/>
     </row>
     <row r="122" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A122" s="16">
+      <c r="A122" s="15">
         <v>44828</v>
       </c>
-      <c r="B122" s="17" t="s">
+      <c r="B122" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C122" s="17"/>
-      <c r="D122" s="31"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="28"/>
     </row>
     <row r="123" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A123" s="16">
+      <c r="A123" s="15">
         <v>44829</v>
       </c>
-      <c r="B123" s="17" t="s">
+      <c r="B123" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C123" s="17"/>
-      <c r="D123" s="31"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="28"/>
     </row>
     <row r="124" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A124" s="16">
+      <c r="A124" s="15">
         <v>44830</v>
       </c>
-      <c r="B124" s="17" t="s">
+      <c r="B124" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C124" s="17"/>
-      <c r="D124" s="31"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="28"/>
     </row>
     <row r="125" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A125" s="16">
+      <c r="A125" s="15">
         <v>44831</v>
       </c>
-      <c r="B125" s="17" t="s">
+      <c r="B125" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C125" s="17"/>
-      <c r="D125" s="31"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="28"/>
     </row>
     <row r="126" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A126" s="16">
+      <c r="A126" s="15">
         <v>44832</v>
       </c>
-      <c r="B126" s="17" t="s">
+      <c r="B126" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C126" s="17"/>
-      <c r="D126" s="31"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="28"/>
     </row>
     <row r="127" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A127" s="16">
+      <c r="A127" s="15">
         <v>44833</v>
       </c>
-      <c r="B127" s="17" t="s">
+      <c r="B127" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C127" s="17"/>
-      <c r="D127" s="31"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="28"/>
     </row>
     <row r="128" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A128" s="16">
+      <c r="A128" s="15">
         <v>44834</v>
       </c>
-      <c r="B128" s="17" t="s">
+      <c r="B128" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C128" s="17"/>
-      <c r="D128" s="31"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="28"/>
     </row>
     <row r="129" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A129" s="16">
+      <c r="A129" s="15">
         <v>44835</v>
       </c>
-      <c r="B129" s="17" t="s">
+      <c r="B129" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C129" s="17"/>
-      <c r="D129" s="31"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="28"/>
     </row>
     <row r="130" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A130" s="16">
+      <c r="A130" s="15">
         <v>44836</v>
       </c>
-      <c r="B130" s="17" t="s">
+      <c r="B130" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C130" s="17"/>
-      <c r="D130" s="31"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="28"/>
     </row>
     <row r="131" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A131" s="16">
+      <c r="A131" s="15">
         <v>44837</v>
       </c>
-      <c r="B131" s="17" t="s">
+      <c r="B131" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C131" s="17"/>
-      <c r="D131" s="31"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="28"/>
     </row>
     <row r="132" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A132" s="16">
+      <c r="A132" s="15">
         <v>44838</v>
       </c>
-      <c r="B132" s="17" t="s">
+      <c r="B132" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C132" s="17"/>
-      <c r="D132" s="31"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="28"/>
     </row>
     <row r="133" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A133" s="16">
+      <c r="A133" s="15">
         <v>44839</v>
       </c>
-      <c r="B133" s="17" t="s">
+      <c r="B133" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C133" s="17"/>
-      <c r="D133" s="31"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="28"/>
     </row>
     <row r="134" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A134" s="16">
+      <c r="A134" s="15">
         <v>44840</v>
       </c>
-      <c r="B134" s="17" t="s">
+      <c r="B134" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C134" s="17"/>
-      <c r="D134" s="31"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="28"/>
     </row>
     <row r="135" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A135" s="16">
+      <c r="A135" s="15">
         <v>44841</v>
       </c>
-      <c r="B135" s="17" t="s">
+      <c r="B135" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C135" s="17"/>
-      <c r="D135" s="31"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="28"/>
     </row>
     <row r="136" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A136" s="16">
+      <c r="A136" s="15">
         <v>44842</v>
       </c>
-      <c r="B136" s="17" t="s">
+      <c r="B136" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C136" s="17"/>
-      <c r="D136" s="31"/>
+      <c r="C136" s="16"/>
+      <c r="D136" s="28"/>
     </row>
     <row r="137" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A137" s="16">
+      <c r="A137" s="15">
         <v>44843</v>
       </c>
-      <c r="B137" s="17" t="s">
+      <c r="B137" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C137" s="17"/>
-      <c r="D137" s="31"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="28"/>
     </row>
     <row r="138" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A138" s="16">
+      <c r="A138" s="15">
         <v>44844</v>
       </c>
-      <c r="B138" s="17" t="s">
+      <c r="B138" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C138" s="17"/>
-      <c r="D138" s="31"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="28"/>
     </row>
     <row r="139" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A139" s="16">
+      <c r="A139" s="15">
         <v>44845</v>
       </c>
-      <c r="B139" s="17" t="s">
+      <c r="B139" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C139" s="17"/>
-      <c r="D139" s="31"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="28"/>
     </row>
     <row r="140" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A140" s="16">
+      <c r="A140" s="15">
         <v>44846</v>
       </c>
-      <c r="B140" s="17" t="s">
+      <c r="B140" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C140" s="17"/>
-      <c r="D140" s="31"/>
+      <c r="C140" s="16"/>
+      <c r="D140" s="28"/>
     </row>
     <row r="141" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A141" s="16">
+      <c r="A141" s="15">
         <v>44847</v>
       </c>
-      <c r="B141" s="17" t="s">
+      <c r="B141" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C141" s="17"/>
-      <c r="D141" s="31"/>
+      <c r="C141" s="16"/>
+      <c r="D141" s="28"/>
     </row>
     <row r="142" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A142" s="16">
+      <c r="A142" s="15">
         <v>44848</v>
       </c>
-      <c r="B142" s="17" t="s">
+      <c r="B142" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C142" s="17"/>
-      <c r="D142" s="31"/>
+      <c r="C142" s="16"/>
+      <c r="D142" s="28"/>
     </row>
     <row r="143" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A143" s="16">
+      <c r="A143" s="15">
         <v>44849</v>
       </c>
-      <c r="B143" s="17" t="s">
+      <c r="B143" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C143" s="17"/>
-      <c r="D143" s="31"/>
+      <c r="C143" s="16"/>
+      <c r="D143" s="28"/>
     </row>
     <row r="144" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A144" s="16">
+      <c r="A144" s="15">
         <v>44850</v>
       </c>
-      <c r="B144" s="17" t="s">
+      <c r="B144" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C144" s="17"/>
-      <c r="D144" s="31"/>
+      <c r="C144" s="16"/>
+      <c r="D144" s="28"/>
     </row>
     <row r="145" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A145" s="16">
+      <c r="A145" s="15">
         <v>44851</v>
       </c>
-      <c r="B145" s="17" t="s">
+      <c r="B145" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C145" s="17"/>
-      <c r="D145" s="31"/>
+      <c r="C145" s="16"/>
+      <c r="D145" s="28"/>
     </row>
     <row r="146" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A146" s="16">
+      <c r="A146" s="15">
         <v>44852</v>
       </c>
-      <c r="B146" s="17" t="s">
+      <c r="B146" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C146" s="17"/>
-      <c r="D146" s="31"/>
+      <c r="C146" s="16"/>
+      <c r="D146" s="28"/>
     </row>
     <row r="147" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A147" s="16">
+      <c r="A147" s="15">
         <v>44853</v>
       </c>
-      <c r="B147" s="17" t="s">
+      <c r="B147" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C147" s="17"/>
-      <c r="D147" s="31"/>
+      <c r="C147" s="16"/>
+      <c r="D147" s="28"/>
     </row>
     <row r="148" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A148" s="16">
+      <c r="A148" s="15">
         <v>44854</v>
       </c>
-      <c r="B148" s="17" t="s">
+      <c r="B148" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C148" s="17"/>
-      <c r="D148" s="31"/>
+      <c r="C148" s="16"/>
+      <c r="D148" s="28"/>
     </row>
     <row r="149" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A149" s="16">
+      <c r="A149" s="15">
         <v>44855</v>
       </c>
-      <c r="B149" s="17" t="s">
+      <c r="B149" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C149" s="17"/>
-      <c r="D149" s="31"/>
+      <c r="C149" s="16"/>
+      <c r="D149" s="28"/>
     </row>
     <row r="150" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A150" s="16">
+      <c r="A150" s="15">
         <v>44856</v>
       </c>
-      <c r="B150" s="17" t="s">
+      <c r="B150" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C150" s="17"/>
-      <c r="D150" s="31"/>
+      <c r="C150" s="16"/>
+      <c r="D150" s="28"/>
     </row>
     <row r="151" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A151" s="16">
+      <c r="A151" s="15">
         <v>44857</v>
       </c>
-      <c r="B151" s="17" t="s">
+      <c r="B151" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C151" s="17"/>
-      <c r="D151" s="31"/>
+      <c r="C151" s="16"/>
+      <c r="D151" s="28"/>
     </row>
     <row r="152" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A152" s="16">
+      <c r="A152" s="15">
         <v>44858</v>
       </c>
-      <c r="B152" s="17" t="s">
+      <c r="B152" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C152" s="17"/>
-      <c r="D152" s="31"/>
+      <c r="C152" s="16"/>
+      <c r="D152" s="28"/>
     </row>
     <row r="153" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A153" s="16">
+      <c r="A153" s="15">
         <v>44859</v>
       </c>
-      <c r="B153" s="17" t="s">
+      <c r="B153" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C153" s="17"/>
-      <c r="D153" s="31"/>
+      <c r="C153" s="16"/>
+      <c r="D153" s="28"/>
     </row>
     <row r="154" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A154" s="16">
+      <c r="A154" s="15">
         <v>44860</v>
       </c>
-      <c r="B154" s="17" t="s">
+      <c r="B154" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C154" s="17"/>
-      <c r="D154" s="31"/>
+      <c r="C154" s="16"/>
+      <c r="D154" s="28"/>
     </row>
     <row r="155" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A155" s="16">
+      <c r="A155" s="15">
         <v>44861</v>
       </c>
-      <c r="B155" s="17" t="s">
+      <c r="B155" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C155" s="17"/>
-      <c r="D155" s="31"/>
+      <c r="C155" s="16"/>
+      <c r="D155" s="28"/>
     </row>
     <row r="156" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A156" s="16">
+      <c r="A156" s="15">
         <v>44862</v>
       </c>
-      <c r="B156" s="17" t="s">
+      <c r="B156" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C156" s="17"/>
-      <c r="D156" s="31"/>
+      <c r="C156" s="16"/>
+      <c r="D156" s="28"/>
     </row>
     <row r="157" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A157" s="16">
+      <c r="A157" s="15">
         <v>44863</v>
       </c>
-      <c r="B157" s="17" t="s">
+      <c r="B157" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C157" s="17"/>
-      <c r="D157" s="31"/>
+      <c r="C157" s="16"/>
+      <c r="D157" s="28"/>
     </row>
     <row r="158" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A158" s="16">
+      <c r="A158" s="15">
         <v>44864</v>
       </c>
-      <c r="B158" s="17" t="s">
+      <c r="B158" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C158" s="17"/>
-      <c r="D158" s="31"/>
+      <c r="C158" s="16"/>
+      <c r="D158" s="28"/>
     </row>
     <row r="159" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A159" s="16">
+      <c r="A159" s="15">
         <v>44865</v>
       </c>
-      <c r="B159" s="17" t="s">
+      <c r="B159" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C159" s="17"/>
-      <c r="D159" s="31"/>
+      <c r="C159" s="16"/>
+      <c r="D159" s="28"/>
     </row>
     <row r="160" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A160" s="16">
+      <c r="A160" s="15">
         <v>44866</v>
       </c>
-      <c r="B160" s="17" t="s">
+      <c r="B160" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C160" s="17"/>
-      <c r="D160" s="31"/>
+      <c r="C160" s="16"/>
+      <c r="D160" s="28"/>
     </row>
     <row r="161" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A161" s="16">
+      <c r="A161" s="15">
         <v>44867</v>
       </c>
-      <c r="B161" s="17" t="s">
+      <c r="B161" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C161" s="17"/>
-      <c r="D161" s="31"/>
+      <c r="C161" s="16"/>
+      <c r="D161" s="28"/>
     </row>
     <row r="162" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A162" s="16">
+      <c r="A162" s="15">
         <v>44868</v>
       </c>
-      <c r="B162" s="17" t="s">
+      <c r="B162" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C162" s="17"/>
-      <c r="D162" s="31"/>
+      <c r="C162" s="16"/>
+      <c r="D162" s="28"/>
     </row>
     <row r="163" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A163" s="16">
+      <c r="A163" s="15">
         <v>44869</v>
       </c>
-      <c r="B163" s="17" t="s">
+      <c r="B163" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C163" s="17"/>
-      <c r="D163" s="31"/>
+      <c r="C163" s="16"/>
+      <c r="D163" s="28"/>
     </row>
     <row r="164" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A164" s="16">
+      <c r="A164" s="15">
         <v>44870</v>
       </c>
-      <c r="B164" s="17" t="s">
+      <c r="B164" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C164" s="17"/>
-      <c r="D164" s="31"/>
+      <c r="C164" s="16"/>
+      <c r="D164" s="28"/>
     </row>
     <row r="165" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A165" s="16">
+      <c r="A165" s="15">
         <v>44871</v>
       </c>
-      <c r="B165" s="17" t="s">
+      <c r="B165" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C165" s="17"/>
-      <c r="D165" s="31"/>
+      <c r="C165" s="16"/>
+      <c r="D165" s="28"/>
     </row>
     <row r="166" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A166" s="16">
+      <c r="A166" s="15">
         <v>44872</v>
       </c>
-      <c r="B166" s="17" t="s">
+      <c r="B166" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C166" s="17"/>
-      <c r="D166" s="31"/>
+      <c r="C166" s="16"/>
+      <c r="D166" s="28"/>
     </row>
     <row r="167" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A167" s="16">
+      <c r="A167" s="15">
         <v>44873</v>
       </c>
-      <c r="B167" s="17" t="s">
+      <c r="B167" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C167" s="17"/>
-      <c r="D167" s="31"/>
+      <c r="C167" s="16"/>
+      <c r="D167" s="28"/>
     </row>
     <row r="168" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A168" s="16">
+      <c r="A168" s="15">
         <v>44874</v>
       </c>
-      <c r="B168" s="17" t="s">
+      <c r="B168" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C168" s="17"/>
-      <c r="D168" s="31"/>
+      <c r="C168" s="16"/>
+      <c r="D168" s="28"/>
     </row>
     <row r="169" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A169" s="16">
+      <c r="A169" s="15">
         <v>44875</v>
       </c>
-      <c r="B169" s="17" t="s">
+      <c r="B169" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C169" s="17"/>
-      <c r="D169" s="31"/>
+      <c r="C169" s="16"/>
+      <c r="D169" s="28"/>
     </row>
     <row r="170" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A170" s="16">
+      <c r="A170" s="15">
         <v>44876</v>
       </c>
-      <c r="B170" s="17" t="s">
+      <c r="B170" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C170" s="17"/>
-      <c r="D170" s="31"/>
+      <c r="C170" s="16"/>
+      <c r="D170" s="28"/>
     </row>
     <row r="171" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A171" s="16">
+      <c r="A171" s="15">
         <v>44877</v>
       </c>
-      <c r="B171" s="17" t="s">
+      <c r="B171" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C171" s="17"/>
-      <c r="D171" s="31"/>
+      <c r="C171" s="16"/>
+      <c r="D171" s="28"/>
     </row>
     <row r="172" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A172" s="16">
+      <c r="A172" s="15">
         <v>44878</v>
       </c>
-      <c r="B172" s="17" t="s">
+      <c r="B172" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C172" s="17"/>
-      <c r="D172" s="31"/>
+      <c r="C172" s="16"/>
+      <c r="D172" s="28"/>
     </row>
     <row r="173" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A173" s="16">
+      <c r="A173" s="15">
         <v>44879</v>
       </c>
-      <c r="B173" s="17" t="s">
+      <c r="B173" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C173" s="17"/>
-      <c r="D173" s="31"/>
+      <c r="C173" s="16"/>
+      <c r="D173" s="28"/>
     </row>
     <row r="174" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A174" s="16">
+      <c r="A174" s="15">
         <v>44880</v>
       </c>
-      <c r="B174" s="17" t="s">
+      <c r="B174" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C174" s="17"/>
-      <c r="D174" s="31"/>
+      <c r="C174" s="16"/>
+      <c r="D174" s="28"/>
     </row>
     <row r="175" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A175" s="16">
+      <c r="A175" s="15">
         <v>44881</v>
       </c>
-      <c r="B175" s="17" t="s">
+      <c r="B175" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C175" s="17"/>
-      <c r="D175" s="31"/>
+      <c r="C175" s="16"/>
+      <c r="D175" s="28"/>
     </row>
     <row r="176" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A176" s="16">
+      <c r="A176" s="15">
         <v>44882</v>
       </c>
-      <c r="B176" s="17" t="s">
+      <c r="B176" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C176" s="17"/>
-      <c r="D176" s="31"/>
+      <c r="C176" s="16"/>
+      <c r="D176" s="28"/>
     </row>
     <row r="177" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A177" s="16">
+      <c r="A177" s="15">
         <v>44883</v>
       </c>
-      <c r="B177" s="17" t="s">
+      <c r="B177" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C177" s="17"/>
-      <c r="D177" s="31"/>
+      <c r="C177" s="16"/>
+      <c r="D177" s="28"/>
     </row>
     <row r="178" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A178" s="16">
+      <c r="A178" s="15">
         <v>44884</v>
       </c>
-      <c r="B178" s="17" t="s">
+      <c r="B178" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C178" s="17"/>
-      <c r="D178" s="31"/>
+      <c r="C178" s="16"/>
+      <c r="D178" s="28"/>
     </row>
     <row r="179" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A179" s="16">
+      <c r="A179" s="15">
         <v>44885</v>
       </c>
-      <c r="B179" s="17" t="s">
+      <c r="B179" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C179" s="17"/>
-      <c r="D179" s="31"/>
+      <c r="C179" s="16"/>
+      <c r="D179" s="28"/>
     </row>
     <row r="180" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A180" s="16">
+      <c r="A180" s="15">
         <v>44886</v>
       </c>
-      <c r="B180" s="17" t="s">
+      <c r="B180" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C180" s="17"/>
-      <c r="D180" s="31"/>
+      <c r="C180" s="16"/>
+      <c r="D180" s="28"/>
     </row>
     <row r="181" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A181" s="16">
+      <c r="A181" s="15">
         <v>44887</v>
       </c>
-      <c r="B181" s="17" t="s">
+      <c r="B181" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C181" s="17"/>
-      <c r="D181" s="31"/>
+      <c r="C181" s="16"/>
+      <c r="D181" s="28"/>
     </row>
     <row r="182" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A182" s="16">
+      <c r="A182" s="15">
         <v>44888</v>
       </c>
-      <c r="B182" s="17" t="s">
+      <c r="B182" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C182" s="17"/>
-      <c r="D182" s="31"/>
+      <c r="C182" s="16"/>
+      <c r="D182" s="28"/>
     </row>
     <row r="183" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A183" s="16">
+      <c r="A183" s="15">
         <v>44889</v>
       </c>
-      <c r="B183" s="17" t="s">
+      <c r="B183" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C183" s="17"/>
-      <c r="D183" s="31"/>
+      <c r="C183" s="16"/>
+      <c r="D183" s="28"/>
     </row>
     <row r="184" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A184" s="16">
+      <c r="A184" s="15">
         <v>44890</v>
       </c>
-      <c r="B184" s="17" t="s">
+      <c r="B184" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C184" s="17"/>
-      <c r="D184" s="31"/>
+      <c r="C184" s="16"/>
+      <c r="D184" s="28"/>
     </row>
     <row r="185" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A185" s="16">
+      <c r="A185" s="15">
         <v>44891</v>
       </c>
-      <c r="B185" s="17" t="s">
+      <c r="B185" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C185" s="17"/>
-      <c r="D185" s="31"/>
+      <c r="C185" s="16"/>
+      <c r="D185" s="28"/>
     </row>
     <row r="186" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A186" s="16">
+      <c r="A186" s="15">
         <v>44892</v>
       </c>
-      <c r="B186" s="17" t="s">
+      <c r="B186" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C186" s="17"/>
-      <c r="D186" s="31"/>
+      <c r="C186" s="16"/>
+      <c r="D186" s="28"/>
     </row>
     <row r="187" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A187" s="16">
+      <c r="A187" s="15">
         <v>44893</v>
       </c>
-      <c r="B187" s="17" t="s">
+      <c r="B187" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C187" s="17"/>
-      <c r="D187" s="31"/>
+      <c r="C187" s="16"/>
+      <c r="D187" s="28"/>
     </row>
     <row r="188" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A188" s="16">
+      <c r="A188" s="15">
         <v>44894</v>
       </c>
-      <c r="B188" s="17" t="s">
+      <c r="B188" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C188" s="17"/>
-      <c r="D188" s="31"/>
+      <c r="C188" s="16"/>
+      <c r="D188" s="28"/>
     </row>
     <row r="189" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A189" s="16">
+      <c r="A189" s="15">
         <v>44895</v>
       </c>
-      <c r="B189" s="17" t="s">
+      <c r="B189" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C189" s="17"/>
-      <c r="D189" s="31"/>
+      <c r="C189" s="16"/>
+      <c r="D189" s="28"/>
     </row>
     <row r="190" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A190" s="16">
+      <c r="A190" s="15">
         <v>44896</v>
       </c>
-      <c r="B190" s="17" t="s">
+      <c r="B190" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C190" s="17"/>
-      <c r="D190" s="31"/>
+      <c r="C190" s="16"/>
+      <c r="D190" s="28"/>
     </row>
     <row r="191" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A191" s="16">
+      <c r="A191" s="15">
         <v>44897</v>
       </c>
-      <c r="B191" s="17" t="s">
+      <c r="B191" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C191" s="17"/>
-      <c r="D191" s="31"/>
+      <c r="C191" s="16"/>
+      <c r="D191" s="28"/>
     </row>
     <row r="192" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A192" s="16">
+      <c r="A192" s="15">
         <v>44898</v>
       </c>
-      <c r="B192" s="17" t="s">
+      <c r="B192" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C192" s="17"/>
-      <c r="D192" s="31"/>
+      <c r="C192" s="16"/>
+      <c r="D192" s="28"/>
     </row>
     <row r="193" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A193" s="16">
+      <c r="A193" s="15">
         <v>44899</v>
       </c>
-      <c r="B193" s="17" t="s">
+      <c r="B193" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C193" s="17"/>
-      <c r="D193" s="31"/>
+      <c r="C193" s="16"/>
+      <c r="D193" s="28"/>
     </row>
     <row r="194" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A194" s="16">
+      <c r="A194" s="15">
         <v>44900</v>
       </c>
-      <c r="B194" s="17" t="s">
+      <c r="B194" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C194" s="17"/>
-      <c r="D194" s="31"/>
+      <c r="C194" s="16"/>
+      <c r="D194" s="28"/>
     </row>
     <row r="195" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A195" s="16">
+      <c r="A195" s="15">
         <v>44901</v>
       </c>
-      <c r="B195" s="17" t="s">
+      <c r="B195" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C195" s="17"/>
-      <c r="D195" s="31"/>
+      <c r="C195" s="16"/>
+      <c r="D195" s="28"/>
     </row>
     <row r="196" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A196" s="16">
+      <c r="A196" s="15">
         <v>44902</v>
       </c>
-      <c r="B196" s="17" t="s">
+      <c r="B196" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C196" s="17"/>
-      <c r="D196" s="31"/>
+      <c r="C196" s="16"/>
+      <c r="D196" s="28"/>
     </row>
     <row r="197" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A197" s="16">
+      <c r="A197" s="15">
         <v>44903</v>
       </c>
-      <c r="B197" s="17" t="s">
+      <c r="B197" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C197" s="17"/>
-      <c r="D197" s="31"/>
+      <c r="C197" s="16"/>
+      <c r="D197" s="28"/>
     </row>
     <row r="198" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A198" s="16">
+      <c r="A198" s="15">
         <v>44904</v>
       </c>
-      <c r="B198" s="17" t="s">
+      <c r="B198" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C198" s="17"/>
-      <c r="D198" s="31"/>
+      <c r="C198" s="16"/>
+      <c r="D198" s="28"/>
     </row>
     <row r="199" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A199" s="16">
+      <c r="A199" s="15">
         <v>44905</v>
       </c>
-      <c r="B199" s="17" t="s">
+      <c r="B199" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C199" s="17"/>
-      <c r="D199" s="31"/>
+      <c r="C199" s="16"/>
+      <c r="D199" s="28"/>
     </row>
     <row r="200" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A200" s="16">
+      <c r="A200" s="15">
         <v>44906</v>
       </c>
-      <c r="B200" s="17" t="s">
+      <c r="B200" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C200" s="17"/>
-      <c r="D200" s="31"/>
+      <c r="C200" s="16"/>
+      <c r="D200" s="28"/>
     </row>
     <row r="201" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A201" s="16">
+      <c r="A201" s="15">
         <v>44907</v>
       </c>
-      <c r="B201" s="17" t="s">
+      <c r="B201" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C201" s="17"/>
-      <c r="D201" s="31"/>
+      <c r="C201" s="16"/>
+      <c r="D201" s="28"/>
     </row>
     <row r="202" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A202" s="16">
+      <c r="A202" s="15">
         <v>44908</v>
       </c>
-      <c r="B202" s="17" t="s">
+      <c r="B202" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C202" s="17"/>
-      <c r="D202" s="31"/>
+      <c r="C202" s="16"/>
+      <c r="D202" s="28"/>
     </row>
     <row r="203" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A203" s="16">
+      <c r="A203" s="15">
         <v>44909</v>
       </c>
-      <c r="B203" s="17" t="s">
+      <c r="B203" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C203" s="17"/>
-      <c r="D203" s="31"/>
+      <c r="C203" s="16"/>
+      <c r="D203" s="28"/>
     </row>
     <row r="204" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A204" s="16">
+      <c r="A204" s="15">
         <v>44910</v>
       </c>
-      <c r="B204" s="17" t="s">
+      <c r="B204" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C204" s="17"/>
-      <c r="D204" s="31"/>
+      <c r="C204" s="16"/>
+      <c r="D204" s="28"/>
     </row>
     <row r="205" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A205" s="16">
+      <c r="A205" s="15">
         <v>44911</v>
       </c>
-      <c r="B205" s="17" t="s">
+      <c r="B205" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C205" s="17"/>
-      <c r="D205" s="31"/>
+      <c r="C205" s="16"/>
+      <c r="D205" s="28"/>
     </row>
     <row r="206" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A206" s="16">
+      <c r="A206" s="15">
         <v>44912</v>
       </c>
-      <c r="B206" s="17" t="s">
+      <c r="B206" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C206" s="17"/>
-      <c r="D206" s="31"/>
+      <c r="C206" s="16"/>
+      <c r="D206" s="28"/>
     </row>
     <row r="207" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A207" s="16">
+      <c r="A207" s="15">
         <v>44913</v>
       </c>
-      <c r="B207" s="17" t="s">
+      <c r="B207" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C207" s="17"/>
-      <c r="D207" s="31"/>
+      <c r="C207" s="16"/>
+      <c r="D207" s="28"/>
     </row>
     <row r="208" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A208" s="16">
+      <c r="A208" s="15">
         <v>44914</v>
       </c>
-      <c r="B208" s="17" t="s">
+      <c r="B208" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C208" s="17"/>
-      <c r="D208" s="31"/>
+      <c r="C208" s="16"/>
+      <c r="D208" s="28"/>
     </row>
     <row r="209" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A209" s="16">
+      <c r="A209" s="15">
         <v>44915</v>
       </c>
-      <c r="B209" s="17" t="s">
+      <c r="B209" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C209" s="17"/>
-      <c r="D209" s="31"/>
+      <c r="C209" s="16"/>
+      <c r="D209" s="28"/>
     </row>
     <row r="210" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A210" s="16">
+      <c r="A210" s="15">
         <v>44916</v>
       </c>
-      <c r="B210" s="17" t="s">
+      <c r="B210" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C210" s="17"/>
-      <c r="D210" s="31"/>
+      <c r="C210" s="16"/>
+      <c r="D210" s="28"/>
     </row>
     <row r="211" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A211" s="16">
+      <c r="A211" s="15">
         <v>44917</v>
       </c>
-      <c r="B211" s="17" t="s">
+      <c r="B211" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C211" s="17"/>
-      <c r="D211" s="31"/>
+      <c r="C211" s="16"/>
+      <c r="D211" s="28"/>
     </row>
     <row r="212" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A212" s="16">
+      <c r="A212" s="15">
         <v>44918</v>
       </c>
-      <c r="B212" s="17" t="s">
+      <c r="B212" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C212" s="17"/>
-      <c r="D212" s="31"/>
+      <c r="C212" s="16"/>
+      <c r="D212" s="28"/>
     </row>
     <row r="213" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A213" s="16">
+      <c r="A213" s="15">
         <v>44919</v>
       </c>
-      <c r="B213" s="17" t="s">
+      <c r="B213" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C213" s="17"/>
-      <c r="D213" s="31"/>
+      <c r="C213" s="16"/>
+      <c r="D213" s="28"/>
     </row>
     <row r="214" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A214" s="16">
+      <c r="A214" s="15">
         <v>44920</v>
       </c>
-      <c r="B214" s="17" t="s">
+      <c r="B214" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C214" s="17"/>
-      <c r="D214" s="31"/>
+      <c r="C214" s="16"/>
+      <c r="D214" s="28"/>
     </row>
     <row r="215" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A215" s="16">
+      <c r="A215" s="15">
         <v>44921</v>
       </c>
-      <c r="B215" s="17" t="s">
+      <c r="B215" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C215" s="17"/>
-      <c r="D215" s="31"/>
+      <c r="C215" s="16"/>
+      <c r="D215" s="28"/>
     </row>
     <row r="216" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A216" s="16">
+      <c r="A216" s="15">
         <v>44922</v>
       </c>
-      <c r="B216" s="17" t="s">
+      <c r="B216" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C216" s="17"/>
-      <c r="D216" s="31"/>
+      <c r="C216" s="16"/>
+      <c r="D216" s="28"/>
     </row>
     <row r="217" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A217" s="16">
+      <c r="A217" s="15">
         <v>44923</v>
       </c>
-      <c r="B217" s="17" t="s">
+      <c r="B217" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C217" s="17"/>
-      <c r="D217" s="31"/>
+      <c r="C217" s="16"/>
+      <c r="D217" s="28"/>
     </row>
     <row r="218" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A218" s="16">
+      <c r="A218" s="15">
         <v>44924</v>
       </c>
-      <c r="B218" s="17" t="s">
+      <c r="B218" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C218" s="17"/>
-      <c r="D218" s="31"/>
+      <c r="C218" s="16"/>
+      <c r="D218" s="28"/>
     </row>
     <row r="219" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A219" s="16">
+      <c r="A219" s="15">
         <v>44925</v>
       </c>
-      <c r="B219" s="17" t="s">
+      <c r="B219" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C219" s="17"/>
-      <c r="D219" s="31"/>
+      <c r="C219" s="16"/>
+      <c r="D219" s="28"/>
     </row>
     <row r="220" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A220" s="16">
+      <c r="A220" s="15">
         <v>44926</v>
       </c>
-      <c r="B220" s="17" t="s">
+      <c r="B220" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C220" s="17"/>
-      <c r="D220" s="31"/>
+      <c r="C220" s="16"/>
+      <c r="D220" s="28"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A221" s="15"/>
-      <c r="B221" s="15"/>
-      <c r="C221" s="15"/>
-      <c r="D221" s="32"/>
+      <c r="A221" s="14"/>
+      <c r="B221" s="14"/>
+      <c r="C221" s="14"/>
+      <c r="D221" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3002,17 +2983,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.5703125" style="1" customWidth="1"/>
     <col min="2" max="3" width="26.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="38" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32" style="10" customWidth="1"/>
+    <col min="6" max="6" width="32" style="9" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -3027,7 +3008,7 @@
       <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="33" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -3041,218 +3022,229 @@
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="11">
+      <c r="D2" s="34"/>
+      <c r="E2" s="10">
         <f>320+1000</f>
         <v>1320</v>
       </c>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
+      <c r="A3" s="19">
         <v>44708</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="39">
+      <c r="C3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="35">
         <v>-300</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="21"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39">
+      <c r="A4" s="19">
+        <v>44715</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35">
         <v>1000</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="35"/>
       <c r="G4" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="40">
+      <c r="A5" s="17">
+        <v>44722</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="36">
         <v>-700</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="20"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36">
+        <f>3</f>
+        <v>3</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="20"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="20"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="20"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="20"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="20"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="22"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="22"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="22"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="22"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="22"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="22"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="22"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="22"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="22"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="22"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="22"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="22"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="22"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="41">
+      <c r="D24" s="37">
         <f>SUM(D3:D23)</f>
         <v>-1000</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="20">
         <f>E2+D24</f>
         <v>320</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="40">
         <f>SUM(F5:F23)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E25" s="10"/>
+      <c r="E25" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3264,104 +3256,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:XFC24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="25" style="14" customWidth="1"/>
-    <col min="5" max="16383" width="9.140625" style="13" hidden="1"/>
-    <col min="16384" max="16384" width="0.28515625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="25" style="13" customWidth="1"/>
+    <col min="5" max="16383" width="9.140625" style="12" hidden="1"/>
+    <col min="16384" max="16384" width="0.28515625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="28">
-        <v>44714</v>
+      <c r="A1" s="25">
+        <v>44722</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="C2" s="39">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="24"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="24"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6" s="27"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D9" s="36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="26"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="27"/>
+      <c r="D24" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3384,104 +3357,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="34"/>
-      <c r="B1" s="35"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
     </row>
     <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
     </row>
     <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
     </row>
     <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
     </row>
     <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
     </row>
     <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
     </row>
     <row r="9" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
     </row>
     <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
     </row>
     <row r="11" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
     </row>
     <row r="12" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
     </row>
     <row r="13" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
     </row>
     <row r="14" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
     </row>
     <row r="15" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
     </row>
     <row r="16" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
     </row>
     <row r="17" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
     </row>
     <row r="18" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
     </row>
     <row r="19" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
     </row>
     <row r="20" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
     </row>
     <row r="21" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
     </row>
     <row r="22" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
     </row>
     <row r="23" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
     </row>
     <row r="24" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
     </row>
     <row r="25" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CODE.xlsx
+++ b/CODE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFE0035-EF5D-49B9-B0D6-77184ABD61E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4DA6CE-9461-440E-ADD5-E3B141D355DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="630" yWindow="915" windowWidth="19830" windowHeight="14715" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="36">
   <si>
     <t>DATE</t>
   </si>
@@ -89,9 +89,6 @@
     <t>done</t>
   </si>
   <si>
-    <t>1pm</t>
-  </si>
-  <si>
     <t>10am</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>7pm</t>
   </si>
   <si>
-    <t>9pm</t>
-  </si>
-  <si>
     <t>20min</t>
   </si>
   <si>
@@ -128,13 +122,22 @@
     <t>Loan</t>
   </si>
   <si>
-    <t>3:15pm</t>
-  </si>
-  <si>
     <t>no target</t>
   </si>
   <si>
     <t>7hrs</t>
+  </si>
+  <si>
+    <t>2pm</t>
+  </si>
+  <si>
+    <t>4hrs</t>
+  </si>
+  <si>
+    <t>8pm</t>
+  </si>
+  <si>
+    <t>1hrs</t>
   </si>
 </sst>
 </file>
@@ -722,7 +725,7 @@
   <dimension ref="A1:G221"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -757,7 +760,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="27"/>
     </row>
@@ -839,10 +842,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.3">
@@ -853,7 +856,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="27"/>
     </row>
@@ -864,8 +867,12 @@
       <c r="B10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="28"/>
+      <c r="C10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
@@ -3037,7 +3044,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="35">
         <v>-300</v>
@@ -3050,7 +3057,7 @@
         <v>44715</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="35"/>
@@ -3059,7 +3066,7 @@
       </c>
       <c r="F4" s="35"/>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -3067,7 +3074,7 @@
         <v>44722</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="36">
@@ -3079,7 +3086,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -3257,7 +3264,7 @@
   <dimension ref="A1:XFC24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -3272,19 +3279,11 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="25">
-        <v>44722</v>
+        <v>44724</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="39">
-        <v>0.26041666666666669</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>21</v>
-      </c>
+      <c r="C2" s="39"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" s="24"/>
@@ -3294,40 +3293,40 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>23</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" s="41" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">

--- a/CODE.xlsx
+++ b/CODE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4DA6CE-9461-440E-ADD5-E3B141D355DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378FEA48-148C-42A5-8D31-04BA560B7B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="915" windowWidth="19830" windowHeight="14715" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="915" windowWidth="19830" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TARGET DAY" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="46">
   <si>
     <t>DATE</t>
   </si>
@@ -138,6 +138,36 @@
   </si>
   <si>
     <t>1hrs</t>
+  </si>
+  <si>
+    <t>11:12am</t>
+  </si>
+  <si>
+    <t>12:12pm</t>
+  </si>
+  <si>
+    <t>1hr</t>
+  </si>
+  <si>
+    <t>12:50pm</t>
+  </si>
+  <si>
+    <t>3:45pm</t>
+  </si>
+  <si>
+    <t>4:45pm</t>
+  </si>
+  <si>
+    <t>1:10pm</t>
+  </si>
+  <si>
+    <t>7:20pm</t>
+  </si>
+  <si>
+    <t>8:20pm</t>
+  </si>
+  <si>
+    <t>3.20hrs</t>
   </si>
 </sst>
 </file>
@@ -724,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G221"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -856,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D9" s="27"/>
     </row>
@@ -881,8 +911,12 @@
       <c r="B11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="28"/>
+      <c r="C11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
@@ -3263,8 +3297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:XFC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -3283,7 +3317,48 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C2" s="39"/>
+      <c r="B2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" s="24"/>

--- a/CODE.xlsx
+++ b/CODE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378FEA48-148C-42A5-8D31-04BA560B7B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC49962A-58B3-4A7C-921F-8B6B64772EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="915" windowWidth="19830" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="915" windowWidth="19830" windowHeight="14715" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TARGET DAY" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="36">
   <si>
     <t>DATE</t>
   </si>
@@ -95,18 +95,12 @@
     <t>3hrs</t>
   </si>
   <si>
-    <t>3pm</t>
-  </si>
-  <si>
     <t>5pm</t>
   </si>
   <si>
     <t>2hrs</t>
   </si>
   <si>
-    <t>7pm</t>
-  </si>
-  <si>
     <t>20min</t>
   </si>
   <si>
@@ -125,49 +119,25 @@
     <t>no target</t>
   </si>
   <si>
-    <t>7hrs</t>
-  </si>
-  <si>
     <t>2pm</t>
   </si>
   <si>
-    <t>4hrs</t>
-  </si>
-  <si>
-    <t>8pm</t>
-  </si>
-  <si>
-    <t>1hrs</t>
-  </si>
-  <si>
-    <t>11:12am</t>
-  </si>
-  <si>
-    <t>12:12pm</t>
-  </si>
-  <si>
-    <t>1hr</t>
-  </si>
-  <si>
-    <t>12:50pm</t>
-  </si>
-  <si>
-    <t>3:45pm</t>
-  </si>
-  <si>
-    <t>4:45pm</t>
-  </si>
-  <si>
-    <t>1:10pm</t>
-  </si>
-  <si>
-    <t>7:20pm</t>
-  </si>
-  <si>
-    <t>8:20pm</t>
-  </si>
-  <si>
     <t>3.20hrs</t>
+  </si>
+  <si>
+    <t>1pm</t>
+  </si>
+  <si>
+    <t>6.30pm</t>
+  </si>
+  <si>
+    <t>8.30pm</t>
+  </si>
+  <si>
+    <t>8hrs</t>
+  </si>
+  <si>
+    <t>no code</t>
   </si>
 </sst>
 </file>
@@ -754,7 +724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -790,7 +760,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="27"/>
     </row>
@@ -872,10 +842,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.3">
@@ -886,7 +856,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D9" s="27"/>
     </row>
@@ -3078,7 +3048,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="35">
         <v>-300</v>
@@ -3091,7 +3061,7 @@
         <v>44715</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="35"/>
@@ -3100,7 +3070,7 @@
       </c>
       <c r="F4" s="35"/>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -3120,7 +3090,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -3297,8 +3267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:XFC24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -3313,52 +3283,17 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="25">
-        <v>44724</v>
+        <v>44725</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>38</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>38</v>
-      </c>
+      <c r="C3" s="39"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" s="24"/>
@@ -3371,37 +3306,37 @@
         <v>19</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>22</v>
-      </c>
       <c r="D14" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" s="41" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">

--- a/CODE.xlsx
+++ b/CODE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC49962A-58B3-4A7C-921F-8B6B64772EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48119B7-584B-48BB-8293-D96F3133C9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="915" windowWidth="19830" windowHeight="14715" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TARGET DAY" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="41">
   <si>
     <t>DATE</t>
   </si>
@@ -122,9 +122,6 @@
     <t>2pm</t>
   </si>
   <si>
-    <t>3.20hrs</t>
-  </si>
-  <si>
     <t>1pm</t>
   </si>
   <si>
@@ -137,7 +134,25 @@
     <t>8hrs</t>
   </si>
   <si>
-    <t>no code</t>
+    <t>1.06pm</t>
+  </si>
+  <si>
+    <t>4:35pm</t>
+  </si>
+  <si>
+    <t>3.30hrs</t>
+  </si>
+  <si>
+    <t>5:21pm</t>
+  </si>
+  <si>
+    <t>5:31pm</t>
+  </si>
+  <si>
+    <t>10mins</t>
+  </si>
+  <si>
+    <t>1hrs</t>
   </si>
 </sst>
 </file>
@@ -724,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G221"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -855,9 +870,7 @@
       <c r="B9" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>30</v>
-      </c>
+      <c r="C9" s="22"/>
       <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.3">
@@ -867,12 +880,8 @@
       <c r="B10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>18</v>
-      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
@@ -881,12 +890,8 @@
       <c r="B11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>18</v>
-      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
@@ -935,8 +940,13 @@
       <c r="B16" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="27"/>
+      <c r="C16" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="27">
+        <f>20+40</f>
+        <v>60</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
@@ -945,8 +955,12 @@
       <c r="B17" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="28"/>
+      <c r="C17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
@@ -955,8 +969,12 @@
       <c r="B18" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="28"/>
+      <c r="C18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
@@ -965,8 +983,12 @@
       <c r="B19" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="28"/>
+      <c r="C19" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
@@ -975,8 +997,12 @@
       <c r="B20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="28"/>
+      <c r="C20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
@@ -2994,8 +3020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3085,10 +3111,7 @@
         <v>-700</v>
       </c>
       <c r="E5" s="36"/>
-      <c r="F5" s="36">
-        <f>3</f>
-        <v>3</v>
-      </c>
+      <c r="F5" s="36"/>
       <c r="G5" s="1" t="s">
         <v>27</v>
       </c>
@@ -3251,7 +3274,7 @@
       </c>
       <c r="F24" s="40">
         <f>SUM(F5:F23)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -3267,7 +3290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:XFC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -3283,17 +3306,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="25">
-        <v>44725</v>
+        <v>44726</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="39"/>
+      <c r="D2" s="13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="39"/>
+      <c r="B3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" s="24"/>
@@ -3306,7 +3342,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>20</v>
@@ -3325,10 +3361,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>33</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>22</v>
@@ -3336,7 +3372,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">

--- a/CODE.xlsx
+++ b/CODE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48119B7-584B-48BB-8293-D96F3133C9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F78CC43-DEBF-4351-956C-CB1174BFCDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TARGET DAY" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="42">
   <si>
     <t>DATE</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>1hrs</t>
+  </si>
+  <si>
+    <t>pending</t>
   </si>
 </sst>
 </file>
@@ -739,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G221"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1011,8 +1014,12 @@
       <c r="B21" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="28"/>
+      <c r="C21" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
@@ -1021,8 +1028,12 @@
       <c r="B22" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="28"/>
+      <c r="C22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A23" s="21">
@@ -3020,8 +3031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/CODE.xlsx
+++ b/CODE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F78CC43-DEBF-4351-956C-CB1174BFCDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF527AB5-C81B-4A62-9B97-0C9DEF189BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6105" yWindow="1455" windowWidth="12645" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TARGET DAY" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="36">
   <si>
     <t>DATE</t>
   </si>
@@ -132,24 +132,6 @@
   </si>
   <si>
     <t>8hrs</t>
-  </si>
-  <si>
-    <t>1.06pm</t>
-  </si>
-  <si>
-    <t>4:35pm</t>
-  </si>
-  <si>
-    <t>3.30hrs</t>
-  </si>
-  <si>
-    <t>5:21pm</t>
-  </si>
-  <si>
-    <t>5:31pm</t>
-  </si>
-  <si>
-    <t>10mins</t>
   </si>
   <si>
     <t>1hrs</t>
@@ -742,7 +724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -944,7 +926,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D16" s="27">
         <f>20+40</f>
@@ -1015,10 +997,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.3">
@@ -1029,10 +1011,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.3">
@@ -3302,7 +3284,7 @@
   <dimension ref="A1:XFC24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -3317,30 +3299,17 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="25">
-        <v>44726</v>
+        <v>44727</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>39</v>
-      </c>
+      <c r="C3" s="39"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="39"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" s="24"/>

--- a/CODE.xlsx
+++ b/CODE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF527AB5-C81B-4A62-9B97-0C9DEF189BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A15BC1-1CDA-446F-AF61-13A688AF87CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6105" yWindow="1455" windowWidth="12645" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="1425" windowWidth="16860" windowHeight="14250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TARGET DAY" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="38">
   <si>
     <t>DATE</t>
   </si>
@@ -134,10 +134,16 @@
     <t>8hrs</t>
   </si>
   <si>
-    <t>1hrs</t>
-  </si>
-  <si>
-    <t>pending</t>
+    <t>9:20am</t>
+  </si>
+  <si>
+    <t>9:50am</t>
+  </si>
+  <si>
+    <t>30mins</t>
+  </si>
+  <si>
+    <t>20mins</t>
   </si>
 </sst>
 </file>
@@ -724,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -926,7 +932,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D16" s="27">
         <f>20+40</f>
@@ -1011,10 +1017,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.3">
@@ -3013,8 +3019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3099,7 +3105,9 @@
       <c r="B5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="D5" s="36">
         <v>-700</v>
       </c>
@@ -3284,7 +3292,7 @@
   <dimension ref="A1:XFC24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -3299,14 +3307,22 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="25">
-        <v>44727</v>
+        <v>44729</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="39"/>
+      <c r="B3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" s="39"/>

--- a/CODE.xlsx
+++ b/CODE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A15BC1-1CDA-446F-AF61-13A688AF87CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D7B6B5-A701-4437-B429-B5BFD8AAE3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="1425" windowWidth="16860" windowHeight="14250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2475" yWindow="945" windowWidth="18255" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TARGET DAY" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="43">
   <si>
     <t>DATE</t>
   </si>
@@ -143,7 +143,22 @@
     <t>30mins</t>
   </si>
   <si>
-    <t>20mins</t>
+    <t>2:30pm</t>
+  </si>
+  <si>
+    <t>3:30pm</t>
+  </si>
+  <si>
+    <t>1hr</t>
+  </si>
+  <si>
+    <t>4:40pm</t>
+  </si>
+  <si>
+    <t>4:50pm</t>
+  </si>
+  <si>
+    <t>10mins</t>
   </si>
 </sst>
 </file>
@@ -730,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G221"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -871,8 +886,12 @@
       <c r="B10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="28"/>
+      <c r="C10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
@@ -881,8 +900,12 @@
       <c r="B11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="28"/>
+      <c r="C11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
@@ -891,8 +914,12 @@
       <c r="B12" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="28"/>
+      <c r="C12" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
@@ -901,8 +928,12 @@
       <c r="B13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="28"/>
+      <c r="C13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
@@ -911,8 +942,12 @@
       <c r="B14" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="28"/>
+      <c r="C14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
@@ -921,8 +956,12 @@
       <c r="B15" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="28"/>
+      <c r="C15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
@@ -931,13 +970,8 @@
       <c r="B16" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="27">
-        <f>20+40</f>
-        <v>60</v>
-      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
@@ -1040,8 +1074,12 @@
       <c r="B24" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="28"/>
+      <c r="C24" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
@@ -1050,8 +1088,12 @@
       <c r="B25" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="28"/>
+      <c r="C25" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
@@ -1060,8 +1102,12 @@
       <c r="B26" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="28"/>
+      <c r="C26" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
@@ -1070,8 +1116,12 @@
       <c r="B27" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="28"/>
+      <c r="C27" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
@@ -1080,8 +1130,12 @@
       <c r="B28" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="28"/>
+      <c r="C28" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
@@ -1090,18 +1144,22 @@
       <c r="B29" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="28"/>
+      <c r="C29" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
         <v>44736</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="28"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
@@ -3019,8 +3077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3109,7 +3167,8 @@
         <v>18</v>
       </c>
       <c r="D5" s="36">
-        <v>-700</v>
+        <f>-700+300</f>
+        <v>-400</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
@@ -3118,15 +3177,24 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="17">
+        <v>44729</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>28</v>
+      </c>
       <c r="C6" s="18"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="F6" s="36">
+        <f>20+30+60+10</f>
+        <v>120</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="17">
+        <v>44736</v>
+      </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="36"/>
@@ -3267,15 +3335,15 @@
       <c r="C24" s="3"/>
       <c r="D24" s="37">
         <f>SUM(D3:D23)</f>
-        <v>-1000</v>
+        <v>-700</v>
       </c>
       <c r="E24" s="20">
         <f>E2+D24</f>
-        <v>320</v>
+        <v>620</v>
       </c>
       <c r="F24" s="40">
         <f>SUM(F5:F23)</f>
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -3292,7 +3360,7 @@
   <dimension ref="A1:XFC24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -3325,7 +3393,26 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="39"/>
+      <c r="B4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" s="24"/>

--- a/CODE.xlsx
+++ b/CODE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D7B6B5-A701-4437-B429-B5BFD8AAE3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB2DA56-5864-48C7-AD54-BC133A29E29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="945" windowWidth="18255" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3390" yWindow="0" windowWidth="15420" windowHeight="14490" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TARGET DAY" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="31">
   <si>
     <t>DATE</t>
   </si>
@@ -95,12 +95,6 @@
     <t>3hrs</t>
   </si>
   <si>
-    <t>5pm</t>
-  </si>
-  <si>
-    <t>2hrs</t>
-  </si>
-  <si>
     <t>20min</t>
   </si>
   <si>
@@ -122,43 +116,13 @@
     <t>2pm</t>
   </si>
   <si>
-    <t>1pm</t>
-  </si>
-  <si>
-    <t>6.30pm</t>
-  </si>
-  <si>
-    <t>8.30pm</t>
-  </si>
-  <si>
-    <t>8hrs</t>
-  </si>
-  <si>
-    <t>9:20am</t>
-  </si>
-  <si>
-    <t>9:50am</t>
-  </si>
-  <si>
-    <t>30mins</t>
-  </si>
-  <si>
-    <t>2:30pm</t>
-  </si>
-  <si>
-    <t>3:30pm</t>
+    <t>4hrs</t>
   </si>
   <si>
     <t>1hr</t>
   </si>
   <si>
-    <t>4:40pm</t>
-  </si>
-  <si>
-    <t>4:50pm</t>
-  </si>
-  <si>
-    <t>10mins</t>
+    <t>afternoon</t>
   </si>
 </sst>
 </file>
@@ -745,7 +709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+    <sheetView topLeftCell="B16" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -781,7 +745,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="27"/>
     </row>
@@ -863,10 +827,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.3">
@@ -887,10 +851,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.3">
@@ -901,10 +865,10 @@
         <v>5</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.3">
@@ -915,10 +879,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.3">
@@ -929,10 +893,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.3">
@@ -943,10 +907,10 @@
         <v>8</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.3">
@@ -957,10 +921,10 @@
         <v>9</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.3">
@@ -1075,10 +1039,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.3">
@@ -1089,10 +1053,10 @@
         <v>5</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.3">
@@ -1103,10 +1067,10 @@
         <v>6</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="21" x14ac:dyDescent="0.3">
@@ -1117,10 +1081,10 @@
         <v>7</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="21" x14ac:dyDescent="0.3">
@@ -1131,10 +1095,10 @@
         <v>8</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="21" x14ac:dyDescent="0.3">
@@ -1145,10 +1109,10 @@
         <v>9</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="21" x14ac:dyDescent="0.3">
@@ -3077,8 +3041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3131,7 +3095,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="35">
         <v>-300</v>
@@ -3144,7 +3108,7 @@
         <v>44715</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="35"/>
@@ -3153,7 +3117,7 @@
       </c>
       <c r="F4" s="35"/>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -3173,7 +3137,7 @@
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -3181,14 +3145,13 @@
         <v>44729</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="36">
-        <f>20+30+60+10</f>
-        <v>120</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -3343,7 +3306,7 @@
       </c>
       <c r="F24" s="40">
         <f>SUM(F5:F23)</f>
-        <v>120</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -3359,8 +3322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:XFC24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -3375,44 +3338,17 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="25">
-        <v>44729</v>
+        <v>44731</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="C3" s="39"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>42</v>
-      </c>
+      <c r="C4" s="39"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" s="24"/>
@@ -3425,37 +3361,23 @@
         <v>19</v>
       </c>
       <c r="C13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" s="41" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">

--- a/CODE.xlsx
+++ b/CODE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB2DA56-5864-48C7-AD54-BC133A29E29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B922579-91A1-43B5-99A8-7A6AB8162583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="0" windowWidth="15420" windowHeight="14490" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3390" yWindow="0" windowWidth="15420" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TARGET DAY" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="31">
   <si>
     <t>DATE</t>
   </si>
@@ -189,7 +189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +226,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -254,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -367,6 +373,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -707,2329 +716,2754 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G221"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="22.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" style="30" customWidth="1"/>
-    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3" hidden="1"/>
+    <col min="1" max="3" width="22.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" style="30" customWidth="1"/>
+    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="21">
         <v>44708</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="27"/>
-    </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>44709</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="E3" s="28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>44710</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="E4" s="28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>44711</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="E5" s="28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>44712</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="E6" s="28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>44713</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="D7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="E7" s="28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>44714</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="D8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="E8" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>44715</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="27"/>
-    </row>
-    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D9" s="22"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>44716</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="16" t="s">
         <v>4</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>26</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="E10" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>44717</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="16" t="s">
         <v>5</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>26</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="E11" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>44718</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="16" t="s">
         <v>6</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>26</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="E12" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>44719</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="16" t="s">
         <v>7</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>26</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="E13" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>44720</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="16" t="s">
         <v>8</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>26</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="E14" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>44721</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="16" t="s">
         <v>9</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>26</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="E15" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
         <v>44722</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="27"/>
-    </row>
-    <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D16" s="22"/>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>44723</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="D17" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="E17" s="28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>44724</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="D18" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="E18" s="28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>44725</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="D19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="E19" s="28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>44726</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="D20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="E20" s="28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>44727</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="D21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="E21" s="28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
         <v>44728</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="D22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="E22" s="28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A23" s="21">
         <v>44729</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="27"/>
-    </row>
-    <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D23" s="22"/>
+      <c r="E23" s="27"/>
+    </row>
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>44730</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+    </row>
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>44731</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>44732</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <v>44733</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15"/>
+      <c r="C27" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
         <v>44734</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <v>44735</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15"/>
+      <c r="C29" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+    </row>
+    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
         <v>44736</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="21">
+        <v>44729</v>
+      </c>
+      <c r="C30" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="27"/>
-    </row>
-    <row r="31" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D30" s="22"/>
+      <c r="E30" s="27"/>
+    </row>
+    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>44737</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="42">
+        <v>44730</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="28"/>
-    </row>
-    <row r="32" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>44738</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="42">
+        <v>44731</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="28"/>
-    </row>
-    <row r="33" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D32" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>44739</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="42">
+        <v>44732</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="28"/>
-    </row>
-    <row r="34" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D33" s="16"/>
+      <c r="E33" s="28"/>
+    </row>
+    <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>44740</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="42">
+        <v>44733</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="28"/>
-    </row>
-    <row r="35" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D34" s="16"/>
+      <c r="E34" s="28"/>
+    </row>
+    <row r="35" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
         <v>44741</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="42">
+        <v>44734</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="28"/>
-    </row>
-    <row r="36" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D35" s="16"/>
+      <c r="E35" s="28"/>
+    </row>
+    <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A36" s="15">
         <v>44742</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="42">
+        <v>44735</v>
+      </c>
+      <c r="C36" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="28"/>
-    </row>
-    <row r="37" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D36" s="16"/>
+      <c r="E36" s="28"/>
+    </row>
+    <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
         <v>44743</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="21">
+        <v>44736</v>
+      </c>
+      <c r="C37" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="28"/>
-    </row>
-    <row r="38" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D37" s="22"/>
+      <c r="E37" s="27"/>
+    </row>
+    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <v>44744</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="42">
+        <v>44737</v>
+      </c>
+      <c r="C38" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="28"/>
-    </row>
-    <row r="39" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D38" s="16"/>
+      <c r="E38" s="28"/>
+    </row>
+    <row r="39" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
         <v>44745</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="42">
+        <v>44738</v>
+      </c>
+      <c r="C39" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="28"/>
-    </row>
-    <row r="40" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D39" s="16"/>
+      <c r="E39" s="28"/>
+    </row>
+    <row r="40" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A40" s="15">
         <v>44746</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="42">
+        <v>44739</v>
+      </c>
+      <c r="C40" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="28"/>
-    </row>
-    <row r="41" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D40" s="16"/>
+      <c r="E40" s="28"/>
+    </row>
+    <row r="41" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A41" s="15">
         <v>44747</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="42">
+        <v>44740</v>
+      </c>
+      <c r="C41" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="28"/>
-    </row>
-    <row r="42" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D41" s="16"/>
+      <c r="E41" s="28"/>
+    </row>
+    <row r="42" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
         <v>44748</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="42">
+        <v>44741</v>
+      </c>
+      <c r="C42" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="28"/>
-    </row>
-    <row r="43" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D42" s="16"/>
+      <c r="E42" s="28"/>
+    </row>
+    <row r="43" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
         <v>44749</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="42">
+        <v>44742</v>
+      </c>
+      <c r="C43" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="28"/>
-    </row>
-    <row r="44" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D43" s="16"/>
+      <c r="E43" s="28"/>
+    </row>
+    <row r="44" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>44750</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="21">
+        <v>44743</v>
+      </c>
+      <c r="C44" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="28"/>
-    </row>
-    <row r="45" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D44" s="22"/>
+      <c r="E44" s="27"/>
+    </row>
+    <row r="45" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
         <v>44751</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="42">
+        <v>44744</v>
+      </c>
+      <c r="C45" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="28"/>
-    </row>
-    <row r="46" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D45" s="16"/>
+      <c r="E45" s="28"/>
+    </row>
+    <row r="46" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="15">
         <v>44752</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="42">
+        <v>44745</v>
+      </c>
+      <c r="C46" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="28"/>
-    </row>
-    <row r="47" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D46" s="16"/>
+      <c r="E46" s="28"/>
+    </row>
+    <row r="47" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A47" s="15">
         <v>44753</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="42">
+        <v>44746</v>
+      </c>
+      <c r="C47" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="28"/>
-    </row>
-    <row r="48" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D47" s="16"/>
+      <c r="E47" s="28"/>
+    </row>
+    <row r="48" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A48" s="15">
         <v>44754</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="42">
+        <v>44747</v>
+      </c>
+      <c r="C48" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="28"/>
-    </row>
-    <row r="49" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D48" s="16"/>
+      <c r="E48" s="28"/>
+    </row>
+    <row r="49" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A49" s="15">
         <v>44755</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="42">
+        <v>44748</v>
+      </c>
+      <c r="C49" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="28"/>
-    </row>
-    <row r="50" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D49" s="16"/>
+      <c r="E49" s="28"/>
+    </row>
+    <row r="50" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A50" s="15">
         <v>44756</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="42">
+        <v>44749</v>
+      </c>
+      <c r="C50" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="28"/>
-    </row>
-    <row r="51" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D50" s="16"/>
+      <c r="E50" s="28"/>
+    </row>
+    <row r="51" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A51" s="15">
         <v>44757</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="42">
+        <v>44750</v>
+      </c>
+      <c r="C51" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="28"/>
-    </row>
-    <row r="52" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D51" s="16"/>
+      <c r="E51" s="28"/>
+    </row>
+    <row r="52" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A52" s="15">
         <v>44758</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="42">
+        <v>44751</v>
+      </c>
+      <c r="C52" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="28"/>
-    </row>
-    <row r="53" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D52" s="16"/>
+      <c r="E52" s="28"/>
+    </row>
+    <row r="53" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A53" s="15">
         <v>44759</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="42">
+        <v>44752</v>
+      </c>
+      <c r="C53" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="28"/>
-    </row>
-    <row r="54" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D53" s="16"/>
+      <c r="E53" s="28"/>
+    </row>
+    <row r="54" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="15">
         <v>44760</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="42">
+        <v>44753</v>
+      </c>
+      <c r="C54" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="28"/>
-    </row>
-    <row r="55" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D54" s="16"/>
+      <c r="E54" s="28"/>
+    </row>
+    <row r="55" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A55" s="15">
         <v>44761</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="42">
+        <v>44754</v>
+      </c>
+      <c r="C55" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="28"/>
-    </row>
-    <row r="56" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D55" s="16"/>
+      <c r="E55" s="28"/>
+    </row>
+    <row r="56" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A56" s="15">
         <v>44762</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="42">
+        <v>44755</v>
+      </c>
+      <c r="C56" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="16"/>
-      <c r="D56" s="28"/>
-    </row>
-    <row r="57" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D56" s="16"/>
+      <c r="E56" s="28"/>
+    </row>
+    <row r="57" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A57" s="15">
         <v>44763</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="42">
+        <v>44756</v>
+      </c>
+      <c r="C57" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="28"/>
-    </row>
-    <row r="58" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D57" s="16"/>
+      <c r="E57" s="28"/>
+    </row>
+    <row r="58" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A58" s="15">
         <v>44764</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="42">
+        <v>44757</v>
+      </c>
+      <c r="C58" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="28"/>
-    </row>
-    <row r="59" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D58" s="16"/>
+      <c r="E58" s="28"/>
+    </row>
+    <row r="59" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A59" s="15">
         <v>44765</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="42">
+        <v>44758</v>
+      </c>
+      <c r="C59" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="28"/>
-    </row>
-    <row r="60" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D59" s="16"/>
+      <c r="E59" s="28"/>
+    </row>
+    <row r="60" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="15">
         <v>44766</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="42">
+        <v>44759</v>
+      </c>
+      <c r="C60" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="16"/>
-      <c r="D60" s="28"/>
-    </row>
-    <row r="61" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D60" s="16"/>
+      <c r="E60" s="28"/>
+    </row>
+    <row r="61" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A61" s="15">
         <v>44767</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="42">
+        <v>44760</v>
+      </c>
+      <c r="C61" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="28"/>
-    </row>
-    <row r="62" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D61" s="16"/>
+      <c r="E61" s="28"/>
+    </row>
+    <row r="62" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A62" s="15">
         <v>44768</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="42">
+        <v>44761</v>
+      </c>
+      <c r="C62" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="16"/>
-      <c r="D62" s="28"/>
-    </row>
-    <row r="63" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D62" s="16"/>
+      <c r="E62" s="28"/>
+    </row>
+    <row r="63" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A63" s="15">
         <v>44769</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="42">
+        <v>44762</v>
+      </c>
+      <c r="C63" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="28"/>
-    </row>
-    <row r="64" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D63" s="16"/>
+      <c r="E63" s="28"/>
+    </row>
+    <row r="64" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="15">
         <v>44770</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="42">
+        <v>44763</v>
+      </c>
+      <c r="C64" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="16"/>
-      <c r="D64" s="28"/>
-    </row>
-    <row r="65" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D64" s="16"/>
+      <c r="E64" s="28"/>
+    </row>
+    <row r="65" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="15">
         <v>44771</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="42">
+        <v>44764</v>
+      </c>
+      <c r="C65" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="28"/>
-    </row>
-    <row r="66" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D65" s="16"/>
+      <c r="E65" s="28"/>
+    </row>
+    <row r="66" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A66" s="15">
         <v>44772</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="42">
+        <v>44765</v>
+      </c>
+      <c r="C66" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="16"/>
-      <c r="D66" s="28"/>
-    </row>
-    <row r="67" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D66" s="16"/>
+      <c r="E66" s="28"/>
+    </row>
+    <row r="67" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A67" s="15">
         <v>44773</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="42">
+        <v>44766</v>
+      </c>
+      <c r="C67" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="28"/>
-    </row>
-    <row r="68" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D67" s="16"/>
+      <c r="E67" s="28"/>
+    </row>
+    <row r="68" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A68" s="15">
         <v>44774</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="42">
+        <v>44767</v>
+      </c>
+      <c r="C68" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="28"/>
-    </row>
-    <row r="69" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D68" s="16"/>
+      <c r="E68" s="28"/>
+    </row>
+    <row r="69" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A69" s="15">
         <v>44775</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="42">
+        <v>44768</v>
+      </c>
+      <c r="C69" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="28"/>
-    </row>
-    <row r="70" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D69" s="16"/>
+      <c r="E69" s="28"/>
+    </row>
+    <row r="70" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A70" s="15">
         <v>44776</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="42">
+        <v>44769</v>
+      </c>
+      <c r="C70" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="16"/>
-      <c r="D70" s="28"/>
-    </row>
-    <row r="71" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D70" s="16"/>
+      <c r="E70" s="28"/>
+    </row>
+    <row r="71" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A71" s="15">
         <v>44777</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="42">
+        <v>44770</v>
+      </c>
+      <c r="C71" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="28"/>
-    </row>
-    <row r="72" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D71" s="16"/>
+      <c r="E71" s="28"/>
+    </row>
+    <row r="72" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A72" s="15">
         <v>44778</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="42">
+        <v>44771</v>
+      </c>
+      <c r="C72" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="28"/>
-    </row>
-    <row r="73" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D72" s="16"/>
+      <c r="E72" s="28"/>
+    </row>
+    <row r="73" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A73" s="15">
         <v>44779</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="42">
+        <v>44772</v>
+      </c>
+      <c r="C73" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C73" s="16"/>
-      <c r="D73" s="28"/>
-    </row>
-    <row r="74" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D73" s="16"/>
+      <c r="E73" s="28"/>
+    </row>
+    <row r="74" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A74" s="15">
         <v>44780</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="42">
+        <v>44773</v>
+      </c>
+      <c r="C74" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="16"/>
-      <c r="D74" s="28"/>
-    </row>
-    <row r="75" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D74" s="16"/>
+      <c r="E74" s="28"/>
+    </row>
+    <row r="75" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A75" s="15">
         <v>44781</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="42">
+        <v>44774</v>
+      </c>
+      <c r="C75" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="16"/>
-      <c r="D75" s="28"/>
-    </row>
-    <row r="76" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D75" s="16"/>
+      <c r="E75" s="28"/>
+    </row>
+    <row r="76" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A76" s="15">
         <v>44782</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="42">
+        <v>44775</v>
+      </c>
+      <c r="C76" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="16"/>
-      <c r="D76" s="28"/>
-    </row>
-    <row r="77" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D76" s="16"/>
+      <c r="E76" s="28"/>
+    </row>
+    <row r="77" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A77" s="15">
         <v>44783</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="42">
+        <v>44776</v>
+      </c>
+      <c r="C77" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="16"/>
-      <c r="D77" s="28"/>
-    </row>
-    <row r="78" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D77" s="16"/>
+      <c r="E77" s="28"/>
+    </row>
+    <row r="78" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A78" s="15">
         <v>44784</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="42">
+        <v>44777</v>
+      </c>
+      <c r="C78" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C78" s="16"/>
-      <c r="D78" s="28"/>
-    </row>
-    <row r="79" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D78" s="16"/>
+      <c r="E78" s="28"/>
+    </row>
+    <row r="79" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A79" s="15">
         <v>44785</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="42">
+        <v>44778</v>
+      </c>
+      <c r="C79" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="16"/>
-      <c r="D79" s="28"/>
-    </row>
-    <row r="80" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D79" s="16"/>
+      <c r="E79" s="28"/>
+    </row>
+    <row r="80" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A80" s="15">
         <v>44786</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="42">
+        <v>44779</v>
+      </c>
+      <c r="C80" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C80" s="16"/>
-      <c r="D80" s="28"/>
-    </row>
-    <row r="81" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D80" s="16"/>
+      <c r="E80" s="28"/>
+    </row>
+    <row r="81" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A81" s="15">
         <v>44787</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="42">
+        <v>44780</v>
+      </c>
+      <c r="C81" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C81" s="16"/>
-      <c r="D81" s="28"/>
-    </row>
-    <row r="82" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D81" s="16"/>
+      <c r="E81" s="28"/>
+    </row>
+    <row r="82" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A82" s="15">
         <v>44788</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="42">
+        <v>44781</v>
+      </c>
+      <c r="C82" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C82" s="16"/>
-      <c r="D82" s="28"/>
-    </row>
-    <row r="83" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D82" s="16"/>
+      <c r="E82" s="28"/>
+    </row>
+    <row r="83" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A83" s="15">
         <v>44789</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="42">
+        <v>44782</v>
+      </c>
+      <c r="C83" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="16"/>
-      <c r="D83" s="28"/>
-    </row>
-    <row r="84" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D83" s="16"/>
+      <c r="E83" s="28"/>
+    </row>
+    <row r="84" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A84" s="15">
         <v>44790</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="42">
+        <v>44783</v>
+      </c>
+      <c r="C84" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="16"/>
-      <c r="D84" s="28"/>
-    </row>
-    <row r="85" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D84" s="16"/>
+      <c r="E84" s="28"/>
+    </row>
+    <row r="85" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A85" s="15">
         <v>44791</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="42">
+        <v>44784</v>
+      </c>
+      <c r="C85" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C85" s="16"/>
-      <c r="D85" s="28"/>
-    </row>
-    <row r="86" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D85" s="16"/>
+      <c r="E85" s="28"/>
+    </row>
+    <row r="86" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A86" s="15">
         <v>44792</v>
       </c>
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="42">
+        <v>44785</v>
+      </c>
+      <c r="C86" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C86" s="16"/>
-      <c r="D86" s="28"/>
-    </row>
-    <row r="87" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D86" s="16"/>
+      <c r="E86" s="28"/>
+    </row>
+    <row r="87" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A87" s="15">
         <v>44793</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="42">
+        <v>44786</v>
+      </c>
+      <c r="C87" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C87" s="16"/>
-      <c r="D87" s="28"/>
-    </row>
-    <row r="88" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D87" s="16"/>
+      <c r="E87" s="28"/>
+    </row>
+    <row r="88" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A88" s="15">
         <v>44794</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="42">
+        <v>44787</v>
+      </c>
+      <c r="C88" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C88" s="16"/>
-      <c r="D88" s="28"/>
-    </row>
-    <row r="89" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D88" s="16"/>
+      <c r="E88" s="28"/>
+    </row>
+    <row r="89" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A89" s="15">
         <v>44795</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="42">
+        <v>44788</v>
+      </c>
+      <c r="C89" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="16"/>
-      <c r="D89" s="28"/>
-    </row>
-    <row r="90" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D89" s="16"/>
+      <c r="E89" s="28"/>
+    </row>
+    <row r="90" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A90" s="15">
         <v>44796</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="42">
+        <v>44789</v>
+      </c>
+      <c r="C90" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="16"/>
-      <c r="D90" s="28"/>
-    </row>
-    <row r="91" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D90" s="16"/>
+      <c r="E90" s="28"/>
+    </row>
+    <row r="91" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A91" s="15">
         <v>44797</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="42">
+        <v>44790</v>
+      </c>
+      <c r="C91" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C91" s="16"/>
-      <c r="D91" s="28"/>
-    </row>
-    <row r="92" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D91" s="16"/>
+      <c r="E91" s="28"/>
+    </row>
+    <row r="92" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A92" s="15">
         <v>44798</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="42">
+        <v>44791</v>
+      </c>
+      <c r="C92" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C92" s="16"/>
-      <c r="D92" s="28"/>
-    </row>
-    <row r="93" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D92" s="16"/>
+      <c r="E92" s="28"/>
+    </row>
+    <row r="93" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A93" s="15">
         <v>44799</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="42">
+        <v>44792</v>
+      </c>
+      <c r="C93" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C93" s="16"/>
-      <c r="D93" s="28"/>
-    </row>
-    <row r="94" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D93" s="16"/>
+      <c r="E93" s="28"/>
+    </row>
+    <row r="94" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A94" s="15">
         <v>44800</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="42">
+        <v>44793</v>
+      </c>
+      <c r="C94" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C94" s="16"/>
-      <c r="D94" s="28"/>
-    </row>
-    <row r="95" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D94" s="16"/>
+      <c r="E94" s="28"/>
+    </row>
+    <row r="95" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A95" s="15">
         <v>44801</v>
       </c>
-      <c r="B95" s="16" t="s">
+      <c r="B95" s="42">
+        <v>44794</v>
+      </c>
+      <c r="C95" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C95" s="16"/>
-      <c r="D95" s="28"/>
-    </row>
-    <row r="96" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D95" s="16"/>
+      <c r="E95" s="28"/>
+    </row>
+    <row r="96" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A96" s="15">
         <v>44802</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="42">
+        <v>44795</v>
+      </c>
+      <c r="C96" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="16"/>
-      <c r="D96" s="28"/>
-    </row>
-    <row r="97" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D96" s="16"/>
+      <c r="E96" s="28"/>
+    </row>
+    <row r="97" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A97" s="15">
         <v>44803</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="42">
+        <v>44796</v>
+      </c>
+      <c r="C97" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="16"/>
-      <c r="D97" s="28"/>
-    </row>
-    <row r="98" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D97" s="16"/>
+      <c r="E97" s="28"/>
+    </row>
+    <row r="98" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A98" s="15">
         <v>44804</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="42">
+        <v>44797</v>
+      </c>
+      <c r="C98" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C98" s="16"/>
-      <c r="D98" s="28"/>
-    </row>
-    <row r="99" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D98" s="16"/>
+      <c r="E98" s="28"/>
+    </row>
+    <row r="99" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A99" s="15">
         <v>44805</v>
       </c>
-      <c r="B99" s="16" t="s">
+      <c r="B99" s="42">
+        <v>44798</v>
+      </c>
+      <c r="C99" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C99" s="16"/>
-      <c r="D99" s="28"/>
-    </row>
-    <row r="100" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D99" s="16"/>
+      <c r="E99" s="28"/>
+    </row>
+    <row r="100" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A100" s="15">
         <v>44806</v>
       </c>
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="42">
+        <v>44799</v>
+      </c>
+      <c r="C100" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C100" s="16"/>
-      <c r="D100" s="28"/>
-    </row>
-    <row r="101" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D100" s="16"/>
+      <c r="E100" s="28"/>
+    </row>
+    <row r="101" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A101" s="15">
         <v>44807</v>
       </c>
-      <c r="B101" s="16" t="s">
+      <c r="B101" s="42">
+        <v>44800</v>
+      </c>
+      <c r="C101" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C101" s="16"/>
-      <c r="D101" s="28"/>
-    </row>
-    <row r="102" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D101" s="16"/>
+      <c r="E101" s="28"/>
+    </row>
+    <row r="102" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A102" s="15">
         <v>44808</v>
       </c>
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="42">
+        <v>44801</v>
+      </c>
+      <c r="C102" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C102" s="16"/>
-      <c r="D102" s="28"/>
-    </row>
-    <row r="103" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D102" s="16"/>
+      <c r="E102" s="28"/>
+    </row>
+    <row r="103" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A103" s="15">
         <v>44809</v>
       </c>
-      <c r="B103" s="16" t="s">
+      <c r="B103" s="42">
+        <v>44802</v>
+      </c>
+      <c r="C103" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="16"/>
-      <c r="D103" s="28"/>
-    </row>
-    <row r="104" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D103" s="16"/>
+      <c r="E103" s="28"/>
+    </row>
+    <row r="104" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A104" s="15">
         <v>44810</v>
       </c>
-      <c r="B104" s="16" t="s">
+      <c r="B104" s="42">
+        <v>44803</v>
+      </c>
+      <c r="C104" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="16"/>
-      <c r="D104" s="28"/>
-    </row>
-    <row r="105" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D104" s="16"/>
+      <c r="E104" s="28"/>
+    </row>
+    <row r="105" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A105" s="15">
         <v>44811</v>
       </c>
-      <c r="B105" s="16" t="s">
+      <c r="B105" s="42">
+        <v>44804</v>
+      </c>
+      <c r="C105" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C105" s="16"/>
-      <c r="D105" s="28"/>
-    </row>
-    <row r="106" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D105" s="16"/>
+      <c r="E105" s="28"/>
+    </row>
+    <row r="106" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A106" s="15">
         <v>44812</v>
       </c>
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="42">
+        <v>44805</v>
+      </c>
+      <c r="C106" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C106" s="16"/>
-      <c r="D106" s="28"/>
-    </row>
-    <row r="107" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D106" s="16"/>
+      <c r="E106" s="28"/>
+    </row>
+    <row r="107" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A107" s="15">
         <v>44813</v>
       </c>
-      <c r="B107" s="16" t="s">
+      <c r="B107" s="42">
+        <v>44806</v>
+      </c>
+      <c r="C107" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C107" s="16"/>
-      <c r="D107" s="28"/>
-    </row>
-    <row r="108" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D107" s="16"/>
+      <c r="E107" s="28"/>
+    </row>
+    <row r="108" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A108" s="15">
         <v>44814</v>
       </c>
-      <c r="B108" s="16" t="s">
+      <c r="B108" s="42">
+        <v>44807</v>
+      </c>
+      <c r="C108" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C108" s="16"/>
-      <c r="D108" s="28"/>
-    </row>
-    <row r="109" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D108" s="16"/>
+      <c r="E108" s="28"/>
+    </row>
+    <row r="109" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A109" s="15">
         <v>44815</v>
       </c>
-      <c r="B109" s="16" t="s">
+      <c r="B109" s="42">
+        <v>44808</v>
+      </c>
+      <c r="C109" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C109" s="16"/>
-      <c r="D109" s="28"/>
-    </row>
-    <row r="110" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D109" s="16"/>
+      <c r="E109" s="28"/>
+    </row>
+    <row r="110" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A110" s="15">
         <v>44816</v>
       </c>
-      <c r="B110" s="16" t="s">
+      <c r="B110" s="42">
+        <v>44809</v>
+      </c>
+      <c r="C110" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C110" s="16"/>
-      <c r="D110" s="28"/>
-    </row>
-    <row r="111" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D110" s="16"/>
+      <c r="E110" s="28"/>
+    </row>
+    <row r="111" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A111" s="15">
         <v>44817</v>
       </c>
-      <c r="B111" s="16" t="s">
+      <c r="B111" s="42">
+        <v>44810</v>
+      </c>
+      <c r="C111" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C111" s="16"/>
-      <c r="D111" s="28"/>
-    </row>
-    <row r="112" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D111" s="16"/>
+      <c r="E111" s="28"/>
+    </row>
+    <row r="112" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A112" s="15">
         <v>44818</v>
       </c>
-      <c r="B112" s="16" t="s">
+      <c r="B112" s="42">
+        <v>44811</v>
+      </c>
+      <c r="C112" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C112" s="16"/>
-      <c r="D112" s="28"/>
-    </row>
-    <row r="113" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D112" s="16"/>
+      <c r="E112" s="28"/>
+    </row>
+    <row r="113" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A113" s="15">
         <v>44819</v>
       </c>
-      <c r="B113" s="16" t="s">
+      <c r="B113" s="42">
+        <v>44812</v>
+      </c>
+      <c r="C113" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C113" s="16"/>
-      <c r="D113" s="28"/>
-    </row>
-    <row r="114" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D113" s="16"/>
+      <c r="E113" s="28"/>
+    </row>
+    <row r="114" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A114" s="15">
         <v>44820</v>
       </c>
-      <c r="B114" s="16" t="s">
+      <c r="B114" s="42">
+        <v>44813</v>
+      </c>
+      <c r="C114" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C114" s="16"/>
-      <c r="D114" s="28"/>
-    </row>
-    <row r="115" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D114" s="16"/>
+      <c r="E114" s="28"/>
+    </row>
+    <row r="115" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A115" s="15">
         <v>44821</v>
       </c>
-      <c r="B115" s="16" t="s">
+      <c r="B115" s="42">
+        <v>44814</v>
+      </c>
+      <c r="C115" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C115" s="16"/>
-      <c r="D115" s="28"/>
-    </row>
-    <row r="116" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D115" s="16"/>
+      <c r="E115" s="28"/>
+    </row>
+    <row r="116" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A116" s="15">
         <v>44822</v>
       </c>
-      <c r="B116" s="16" t="s">
+      <c r="B116" s="42">
+        <v>44815</v>
+      </c>
+      <c r="C116" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C116" s="16"/>
-      <c r="D116" s="28"/>
-    </row>
-    <row r="117" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D116" s="16"/>
+      <c r="E116" s="28"/>
+    </row>
+    <row r="117" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A117" s="15">
         <v>44823</v>
       </c>
-      <c r="B117" s="16" t="s">
+      <c r="B117" s="42">
+        <v>44816</v>
+      </c>
+      <c r="C117" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C117" s="16"/>
-      <c r="D117" s="28"/>
-    </row>
-    <row r="118" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D117" s="16"/>
+      <c r="E117" s="28"/>
+    </row>
+    <row r="118" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A118" s="15">
         <v>44824</v>
       </c>
-      <c r="B118" s="16" t="s">
+      <c r="B118" s="42">
+        <v>44817</v>
+      </c>
+      <c r="C118" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C118" s="16"/>
-      <c r="D118" s="28"/>
-    </row>
-    <row r="119" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D118" s="16"/>
+      <c r="E118" s="28"/>
+    </row>
+    <row r="119" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A119" s="15">
         <v>44825</v>
       </c>
-      <c r="B119" s="16" t="s">
+      <c r="B119" s="42">
+        <v>44818</v>
+      </c>
+      <c r="C119" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C119" s="16"/>
-      <c r="D119" s="28"/>
-    </row>
-    <row r="120" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D119" s="16"/>
+      <c r="E119" s="28"/>
+    </row>
+    <row r="120" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A120" s="15">
         <v>44826</v>
       </c>
-      <c r="B120" s="16" t="s">
+      <c r="B120" s="42">
+        <v>44819</v>
+      </c>
+      <c r="C120" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C120" s="16"/>
-      <c r="D120" s="28"/>
-    </row>
-    <row r="121" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D120" s="16"/>
+      <c r="E120" s="28"/>
+    </row>
+    <row r="121" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A121" s="15">
         <v>44827</v>
       </c>
-      <c r="B121" s="16" t="s">
+      <c r="B121" s="42">
+        <v>44820</v>
+      </c>
+      <c r="C121" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C121" s="16"/>
-      <c r="D121" s="28"/>
-    </row>
-    <row r="122" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D121" s="16"/>
+      <c r="E121" s="28"/>
+    </row>
+    <row r="122" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A122" s="15">
         <v>44828</v>
       </c>
-      <c r="B122" s="16" t="s">
+      <c r="B122" s="42">
+        <v>44821</v>
+      </c>
+      <c r="C122" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C122" s="16"/>
-      <c r="D122" s="28"/>
-    </row>
-    <row r="123" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D122" s="16"/>
+      <c r="E122" s="28"/>
+    </row>
+    <row r="123" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A123" s="15">
         <v>44829</v>
       </c>
-      <c r="B123" s="16" t="s">
+      <c r="B123" s="42">
+        <v>44822</v>
+      </c>
+      <c r="C123" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C123" s="16"/>
-      <c r="D123" s="28"/>
-    </row>
-    <row r="124" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D123" s="16"/>
+      <c r="E123" s="28"/>
+    </row>
+    <row r="124" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A124" s="15">
         <v>44830</v>
       </c>
-      <c r="B124" s="16" t="s">
+      <c r="B124" s="42">
+        <v>44823</v>
+      </c>
+      <c r="C124" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C124" s="16"/>
-      <c r="D124" s="28"/>
-    </row>
-    <row r="125" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D124" s="16"/>
+      <c r="E124" s="28"/>
+    </row>
+    <row r="125" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A125" s="15">
         <v>44831</v>
       </c>
-      <c r="B125" s="16" t="s">
+      <c r="B125" s="42">
+        <v>44824</v>
+      </c>
+      <c r="C125" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C125" s="16"/>
-      <c r="D125" s="28"/>
-    </row>
-    <row r="126" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D125" s="16"/>
+      <c r="E125" s="28"/>
+    </row>
+    <row r="126" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A126" s="15">
         <v>44832</v>
       </c>
-      <c r="B126" s="16" t="s">
+      <c r="B126" s="42">
+        <v>44825</v>
+      </c>
+      <c r="C126" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C126" s="16"/>
-      <c r="D126" s="28"/>
-    </row>
-    <row r="127" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D126" s="16"/>
+      <c r="E126" s="28"/>
+    </row>
+    <row r="127" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A127" s="15">
         <v>44833</v>
       </c>
-      <c r="B127" s="16" t="s">
+      <c r="B127" s="42">
+        <v>44826</v>
+      </c>
+      <c r="C127" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C127" s="16"/>
-      <c r="D127" s="28"/>
-    </row>
-    <row r="128" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D127" s="16"/>
+      <c r="E127" s="28"/>
+    </row>
+    <row r="128" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A128" s="15">
         <v>44834</v>
       </c>
-      <c r="B128" s="16" t="s">
+      <c r="B128" s="42">
+        <v>44827</v>
+      </c>
+      <c r="C128" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C128" s="16"/>
-      <c r="D128" s="28"/>
-    </row>
-    <row r="129" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D128" s="16"/>
+      <c r="E128" s="28"/>
+    </row>
+    <row r="129" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A129" s="15">
         <v>44835</v>
       </c>
-      <c r="B129" s="16" t="s">
+      <c r="B129" s="42">
+        <v>44828</v>
+      </c>
+      <c r="C129" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C129" s="16"/>
-      <c r="D129" s="28"/>
-    </row>
-    <row r="130" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D129" s="16"/>
+      <c r="E129" s="28"/>
+    </row>
+    <row r="130" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A130" s="15">
         <v>44836</v>
       </c>
-      <c r="B130" s="16" t="s">
+      <c r="B130" s="42">
+        <v>44829</v>
+      </c>
+      <c r="C130" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C130" s="16"/>
-      <c r="D130" s="28"/>
-    </row>
-    <row r="131" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D130" s="16"/>
+      <c r="E130" s="28"/>
+    </row>
+    <row r="131" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A131" s="15">
         <v>44837</v>
       </c>
-      <c r="B131" s="16" t="s">
+      <c r="B131" s="42">
+        <v>44830</v>
+      </c>
+      <c r="C131" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C131" s="16"/>
-      <c r="D131" s="28"/>
-    </row>
-    <row r="132" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D131" s="16"/>
+      <c r="E131" s="28"/>
+    </row>
+    <row r="132" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A132" s="15">
         <v>44838</v>
       </c>
-      <c r="B132" s="16" t="s">
+      <c r="B132" s="42">
+        <v>44831</v>
+      </c>
+      <c r="C132" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C132" s="16"/>
-      <c r="D132" s="28"/>
-    </row>
-    <row r="133" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D132" s="16"/>
+      <c r="E132" s="28"/>
+    </row>
+    <row r="133" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A133" s="15">
         <v>44839</v>
       </c>
-      <c r="B133" s="16" t="s">
+      <c r="B133" s="42">
+        <v>44832</v>
+      </c>
+      <c r="C133" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C133" s="16"/>
-      <c r="D133" s="28"/>
-    </row>
-    <row r="134" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D133" s="16"/>
+      <c r="E133" s="28"/>
+    </row>
+    <row r="134" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A134" s="15">
         <v>44840</v>
       </c>
-      <c r="B134" s="16" t="s">
+      <c r="B134" s="42">
+        <v>44833</v>
+      </c>
+      <c r="C134" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C134" s="16"/>
-      <c r="D134" s="28"/>
-    </row>
-    <row r="135" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D134" s="16"/>
+      <c r="E134" s="28"/>
+    </row>
+    <row r="135" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A135" s="15">
         <v>44841</v>
       </c>
-      <c r="B135" s="16" t="s">
+      <c r="B135" s="42">
+        <v>44834</v>
+      </c>
+      <c r="C135" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C135" s="16"/>
-      <c r="D135" s="28"/>
-    </row>
-    <row r="136" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D135" s="16"/>
+      <c r="E135" s="28"/>
+    </row>
+    <row r="136" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A136" s="15">
         <v>44842</v>
       </c>
-      <c r="B136" s="16" t="s">
+      <c r="B136" s="42">
+        <v>44835</v>
+      </c>
+      <c r="C136" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C136" s="16"/>
-      <c r="D136" s="28"/>
-    </row>
-    <row r="137" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D136" s="16"/>
+      <c r="E136" s="28"/>
+    </row>
+    <row r="137" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A137" s="15">
         <v>44843</v>
       </c>
-      <c r="B137" s="16" t="s">
+      <c r="B137" s="42">
+        <v>44836</v>
+      </c>
+      <c r="C137" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C137" s="16"/>
-      <c r="D137" s="28"/>
-    </row>
-    <row r="138" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D137" s="16"/>
+      <c r="E137" s="28"/>
+    </row>
+    <row r="138" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A138" s="15">
         <v>44844</v>
       </c>
-      <c r="B138" s="16" t="s">
+      <c r="B138" s="42">
+        <v>44837</v>
+      </c>
+      <c r="C138" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C138" s="16"/>
-      <c r="D138" s="28"/>
-    </row>
-    <row r="139" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D138" s="16"/>
+      <c r="E138" s="28"/>
+    </row>
+    <row r="139" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A139" s="15">
         <v>44845</v>
       </c>
-      <c r="B139" s="16" t="s">
+      <c r="B139" s="42">
+        <v>44838</v>
+      </c>
+      <c r="C139" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C139" s="16"/>
-      <c r="D139" s="28"/>
-    </row>
-    <row r="140" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D139" s="16"/>
+      <c r="E139" s="28"/>
+    </row>
+    <row r="140" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A140" s="15">
         <v>44846</v>
       </c>
-      <c r="B140" s="16" t="s">
+      <c r="B140" s="15"/>
+      <c r="C140" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C140" s="16"/>
-      <c r="D140" s="28"/>
-    </row>
-    <row r="141" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D140" s="16"/>
+      <c r="E140" s="28"/>
+    </row>
+    <row r="141" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A141" s="15">
         <v>44847</v>
       </c>
-      <c r="B141" s="16" t="s">
+      <c r="B141" s="15"/>
+      <c r="C141" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C141" s="16"/>
-      <c r="D141" s="28"/>
-    </row>
-    <row r="142" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D141" s="16"/>
+      <c r="E141" s="28"/>
+    </row>
+    <row r="142" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A142" s="15">
         <v>44848</v>
       </c>
-      <c r="B142" s="16" t="s">
+      <c r="B142" s="15"/>
+      <c r="C142" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C142" s="16"/>
-      <c r="D142" s="28"/>
-    </row>
-    <row r="143" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D142" s="16"/>
+      <c r="E142" s="28"/>
+    </row>
+    <row r="143" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A143" s="15">
         <v>44849</v>
       </c>
-      <c r="B143" s="16" t="s">
+      <c r="B143" s="15"/>
+      <c r="C143" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C143" s="16"/>
-      <c r="D143" s="28"/>
-    </row>
-    <row r="144" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D143" s="16"/>
+      <c r="E143" s="28"/>
+    </row>
+    <row r="144" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A144" s="15">
         <v>44850</v>
       </c>
-      <c r="B144" s="16" t="s">
+      <c r="B144" s="15"/>
+      <c r="C144" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C144" s="16"/>
-      <c r="D144" s="28"/>
-    </row>
-    <row r="145" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D144" s="16"/>
+      <c r="E144" s="28"/>
+    </row>
+    <row r="145" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A145" s="15">
         <v>44851</v>
       </c>
-      <c r="B145" s="16" t="s">
+      <c r="B145" s="15"/>
+      <c r="C145" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C145" s="16"/>
-      <c r="D145" s="28"/>
-    </row>
-    <row r="146" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D145" s="16"/>
+      <c r="E145" s="28"/>
+    </row>
+    <row r="146" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A146" s="15">
         <v>44852</v>
       </c>
-      <c r="B146" s="16" t="s">
+      <c r="B146" s="15"/>
+      <c r="C146" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C146" s="16"/>
-      <c r="D146" s="28"/>
-    </row>
-    <row r="147" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D146" s="16"/>
+      <c r="E146" s="28"/>
+    </row>
+    <row r="147" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A147" s="15">
         <v>44853</v>
       </c>
-      <c r="B147" s="16" t="s">
+      <c r="B147" s="15"/>
+      <c r="C147" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C147" s="16"/>
-      <c r="D147" s="28"/>
-    </row>
-    <row r="148" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D147" s="16"/>
+      <c r="E147" s="28"/>
+    </row>
+    <row r="148" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A148" s="15">
         <v>44854</v>
       </c>
-      <c r="B148" s="16" t="s">
+      <c r="B148" s="15"/>
+      <c r="C148" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C148" s="16"/>
-      <c r="D148" s="28"/>
-    </row>
-    <row r="149" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D148" s="16"/>
+      <c r="E148" s="28"/>
+    </row>
+    <row r="149" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A149" s="15">
         <v>44855</v>
       </c>
-      <c r="B149" s="16" t="s">
+      <c r="B149" s="15"/>
+      <c r="C149" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C149" s="16"/>
-      <c r="D149" s="28"/>
-    </row>
-    <row r="150" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D149" s="16"/>
+      <c r="E149" s="28"/>
+    </row>
+    <row r="150" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A150" s="15">
         <v>44856</v>
       </c>
-      <c r="B150" s="16" t="s">
+      <c r="B150" s="15"/>
+      <c r="C150" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C150" s="16"/>
-      <c r="D150" s="28"/>
-    </row>
-    <row r="151" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D150" s="16"/>
+      <c r="E150" s="28"/>
+    </row>
+    <row r="151" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A151" s="15">
         <v>44857</v>
       </c>
-      <c r="B151" s="16" t="s">
+      <c r="B151" s="15"/>
+      <c r="C151" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C151" s="16"/>
-      <c r="D151" s="28"/>
-    </row>
-    <row r="152" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D151" s="16"/>
+      <c r="E151" s="28"/>
+    </row>
+    <row r="152" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A152" s="15">
         <v>44858</v>
       </c>
-      <c r="B152" s="16" t="s">
+      <c r="B152" s="15"/>
+      <c r="C152" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C152" s="16"/>
-      <c r="D152" s="28"/>
-    </row>
-    <row r="153" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D152" s="16"/>
+      <c r="E152" s="28"/>
+    </row>
+    <row r="153" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A153" s="15">
         <v>44859</v>
       </c>
-      <c r="B153" s="16" t="s">
+      <c r="B153" s="15"/>
+      <c r="C153" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C153" s="16"/>
-      <c r="D153" s="28"/>
-    </row>
-    <row r="154" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D153" s="16"/>
+      <c r="E153" s="28"/>
+    </row>
+    <row r="154" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A154" s="15">
         <v>44860</v>
       </c>
-      <c r="B154" s="16" t="s">
+      <c r="B154" s="15"/>
+      <c r="C154" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C154" s="16"/>
-      <c r="D154" s="28"/>
-    </row>
-    <row r="155" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D154" s="16"/>
+      <c r="E154" s="28"/>
+    </row>
+    <row r="155" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A155" s="15">
         <v>44861</v>
       </c>
-      <c r="B155" s="16" t="s">
+      <c r="B155" s="15"/>
+      <c r="C155" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C155" s="16"/>
-      <c r="D155" s="28"/>
-    </row>
-    <row r="156" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D155" s="16"/>
+      <c r="E155" s="28"/>
+    </row>
+    <row r="156" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A156" s="15">
         <v>44862</v>
       </c>
-      <c r="B156" s="16" t="s">
+      <c r="B156" s="15"/>
+      <c r="C156" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C156" s="16"/>
-      <c r="D156" s="28"/>
-    </row>
-    <row r="157" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D156" s="16"/>
+      <c r="E156" s="28"/>
+    </row>
+    <row r="157" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A157" s="15">
         <v>44863</v>
       </c>
-      <c r="B157" s="16" t="s">
+      <c r="B157" s="15"/>
+      <c r="C157" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C157" s="16"/>
-      <c r="D157" s="28"/>
-    </row>
-    <row r="158" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D157" s="16"/>
+      <c r="E157" s="28"/>
+    </row>
+    <row r="158" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A158" s="15">
         <v>44864</v>
       </c>
-      <c r="B158" s="16" t="s">
+      <c r="B158" s="15"/>
+      <c r="C158" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C158" s="16"/>
-      <c r="D158" s="28"/>
-    </row>
-    <row r="159" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D158" s="16"/>
+      <c r="E158" s="28"/>
+    </row>
+    <row r="159" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A159" s="15">
         <v>44865</v>
       </c>
-      <c r="B159" s="16" t="s">
+      <c r="B159" s="15"/>
+      <c r="C159" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C159" s="16"/>
-      <c r="D159" s="28"/>
-    </row>
-    <row r="160" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D159" s="16"/>
+      <c r="E159" s="28"/>
+    </row>
+    <row r="160" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A160" s="15">
         <v>44866</v>
       </c>
-      <c r="B160" s="16" t="s">
+      <c r="B160" s="15"/>
+      <c r="C160" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C160" s="16"/>
-      <c r="D160" s="28"/>
-    </row>
-    <row r="161" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D160" s="16"/>
+      <c r="E160" s="28"/>
+    </row>
+    <row r="161" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A161" s="15">
         <v>44867</v>
       </c>
-      <c r="B161" s="16" t="s">
+      <c r="B161" s="15"/>
+      <c r="C161" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C161" s="16"/>
-      <c r="D161" s="28"/>
-    </row>
-    <row r="162" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D161" s="16"/>
+      <c r="E161" s="28"/>
+    </row>
+    <row r="162" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A162" s="15">
         <v>44868</v>
       </c>
-      <c r="B162" s="16" t="s">
+      <c r="B162" s="15"/>
+      <c r="C162" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C162" s="16"/>
-      <c r="D162" s="28"/>
-    </row>
-    <row r="163" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D162" s="16"/>
+      <c r="E162" s="28"/>
+    </row>
+    <row r="163" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A163" s="15">
         <v>44869</v>
       </c>
-      <c r="B163" s="16" t="s">
+      <c r="B163" s="15"/>
+      <c r="C163" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C163" s="16"/>
-      <c r="D163" s="28"/>
-    </row>
-    <row r="164" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D163" s="16"/>
+      <c r="E163" s="28"/>
+    </row>
+    <row r="164" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A164" s="15">
         <v>44870</v>
       </c>
-      <c r="B164" s="16" t="s">
+      <c r="B164" s="15"/>
+      <c r="C164" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C164" s="16"/>
-      <c r="D164" s="28"/>
-    </row>
-    <row r="165" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D164" s="16"/>
+      <c r="E164" s="28"/>
+    </row>
+    <row r="165" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A165" s="15">
         <v>44871</v>
       </c>
-      <c r="B165" s="16" t="s">
+      <c r="B165" s="15"/>
+      <c r="C165" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C165" s="16"/>
-      <c r="D165" s="28"/>
-    </row>
-    <row r="166" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D165" s="16"/>
+      <c r="E165" s="28"/>
+    </row>
+    <row r="166" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A166" s="15">
         <v>44872</v>
       </c>
-      <c r="B166" s="16" t="s">
+      <c r="B166" s="15"/>
+      <c r="C166" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C166" s="16"/>
-      <c r="D166" s="28"/>
-    </row>
-    <row r="167" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D166" s="16"/>
+      <c r="E166" s="28"/>
+    </row>
+    <row r="167" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A167" s="15">
         <v>44873</v>
       </c>
-      <c r="B167" s="16" t="s">
+      <c r="B167" s="15"/>
+      <c r="C167" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C167" s="16"/>
-      <c r="D167" s="28"/>
-    </row>
-    <row r="168" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D167" s="16"/>
+      <c r="E167" s="28"/>
+    </row>
+    <row r="168" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A168" s="15">
         <v>44874</v>
       </c>
-      <c r="B168" s="16" t="s">
+      <c r="B168" s="15"/>
+      <c r="C168" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C168" s="16"/>
-      <c r="D168" s="28"/>
-    </row>
-    <row r="169" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D168" s="16"/>
+      <c r="E168" s="28"/>
+    </row>
+    <row r="169" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A169" s="15">
         <v>44875</v>
       </c>
-      <c r="B169" s="16" t="s">
+      <c r="B169" s="15"/>
+      <c r="C169" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C169" s="16"/>
-      <c r="D169" s="28"/>
-    </row>
-    <row r="170" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D169" s="16"/>
+      <c r="E169" s="28"/>
+    </row>
+    <row r="170" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A170" s="15">
         <v>44876</v>
       </c>
-      <c r="B170" s="16" t="s">
+      <c r="B170" s="15"/>
+      <c r="C170" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C170" s="16"/>
-      <c r="D170" s="28"/>
-    </row>
-    <row r="171" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D170" s="16"/>
+      <c r="E170" s="28"/>
+    </row>
+    <row r="171" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A171" s="15">
         <v>44877</v>
       </c>
-      <c r="B171" s="16" t="s">
+      <c r="B171" s="15"/>
+      <c r="C171" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C171" s="16"/>
-      <c r="D171" s="28"/>
-    </row>
-    <row r="172" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D171" s="16"/>
+      <c r="E171" s="28"/>
+    </row>
+    <row r="172" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A172" s="15">
         <v>44878</v>
       </c>
-      <c r="B172" s="16" t="s">
+      <c r="B172" s="15"/>
+      <c r="C172" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C172" s="16"/>
-      <c r="D172" s="28"/>
-    </row>
-    <row r="173" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D172" s="16"/>
+      <c r="E172" s="28"/>
+    </row>
+    <row r="173" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A173" s="15">
         <v>44879</v>
       </c>
-      <c r="B173" s="16" t="s">
+      <c r="B173" s="15"/>
+      <c r="C173" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C173" s="16"/>
-      <c r="D173" s="28"/>
-    </row>
-    <row r="174" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D173" s="16"/>
+      <c r="E173" s="28"/>
+    </row>
+    <row r="174" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A174" s="15">
         <v>44880</v>
       </c>
-      <c r="B174" s="16" t="s">
+      <c r="B174" s="15"/>
+      <c r="C174" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C174" s="16"/>
-      <c r="D174" s="28"/>
-    </row>
-    <row r="175" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D174" s="16"/>
+      <c r="E174" s="28"/>
+    </row>
+    <row r="175" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A175" s="15">
         <v>44881</v>
       </c>
-      <c r="B175" s="16" t="s">
+      <c r="B175" s="15"/>
+      <c r="C175" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C175" s="16"/>
-      <c r="D175" s="28"/>
-    </row>
-    <row r="176" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D175" s="16"/>
+      <c r="E175" s="28"/>
+    </row>
+    <row r="176" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A176" s="15">
         <v>44882</v>
       </c>
-      <c r="B176" s="16" t="s">
+      <c r="B176" s="15"/>
+      <c r="C176" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C176" s="16"/>
-      <c r="D176" s="28"/>
-    </row>
-    <row r="177" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D176" s="16"/>
+      <c r="E176" s="28"/>
+    </row>
+    <row r="177" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A177" s="15">
         <v>44883</v>
       </c>
-      <c r="B177" s="16" t="s">
+      <c r="B177" s="15"/>
+      <c r="C177" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C177" s="16"/>
-      <c r="D177" s="28"/>
-    </row>
-    <row r="178" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D177" s="16"/>
+      <c r="E177" s="28"/>
+    </row>
+    <row r="178" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A178" s="15">
         <v>44884</v>
       </c>
-      <c r="B178" s="16" t="s">
+      <c r="B178" s="15"/>
+      <c r="C178" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C178" s="16"/>
-      <c r="D178" s="28"/>
-    </row>
-    <row r="179" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D178" s="16"/>
+      <c r="E178" s="28"/>
+    </row>
+    <row r="179" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A179" s="15">
         <v>44885</v>
       </c>
-      <c r="B179" s="16" t="s">
+      <c r="B179" s="15"/>
+      <c r="C179" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C179" s="16"/>
-      <c r="D179" s="28"/>
-    </row>
-    <row r="180" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D179" s="16"/>
+      <c r="E179" s="28"/>
+    </row>
+    <row r="180" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A180" s="15">
         <v>44886</v>
       </c>
-      <c r="B180" s="16" t="s">
+      <c r="B180" s="15"/>
+      <c r="C180" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C180" s="16"/>
-      <c r="D180" s="28"/>
-    </row>
-    <row r="181" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D180" s="16"/>
+      <c r="E180" s="28"/>
+    </row>
+    <row r="181" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A181" s="15">
         <v>44887</v>
       </c>
-      <c r="B181" s="16" t="s">
+      <c r="B181" s="15"/>
+      <c r="C181" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C181" s="16"/>
-      <c r="D181" s="28"/>
-    </row>
-    <row r="182" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D181" s="16"/>
+      <c r="E181" s="28"/>
+    </row>
+    <row r="182" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A182" s="15">
         <v>44888</v>
       </c>
-      <c r="B182" s="16" t="s">
+      <c r="B182" s="15"/>
+      <c r="C182" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C182" s="16"/>
-      <c r="D182" s="28"/>
-    </row>
-    <row r="183" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D182" s="16"/>
+      <c r="E182" s="28"/>
+    </row>
+    <row r="183" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A183" s="15">
         <v>44889</v>
       </c>
-      <c r="B183" s="16" t="s">
+      <c r="B183" s="15"/>
+      <c r="C183" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C183" s="16"/>
-      <c r="D183" s="28"/>
-    </row>
-    <row r="184" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D183" s="16"/>
+      <c r="E183" s="28"/>
+    </row>
+    <row r="184" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A184" s="15">
         <v>44890</v>
       </c>
-      <c r="B184" s="16" t="s">
+      <c r="B184" s="15"/>
+      <c r="C184" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C184" s="16"/>
-      <c r="D184" s="28"/>
-    </row>
-    <row r="185" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D184" s="16"/>
+      <c r="E184" s="28"/>
+    </row>
+    <row r="185" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A185" s="15">
         <v>44891</v>
       </c>
-      <c r="B185" s="16" t="s">
+      <c r="B185" s="15"/>
+      <c r="C185" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C185" s="16"/>
-      <c r="D185" s="28"/>
-    </row>
-    <row r="186" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D185" s="16"/>
+      <c r="E185" s="28"/>
+    </row>
+    <row r="186" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A186" s="15">
         <v>44892</v>
       </c>
-      <c r="B186" s="16" t="s">
+      <c r="B186" s="15"/>
+      <c r="C186" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C186" s="16"/>
-      <c r="D186" s="28"/>
-    </row>
-    <row r="187" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D186" s="16"/>
+      <c r="E186" s="28"/>
+    </row>
+    <row r="187" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A187" s="15">
         <v>44893</v>
       </c>
-      <c r="B187" s="16" t="s">
+      <c r="B187" s="15"/>
+      <c r="C187" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C187" s="16"/>
-      <c r="D187" s="28"/>
-    </row>
-    <row r="188" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D187" s="16"/>
+      <c r="E187" s="28"/>
+    </row>
+    <row r="188" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A188" s="15">
         <v>44894</v>
       </c>
-      <c r="B188" s="16" t="s">
+      <c r="B188" s="15"/>
+      <c r="C188" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C188" s="16"/>
-      <c r="D188" s="28"/>
-    </row>
-    <row r="189" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D188" s="16"/>
+      <c r="E188" s="28"/>
+    </row>
+    <row r="189" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A189" s="15">
         <v>44895</v>
       </c>
-      <c r="B189" s="16" t="s">
+      <c r="B189" s="15"/>
+      <c r="C189" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C189" s="16"/>
-      <c r="D189" s="28"/>
-    </row>
-    <row r="190" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D189" s="16"/>
+      <c r="E189" s="28"/>
+    </row>
+    <row r="190" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A190" s="15">
         <v>44896</v>
       </c>
-      <c r="B190" s="16" t="s">
+      <c r="B190" s="15"/>
+      <c r="C190" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C190" s="16"/>
-      <c r="D190" s="28"/>
-    </row>
-    <row r="191" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D190" s="16"/>
+      <c r="E190" s="28"/>
+    </row>
+    <row r="191" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A191" s="15">
         <v>44897</v>
       </c>
-      <c r="B191" s="16" t="s">
+      <c r="B191" s="15"/>
+      <c r="C191" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C191" s="16"/>
-      <c r="D191" s="28"/>
-    </row>
-    <row r="192" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D191" s="16"/>
+      <c r="E191" s="28"/>
+    </row>
+    <row r="192" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A192" s="15">
         <v>44898</v>
       </c>
-      <c r="B192" s="16" t="s">
+      <c r="B192" s="15"/>
+      <c r="C192" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C192" s="16"/>
-      <c r="D192" s="28"/>
-    </row>
-    <row r="193" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D192" s="16"/>
+      <c r="E192" s="28"/>
+    </row>
+    <row r="193" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A193" s="15">
         <v>44899</v>
       </c>
-      <c r="B193" s="16" t="s">
+      <c r="B193" s="15"/>
+      <c r="C193" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C193" s="16"/>
-      <c r="D193" s="28"/>
-    </row>
-    <row r="194" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D193" s="16"/>
+      <c r="E193" s="28"/>
+    </row>
+    <row r="194" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A194" s="15">
         <v>44900</v>
       </c>
-      <c r="B194" s="16" t="s">
+      <c r="B194" s="15"/>
+      <c r="C194" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C194" s="16"/>
-      <c r="D194" s="28"/>
-    </row>
-    <row r="195" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D194" s="16"/>
+      <c r="E194" s="28"/>
+    </row>
+    <row r="195" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A195" s="15">
         <v>44901</v>
       </c>
-      <c r="B195" s="16" t="s">
+      <c r="B195" s="15"/>
+      <c r="C195" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C195" s="16"/>
-      <c r="D195" s="28"/>
-    </row>
-    <row r="196" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D195" s="16"/>
+      <c r="E195" s="28"/>
+    </row>
+    <row r="196" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A196" s="15">
         <v>44902</v>
       </c>
-      <c r="B196" s="16" t="s">
+      <c r="B196" s="15"/>
+      <c r="C196" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C196" s="16"/>
-      <c r="D196" s="28"/>
-    </row>
-    <row r="197" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D196" s="16"/>
+      <c r="E196" s="28"/>
+    </row>
+    <row r="197" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A197" s="15">
         <v>44903</v>
       </c>
-      <c r="B197" s="16" t="s">
+      <c r="B197" s="15"/>
+      <c r="C197" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C197" s="16"/>
-      <c r="D197" s="28"/>
-    </row>
-    <row r="198" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D197" s="16"/>
+      <c r="E197" s="28"/>
+    </row>
+    <row r="198" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A198" s="15">
         <v>44904</v>
       </c>
-      <c r="B198" s="16" t="s">
+      <c r="B198" s="15"/>
+      <c r="C198" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C198" s="16"/>
-      <c r="D198" s="28"/>
-    </row>
-    <row r="199" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D198" s="16"/>
+      <c r="E198" s="28"/>
+    </row>
+    <row r="199" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A199" s="15">
         <v>44905</v>
       </c>
-      <c r="B199" s="16" t="s">
+      <c r="B199" s="15"/>
+      <c r="C199" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C199" s="16"/>
-      <c r="D199" s="28"/>
-    </row>
-    <row r="200" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D199" s="16"/>
+      <c r="E199" s="28"/>
+    </row>
+    <row r="200" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A200" s="15">
         <v>44906</v>
       </c>
-      <c r="B200" s="16" t="s">
+      <c r="B200" s="15"/>
+      <c r="C200" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C200" s="16"/>
-      <c r="D200" s="28"/>
-    </row>
-    <row r="201" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D200" s="16"/>
+      <c r="E200" s="28"/>
+    </row>
+    <row r="201" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A201" s="15">
         <v>44907</v>
       </c>
-      <c r="B201" s="16" t="s">
+      <c r="B201" s="15"/>
+      <c r="C201" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C201" s="16"/>
-      <c r="D201" s="28"/>
-    </row>
-    <row r="202" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D201" s="16"/>
+      <c r="E201" s="28"/>
+    </row>
+    <row r="202" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A202" s="15">
         <v>44908</v>
       </c>
-      <c r="B202" s="16" t="s">
+      <c r="B202" s="15"/>
+      <c r="C202" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C202" s="16"/>
-      <c r="D202" s="28"/>
-    </row>
-    <row r="203" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D202" s="16"/>
+      <c r="E202" s="28"/>
+    </row>
+    <row r="203" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A203" s="15">
         <v>44909</v>
       </c>
-      <c r="B203" s="16" t="s">
+      <c r="B203" s="15"/>
+      <c r="C203" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C203" s="16"/>
-      <c r="D203" s="28"/>
-    </row>
-    <row r="204" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D203" s="16"/>
+      <c r="E203" s="28"/>
+    </row>
+    <row r="204" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A204" s="15">
         <v>44910</v>
       </c>
-      <c r="B204" s="16" t="s">
+      <c r="B204" s="15"/>
+      <c r="C204" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C204" s="16"/>
-      <c r="D204" s="28"/>
-    </row>
-    <row r="205" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D204" s="16"/>
+      <c r="E204" s="28"/>
+    </row>
+    <row r="205" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A205" s="15">
         <v>44911</v>
       </c>
-      <c r="B205" s="16" t="s">
+      <c r="B205" s="15"/>
+      <c r="C205" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C205" s="16"/>
-      <c r="D205" s="28"/>
-    </row>
-    <row r="206" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D205" s="16"/>
+      <c r="E205" s="28"/>
+    </row>
+    <row r="206" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A206" s="15">
         <v>44912</v>
       </c>
-      <c r="B206" s="16" t="s">
+      <c r="B206" s="15"/>
+      <c r="C206" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C206" s="16"/>
-      <c r="D206" s="28"/>
-    </row>
-    <row r="207" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D206" s="16"/>
+      <c r="E206" s="28"/>
+    </row>
+    <row r="207" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A207" s="15">
         <v>44913</v>
       </c>
-      <c r="B207" s="16" t="s">
+      <c r="B207" s="15"/>
+      <c r="C207" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C207" s="16"/>
-      <c r="D207" s="28"/>
-    </row>
-    <row r="208" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D207" s="16"/>
+      <c r="E207" s="28"/>
+    </row>
+    <row r="208" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A208" s="15">
         <v>44914</v>
       </c>
-      <c r="B208" s="16" t="s">
+      <c r="B208" s="15"/>
+      <c r="C208" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C208" s="16"/>
-      <c r="D208" s="28"/>
-    </row>
-    <row r="209" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D208" s="16"/>
+      <c r="E208" s="28"/>
+    </row>
+    <row r="209" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A209" s="15">
         <v>44915</v>
       </c>
-      <c r="B209" s="16" t="s">
+      <c r="B209" s="15"/>
+      <c r="C209" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C209" s="16"/>
-      <c r="D209" s="28"/>
-    </row>
-    <row r="210" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D209" s="16"/>
+      <c r="E209" s="28"/>
+    </row>
+    <row r="210" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A210" s="15">
         <v>44916</v>
       </c>
-      <c r="B210" s="16" t="s">
+      <c r="B210" s="15"/>
+      <c r="C210" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C210" s="16"/>
-      <c r="D210" s="28"/>
-    </row>
-    <row r="211" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D210" s="16"/>
+      <c r="E210" s="28"/>
+    </row>
+    <row r="211" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A211" s="15">
         <v>44917</v>
       </c>
-      <c r="B211" s="16" t="s">
+      <c r="B211" s="15"/>
+      <c r="C211" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C211" s="16"/>
-      <c r="D211" s="28"/>
-    </row>
-    <row r="212" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D211" s="16"/>
+      <c r="E211" s="28"/>
+    </row>
+    <row r="212" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A212" s="15">
         <v>44918</v>
       </c>
-      <c r="B212" s="16" t="s">
+      <c r="B212" s="15"/>
+      <c r="C212" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C212" s="16"/>
-      <c r="D212" s="28"/>
-    </row>
-    <row r="213" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D212" s="16"/>
+      <c r="E212" s="28"/>
+    </row>
+    <row r="213" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A213" s="15">
         <v>44919</v>
       </c>
-      <c r="B213" s="16" t="s">
+      <c r="B213" s="15"/>
+      <c r="C213" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C213" s="16"/>
-      <c r="D213" s="28"/>
-    </row>
-    <row r="214" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D213" s="16"/>
+      <c r="E213" s="28"/>
+    </row>
+    <row r="214" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A214" s="15">
         <v>44920</v>
       </c>
-      <c r="B214" s="16" t="s">
+      <c r="B214" s="15"/>
+      <c r="C214" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C214" s="16"/>
-      <c r="D214" s="28"/>
-    </row>
-    <row r="215" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D214" s="16"/>
+      <c r="E214" s="28"/>
+    </row>
+    <row r="215" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A215" s="15">
         <v>44921</v>
       </c>
-      <c r="B215" s="16" t="s">
+      <c r="B215" s="15"/>
+      <c r="C215" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C215" s="16"/>
-      <c r="D215" s="28"/>
-    </row>
-    <row r="216" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D215" s="16"/>
+      <c r="E215" s="28"/>
+    </row>
+    <row r="216" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A216" s="15">
         <v>44922</v>
       </c>
-      <c r="B216" s="16" t="s">
+      <c r="B216" s="15"/>
+      <c r="C216" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C216" s="16"/>
-      <c r="D216" s="28"/>
-    </row>
-    <row r="217" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D216" s="16"/>
+      <c r="E216" s="28"/>
+    </row>
+    <row r="217" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A217" s="15">
         <v>44923</v>
       </c>
-      <c r="B217" s="16" t="s">
+      <c r="B217" s="15"/>
+      <c r="C217" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C217" s="16"/>
-      <c r="D217" s="28"/>
-    </row>
-    <row r="218" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D217" s="16"/>
+      <c r="E217" s="28"/>
+    </row>
+    <row r="218" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A218" s="15">
         <v>44924</v>
       </c>
-      <c r="B218" s="16" t="s">
+      <c r="B218" s="15"/>
+      <c r="C218" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C218" s="16"/>
-      <c r="D218" s="28"/>
-    </row>
-    <row r="219" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D218" s="16"/>
+      <c r="E218" s="28"/>
+    </row>
+    <row r="219" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A219" s="15">
         <v>44925</v>
       </c>
-      <c r="B219" s="16" t="s">
+      <c r="B219" s="15"/>
+      <c r="C219" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C219" s="16"/>
-      <c r="D219" s="28"/>
-    </row>
-    <row r="220" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="D219" s="16"/>
+      <c r="E219" s="28"/>
+    </row>
+    <row r="220" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A220" s="15">
         <v>44926</v>
       </c>
-      <c r="B220" s="16" t="s">
+      <c r="B220" s="15"/>
+      <c r="C220" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C220" s="16"/>
-      <c r="D220" s="28"/>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D220" s="16"/>
+      <c r="E220" s="28"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="14"/>
       <c r="B221" s="14"/>
       <c r="C221" s="14"/>
-      <c r="D221" s="29"/>
+      <c r="D221" s="14"/>
+      <c r="E221" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3041,8 +3475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3145,7 +3579,7 @@
         <v>44729</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="36"/>
@@ -3322,8 +3756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:XFC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="21" x14ac:dyDescent="0.25"/>

--- a/CODE.xlsx
+++ b/CODE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B922579-91A1-43B5-99A8-7A6AB8162583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9354084F-502A-49F5-885A-CAD7ABF9126F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="0" windowWidth="15420" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="75" windowWidth="21900" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TARGET DAY" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="48">
   <si>
     <t>DATE</t>
   </si>
@@ -123,13 +123,64 @@
   </si>
   <si>
     <t>afternoon</t>
+  </si>
+  <si>
+    <t>10:30am</t>
+  </si>
+  <si>
+    <t>30mins</t>
+  </si>
+  <si>
+    <t>10:50am</t>
+  </si>
+  <si>
+    <t>11am</t>
+  </si>
+  <si>
+    <t>10mins</t>
+  </si>
+  <si>
+    <t>12:20pm</t>
+  </si>
+  <si>
+    <t>1:35pm</t>
+  </si>
+  <si>
+    <t>1:15hrs</t>
+  </si>
+  <si>
+    <t>5:30pm</t>
+  </si>
+  <si>
+    <t>5:45pm</t>
+  </si>
+  <si>
+    <t>15mins</t>
+  </si>
+  <si>
+    <t>10:05am</t>
+  </si>
+  <si>
+    <t>10:55am</t>
+  </si>
+  <si>
+    <t>50mins</t>
+  </si>
+  <si>
+    <t>130mins::pen50mins</t>
+  </si>
+  <si>
+    <t>1:05pm</t>
+  </si>
+  <si>
+    <t>1:15pm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +235,13 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -260,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -376,6 +434,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -718,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44:E44"/>
+    <sheetView tabSelected="1" topLeftCell="B30" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1186,8 +1247,12 @@
       <c r="C33" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="28"/>
+      <c r="D33" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
@@ -1199,8 +1264,12 @@
       <c r="C34" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="28"/>
+      <c r="D34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
@@ -1212,8 +1281,12 @@
       <c r="C35" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="28"/>
+      <c r="D35" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A36" s="15">
@@ -3475,8 +3548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3585,7 +3658,8 @@
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="36">
-        <v>190</v>
+        <f>190-110-50</f>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -3740,7 +3814,7 @@
       </c>
       <c r="F24" s="40">
         <f>SUM(F5:F23)</f>
-        <v>190</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -3754,10 +3828,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:XFC24"/>
+  <dimension ref="A1:XFC33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -3765,60 +3839,128 @@
     <col min="1" max="1" width="26.140625" style="13" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" style="13" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="25" style="13" customWidth="1"/>
-    <col min="5" max="16383" width="9.140625" style="12" hidden="1"/>
-    <col min="16384" max="16384" width="0.28515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" style="13" customWidth="1"/>
+    <col min="5" max="16382" width="9.140625" style="12" hidden="1"/>
+    <col min="16383" max="16383" width="6.85546875" style="12" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="6.5703125" style="12" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="25">
-        <v>44731</v>
+        <v>44733</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="39"/>
+      <c r="B3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="39"/>
+      <c r="B4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6" s="24"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D9" s="24"/>
+      <c r="B6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="25">
+        <v>44734</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="24"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="13" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D23" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D16" s="41" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="41" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="23"/>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="24"/>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="23"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CODE.xlsx
+++ b/CODE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9354084F-502A-49F5-885A-CAD7ABF9126F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365E8007-73F7-4538-8B73-23ABC7C85382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="75" windowWidth="21900" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5640" yWindow="615" windowWidth="15660" windowHeight="14490" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TARGET DAY" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="37">
   <si>
     <t>DATE</t>
   </si>
@@ -125,55 +125,22 @@
     <t>afternoon</t>
   </si>
   <si>
-    <t>10:30am</t>
+    <t>11.30am</t>
   </si>
   <si>
-    <t>30mins</t>
+    <t>1:30pm</t>
   </si>
   <si>
-    <t>10:50am</t>
+    <t>2hrs</t>
   </si>
   <si>
-    <t>11am</t>
+    <t>2:30pm</t>
   </si>
   <si>
-    <t>10mins</t>
+    <t>4:15pm</t>
   </si>
   <si>
-    <t>12:20pm</t>
-  </si>
-  <si>
-    <t>1:35pm</t>
-  </si>
-  <si>
-    <t>1:15hrs</t>
-  </si>
-  <si>
-    <t>5:30pm</t>
-  </si>
-  <si>
-    <t>5:45pm</t>
-  </si>
-  <si>
-    <t>15mins</t>
-  </si>
-  <si>
-    <t>10:05am</t>
-  </si>
-  <si>
-    <t>10:55am</t>
-  </si>
-  <si>
-    <t>50mins</t>
-  </si>
-  <si>
-    <t>130mins::pen50mins</t>
-  </si>
-  <si>
-    <t>1:05pm</t>
-  </si>
-  <si>
-    <t>1:15pm</t>
+    <t>1:45hrs</t>
   </si>
 </sst>
 </file>
@@ -779,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="B27" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1298,8 +1265,12 @@
       <c r="C36" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="28"/>
+      <c r="D36" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
@@ -3548,8 +3519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3654,17 +3625,20 @@
       <c r="B6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="36"/>
+      <c r="C6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="36">
+        <v>-300</v>
+      </c>
       <c r="E6" s="36"/>
       <c r="F6" s="36">
-        <f>190-110-50</f>
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
-        <v>44736</v>
+        <v>44743</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -3806,15 +3780,15 @@
       <c r="C24" s="3"/>
       <c r="D24" s="37">
         <f>SUM(D3:D23)</f>
-        <v>-700</v>
+        <v>-1000</v>
       </c>
       <c r="E24" s="20">
         <f>E2+D24</f>
-        <v>620</v>
+        <v>320</v>
       </c>
       <c r="F24" s="40">
         <f>SUM(F5:F23)</f>
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -3831,7 +3805,7 @@
   <dimension ref="A1:XFC33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -3847,87 +3821,42 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="25">
-        <v>44733</v>
+        <v>44735</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C2" s="39"/>
+      <c r="B2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>38</v>
-      </c>
+      <c r="C4" s="39"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>41</v>
-      </c>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D7" s="43" t="s">
-        <v>45</v>
-      </c>
+      <c r="D7" s="43"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
-        <v>44734</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>35</v>
-      </c>
+      <c r="A11" s="25"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D18" s="24"/>

--- a/CODE.xlsx
+++ b/CODE.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365E8007-73F7-4538-8B73-23ABC7C85382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9180992E-D364-4290-AAE5-9967F2BE9B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="615" windowWidth="15660" windowHeight="14490" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="1020" windowWidth="18090" windowHeight="13035" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TARGET DAY" sheetId="1" r:id="rId1"/>
     <sheet name="TARGET DETAILS " sheetId="2" r:id="rId2"/>
     <sheet name="TARGET HOURS" sheetId="3" r:id="rId3"/>
-    <sheet name="LOANS" sheetId="4" r:id="rId4"/>
+    <sheet name="SHARES" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="64">
   <si>
     <t>DATE</t>
   </si>
@@ -89,9 +89,6 @@
     <t>done</t>
   </si>
   <si>
-    <t>10am</t>
-  </si>
-  <si>
     <t>3hrs</t>
   </si>
   <si>
@@ -116,38 +113,122 @@
     <t>2pm</t>
   </si>
   <si>
-    <t>4hrs</t>
-  </si>
-  <si>
     <t>1hr</t>
   </si>
   <si>
-    <t>afternoon</t>
-  </si>
-  <si>
-    <t>11.30am</t>
-  </si>
-  <si>
-    <t>1:30pm</t>
-  </si>
-  <si>
-    <t>2hrs</t>
-  </si>
-  <si>
-    <t>2:30pm</t>
-  </si>
-  <si>
-    <t>4:15pm</t>
-  </si>
-  <si>
-    <t>1:45hrs</t>
+    <t>BUY</t>
+  </si>
+  <si>
+    <t>SELL</t>
+  </si>
+  <si>
+    <t>Buy Date</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Buy Price</t>
+  </si>
+  <si>
+    <t>Share Amout</t>
+  </si>
+  <si>
+    <t>Taka</t>
+  </si>
+  <si>
+    <t>Sell Date</t>
+  </si>
+  <si>
+    <t>Sell Price</t>
+  </si>
+  <si>
+    <t>INCOME/LOSS</t>
+  </si>
+  <si>
+    <t>BDF**sold</t>
+  </si>
+  <si>
+    <t>BDF</t>
+  </si>
+  <si>
+    <t>BRAC</t>
+  </si>
+  <si>
+    <t>IDLC</t>
+  </si>
+  <si>
+    <t>ACIFURMULA</t>
+  </si>
+  <si>
+    <t>7pm</t>
+  </si>
+  <si>
+    <t>8pm</t>
+  </si>
+  <si>
+    <t>4pm</t>
+  </si>
+  <si>
+    <t>9am</t>
+  </si>
+  <si>
+    <t>11pm</t>
+  </si>
+  <si>
+    <t>MITHU</t>
+  </si>
+  <si>
+    <t>ARIF</t>
+  </si>
+  <si>
+    <t>8HRS</t>
+  </si>
+  <si>
+    <t>8.30am</t>
+  </si>
+  <si>
+    <t>2.30pm</t>
+  </si>
+  <si>
+    <t>3.30pm</t>
+  </si>
+  <si>
+    <t>12.30 HRS</t>
+  </si>
+  <si>
+    <t>6 hrs</t>
+  </si>
+  <si>
+    <t>3.30 hrs</t>
+  </si>
+  <si>
+    <t>3 hrs</t>
+  </si>
+  <si>
+    <t>FRIDAY</t>
+  </si>
+  <si>
+    <t>8am</t>
+  </si>
+  <si>
+    <t>11am</t>
+  </si>
+  <si>
+    <t>4.30pm</t>
+  </si>
+  <si>
+    <t>1 hrs</t>
+  </si>
+  <si>
+    <t>5 HRS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +280,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u val="double"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
@@ -206,15 +347,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,6 +391,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -285,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -349,15 +495,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -373,8 +510,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -391,19 +526,79 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -754,7 +949,7 @@
   <cols>
     <col min="1" max="3" width="22.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" style="30" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" style="27" customWidth="1"/>
     <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
     <col min="7" max="8" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="3" hidden="1"/>
@@ -771,7 +966,7 @@
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
     </row>
@@ -784,9 +979,9 @@
         <v>3</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="27"/>
+        <v>20</v>
+      </c>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
@@ -799,7 +994,7 @@
       <c r="D3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="25" t="s">
         <v>18</v>
       </c>
     </row>
@@ -814,7 +1009,7 @@
       <c r="D4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="25" t="s">
         <v>18</v>
       </c>
     </row>
@@ -829,7 +1024,7 @@
       <c r="D5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="25" t="s">
         <v>18</v>
       </c>
     </row>
@@ -844,7 +1039,7 @@
       <c r="D6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="25" t="s">
         <v>18</v>
       </c>
     </row>
@@ -859,7 +1054,7 @@
       <c r="D7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="25" t="s">
         <v>18</v>
       </c>
     </row>
@@ -872,10 +1067,10 @@
         <v>9</v>
       </c>
       <c r="D8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.3">
@@ -887,7 +1082,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="22"/>
-      <c r="E9" s="27"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
@@ -898,10 +1093,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.3">
@@ -913,10 +1108,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.3">
@@ -928,10 +1123,10 @@
         <v>6</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.3">
@@ -943,10 +1138,10 @@
         <v>7</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.3">
@@ -958,10 +1153,10 @@
         <v>8</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.3">
@@ -973,10 +1168,10 @@
         <v>9</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.3">
@@ -988,7 +1183,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="22"/>
-      <c r="E16" s="27"/>
+      <c r="E16" s="24"/>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
@@ -999,9 +1194,9 @@
         <v>4</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="25" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1014,9 +1209,9 @@
         <v>5</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="25" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1029,9 +1224,9 @@
         <v>6</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="25" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1044,9 +1239,9 @@
         <v>7</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="25" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1059,9 +1254,9 @@
         <v>8</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="25" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1074,9 +1269,9 @@
         <v>9</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="25" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1089,7 +1284,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="22"/>
-      <c r="E23" s="27"/>
+      <c r="E23" s="24"/>
     </row>
     <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
@@ -1168,22 +1363,22 @@
         <v>3</v>
       </c>
       <c r="D30" s="22"/>
-      <c r="E30" s="27"/>
+      <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>44737</v>
       </c>
-      <c r="B31" s="42">
+      <c r="B31" s="35">
         <v>44730</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="25" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1191,16 +1386,16 @@
       <c r="A32" s="15">
         <v>44738</v>
       </c>
-      <c r="B32" s="42">
+      <c r="B32" s="35">
         <v>44731</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="25" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1208,16 +1403,16 @@
       <c r="A33" s="15">
         <v>44739</v>
       </c>
-      <c r="B33" s="42">
+      <c r="B33" s="35">
         <v>44732</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="25" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1225,16 +1420,16 @@
       <c r="A34" s="15">
         <v>44740</v>
       </c>
-      <c r="B34" s="42">
+      <c r="B34" s="35">
         <v>44733</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="25" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1242,33 +1437,33 @@
       <c r="A35" s="15">
         <v>44741</v>
       </c>
-      <c r="B35" s="42">
+      <c r="B35" s="35">
         <v>44734</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A36" s="15">
         <v>44742</v>
       </c>
-      <c r="B36" s="42">
+      <c r="B36" s="35">
         <v>44735</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="25" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1283,85 +1478,85 @@
         <v>3</v>
       </c>
       <c r="D37" s="22"/>
-      <c r="E37" s="27"/>
+      <c r="E37" s="24"/>
     </row>
     <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <v>44744</v>
       </c>
-      <c r="B38" s="42">
+      <c r="B38" s="35">
         <v>44737</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="16"/>
-      <c r="E38" s="28"/>
+      <c r="E38" s="25"/>
     </row>
     <row r="39" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
         <v>44745</v>
       </c>
-      <c r="B39" s="42">
+      <c r="B39" s="35">
         <v>44738</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="16"/>
-      <c r="E39" s="28"/>
+      <c r="E39" s="25"/>
     </row>
     <row r="40" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A40" s="15">
         <v>44746</v>
       </c>
-      <c r="B40" s="42">
+      <c r="B40" s="35">
         <v>44739</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="16"/>
-      <c r="E40" s="28"/>
+      <c r="E40" s="25"/>
     </row>
     <row r="41" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A41" s="15">
         <v>44747</v>
       </c>
-      <c r="B41" s="42">
+      <c r="B41" s="35">
         <v>44740</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="16"/>
-      <c r="E41" s="28"/>
+      <c r="E41" s="25"/>
     </row>
     <row r="42" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
         <v>44748</v>
       </c>
-      <c r="B42" s="42">
+      <c r="B42" s="35">
         <v>44741</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="16"/>
-      <c r="E42" s="28"/>
+      <c r="E42" s="25"/>
     </row>
     <row r="43" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
         <v>44749</v>
       </c>
-      <c r="B43" s="42">
+      <c r="B43" s="35">
         <v>44742</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="16"/>
-      <c r="E43" s="28"/>
+      <c r="E43" s="25"/>
     </row>
     <row r="44" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
@@ -1374,1242 +1569,1242 @@
         <v>3</v>
       </c>
       <c r="D44" s="22"/>
-      <c r="E44" s="27"/>
+      <c r="E44" s="24"/>
     </row>
     <row r="45" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
         <v>44751</v>
       </c>
-      <c r="B45" s="42">
+      <c r="B45" s="35">
         <v>44744</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D45" s="16"/>
-      <c r="E45" s="28"/>
+      <c r="E45" s="25"/>
     </row>
     <row r="46" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="15">
         <v>44752</v>
       </c>
-      <c r="B46" s="42">
+      <c r="B46" s="35">
         <v>44745</v>
       </c>
       <c r="C46" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D46" s="16"/>
-      <c r="E46" s="28"/>
+      <c r="E46" s="25"/>
     </row>
     <row r="47" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A47" s="15">
         <v>44753</v>
       </c>
-      <c r="B47" s="42">
+      <c r="B47" s="35">
         <v>44746</v>
       </c>
       <c r="C47" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="16"/>
-      <c r="E47" s="28"/>
+      <c r="E47" s="25"/>
     </row>
     <row r="48" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A48" s="15">
         <v>44754</v>
       </c>
-      <c r="B48" s="42">
+      <c r="B48" s="35">
         <v>44747</v>
       </c>
       <c r="C48" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="16"/>
-      <c r="E48" s="28"/>
+      <c r="E48" s="25"/>
     </row>
     <row r="49" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A49" s="15">
         <v>44755</v>
       </c>
-      <c r="B49" s="42">
+      <c r="B49" s="35">
         <v>44748</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="16"/>
-      <c r="E49" s="28"/>
+      <c r="E49" s="25"/>
     </row>
     <row r="50" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A50" s="15">
         <v>44756</v>
       </c>
-      <c r="B50" s="42">
+      <c r="B50" s="35">
         <v>44749</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="16"/>
-      <c r="E50" s="28"/>
+      <c r="E50" s="25"/>
     </row>
     <row r="51" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A51" s="15">
         <v>44757</v>
       </c>
-      <c r="B51" s="42">
+      <c r="B51" s="35">
         <v>44750</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D51" s="16"/>
-      <c r="E51" s="28"/>
+      <c r="E51" s="25"/>
     </row>
     <row r="52" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A52" s="15">
         <v>44758</v>
       </c>
-      <c r="B52" s="42">
+      <c r="B52" s="35">
         <v>44751</v>
       </c>
       <c r="C52" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="16"/>
-      <c r="E52" s="28"/>
+      <c r="E52" s="25"/>
     </row>
     <row r="53" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A53" s="15">
         <v>44759</v>
       </c>
-      <c r="B53" s="42">
+      <c r="B53" s="35">
         <v>44752</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="16"/>
-      <c r="E53" s="28"/>
+      <c r="E53" s="25"/>
     </row>
     <row r="54" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="15">
         <v>44760</v>
       </c>
-      <c r="B54" s="42">
+      <c r="B54" s="35">
         <v>44753</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D54" s="16"/>
-      <c r="E54" s="28"/>
+      <c r="E54" s="25"/>
     </row>
     <row r="55" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A55" s="15">
         <v>44761</v>
       </c>
-      <c r="B55" s="42">
+      <c r="B55" s="35">
         <v>44754</v>
       </c>
       <c r="C55" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D55" s="16"/>
-      <c r="E55" s="28"/>
+      <c r="E55" s="25"/>
     </row>
     <row r="56" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A56" s="15">
         <v>44762</v>
       </c>
-      <c r="B56" s="42">
+      <c r="B56" s="35">
         <v>44755</v>
       </c>
       <c r="C56" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="16"/>
-      <c r="E56" s="28"/>
+      <c r="E56" s="25"/>
     </row>
     <row r="57" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A57" s="15">
         <v>44763</v>
       </c>
-      <c r="B57" s="42">
+      <c r="B57" s="35">
         <v>44756</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="16"/>
-      <c r="E57" s="28"/>
+      <c r="E57" s="25"/>
     </row>
     <row r="58" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A58" s="15">
         <v>44764</v>
       </c>
-      <c r="B58" s="42">
+      <c r="B58" s="35">
         <v>44757</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D58" s="16"/>
-      <c r="E58" s="28"/>
+      <c r="E58" s="25"/>
     </row>
     <row r="59" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A59" s="15">
         <v>44765</v>
       </c>
-      <c r="B59" s="42">
+      <c r="B59" s="35">
         <v>44758</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D59" s="16"/>
-      <c r="E59" s="28"/>
+      <c r="E59" s="25"/>
     </row>
     <row r="60" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="15">
         <v>44766</v>
       </c>
-      <c r="B60" s="42">
+      <c r="B60" s="35">
         <v>44759</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="16"/>
-      <c r="E60" s="28"/>
+      <c r="E60" s="25"/>
     </row>
     <row r="61" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A61" s="15">
         <v>44767</v>
       </c>
-      <c r="B61" s="42">
+      <c r="B61" s="35">
         <v>44760</v>
       </c>
       <c r="C61" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D61" s="16"/>
-      <c r="E61" s="28"/>
+      <c r="E61" s="25"/>
     </row>
     <row r="62" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A62" s="15">
         <v>44768</v>
       </c>
-      <c r="B62" s="42">
+      <c r="B62" s="35">
         <v>44761</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D62" s="16"/>
-      <c r="E62" s="28"/>
+      <c r="E62" s="25"/>
     </row>
     <row r="63" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A63" s="15">
         <v>44769</v>
       </c>
-      <c r="B63" s="42">
+      <c r="B63" s="35">
         <v>44762</v>
       </c>
       <c r="C63" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="16"/>
-      <c r="E63" s="28"/>
+      <c r="E63" s="25"/>
     </row>
     <row r="64" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="15">
         <v>44770</v>
       </c>
-      <c r="B64" s="42">
+      <c r="B64" s="35">
         <v>44763</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="16"/>
-      <c r="E64" s="28"/>
+      <c r="E64" s="25"/>
     </row>
     <row r="65" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="15">
         <v>44771</v>
       </c>
-      <c r="B65" s="42">
+      <c r="B65" s="35">
         <v>44764</v>
       </c>
       <c r="C65" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D65" s="16"/>
-      <c r="E65" s="28"/>
+      <c r="E65" s="25"/>
     </row>
     <row r="66" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A66" s="15">
         <v>44772</v>
       </c>
-      <c r="B66" s="42">
+      <c r="B66" s="35">
         <v>44765</v>
       </c>
       <c r="C66" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D66" s="16"/>
-      <c r="E66" s="28"/>
+      <c r="E66" s="25"/>
     </row>
     <row r="67" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A67" s="15">
         <v>44773</v>
       </c>
-      <c r="B67" s="42">
+      <c r="B67" s="35">
         <v>44766</v>
       </c>
       <c r="C67" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D67" s="16"/>
-      <c r="E67" s="28"/>
+      <c r="E67" s="25"/>
     </row>
     <row r="68" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A68" s="15">
         <v>44774</v>
       </c>
-      <c r="B68" s="42">
+      <c r="B68" s="35">
         <v>44767</v>
       </c>
       <c r="C68" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D68" s="16"/>
-      <c r="E68" s="28"/>
+      <c r="E68" s="25"/>
     </row>
     <row r="69" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A69" s="15">
         <v>44775</v>
       </c>
-      <c r="B69" s="42">
+      <c r="B69" s="35">
         <v>44768</v>
       </c>
       <c r="C69" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D69" s="16"/>
-      <c r="E69" s="28"/>
+      <c r="E69" s="25"/>
     </row>
     <row r="70" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A70" s="15">
         <v>44776</v>
       </c>
-      <c r="B70" s="42">
+      <c r="B70" s="35">
         <v>44769</v>
       </c>
       <c r="C70" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="16"/>
-      <c r="E70" s="28"/>
+      <c r="E70" s="25"/>
     </row>
     <row r="71" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A71" s="15">
         <v>44777</v>
       </c>
-      <c r="B71" s="42">
+      <c r="B71" s="35">
         <v>44770</v>
       </c>
       <c r="C71" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="16"/>
-      <c r="E71" s="28"/>
+      <c r="E71" s="25"/>
     </row>
     <row r="72" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A72" s="15">
         <v>44778</v>
       </c>
-      <c r="B72" s="42">
+      <c r="B72" s="35">
         <v>44771</v>
       </c>
       <c r="C72" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D72" s="16"/>
-      <c r="E72" s="28"/>
+      <c r="E72" s="25"/>
     </row>
     <row r="73" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A73" s="15">
         <v>44779</v>
       </c>
-      <c r="B73" s="42">
+      <c r="B73" s="35">
         <v>44772</v>
       </c>
       <c r="C73" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D73" s="16"/>
-      <c r="E73" s="28"/>
+      <c r="E73" s="25"/>
     </row>
     <row r="74" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A74" s="15">
         <v>44780</v>
       </c>
-      <c r="B74" s="42">
+      <c r="B74" s="35">
         <v>44773</v>
       </c>
       <c r="C74" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D74" s="16"/>
-      <c r="E74" s="28"/>
+      <c r="E74" s="25"/>
     </row>
     <row r="75" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A75" s="15">
         <v>44781</v>
       </c>
-      <c r="B75" s="42">
+      <c r="B75" s="35">
         <v>44774</v>
       </c>
       <c r="C75" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D75" s="16"/>
-      <c r="E75" s="28"/>
+      <c r="E75" s="25"/>
     </row>
     <row r="76" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A76" s="15">
         <v>44782</v>
       </c>
-      <c r="B76" s="42">
+      <c r="B76" s="35">
         <v>44775</v>
       </c>
       <c r="C76" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D76" s="16"/>
-      <c r="E76" s="28"/>
+      <c r="E76" s="25"/>
     </row>
     <row r="77" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A77" s="15">
         <v>44783</v>
       </c>
-      <c r="B77" s="42">
+      <c r="B77" s="35">
         <v>44776</v>
       </c>
       <c r="C77" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="16"/>
-      <c r="E77" s="28"/>
+      <c r="E77" s="25"/>
     </row>
     <row r="78" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A78" s="15">
         <v>44784</v>
       </c>
-      <c r="B78" s="42">
+      <c r="B78" s="35">
         <v>44777</v>
       </c>
       <c r="C78" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="16"/>
-      <c r="E78" s="28"/>
+      <c r="E78" s="25"/>
     </row>
     <row r="79" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A79" s="15">
         <v>44785</v>
       </c>
-      <c r="B79" s="42">
+      <c r="B79" s="35">
         <v>44778</v>
       </c>
       <c r="C79" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D79" s="16"/>
-      <c r="E79" s="28"/>
+      <c r="E79" s="25"/>
     </row>
     <row r="80" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A80" s="15">
         <v>44786</v>
       </c>
-      <c r="B80" s="42">
+      <c r="B80" s="35">
         <v>44779</v>
       </c>
       <c r="C80" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D80" s="16"/>
-      <c r="E80" s="28"/>
+      <c r="E80" s="25"/>
     </row>
     <row r="81" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A81" s="15">
         <v>44787</v>
       </c>
-      <c r="B81" s="42">
+      <c r="B81" s="35">
         <v>44780</v>
       </c>
       <c r="C81" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D81" s="16"/>
-      <c r="E81" s="28"/>
+      <c r="E81" s="25"/>
     </row>
     <row r="82" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A82" s="15">
         <v>44788</v>
       </c>
-      <c r="B82" s="42">
+      <c r="B82" s="35">
         <v>44781</v>
       </c>
       <c r="C82" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D82" s="16"/>
-      <c r="E82" s="28"/>
+      <c r="E82" s="25"/>
     </row>
     <row r="83" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A83" s="15">
         <v>44789</v>
       </c>
-      <c r="B83" s="42">
+      <c r="B83" s="35">
         <v>44782</v>
       </c>
       <c r="C83" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D83" s="16"/>
-      <c r="E83" s="28"/>
+      <c r="E83" s="25"/>
     </row>
     <row r="84" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A84" s="15">
         <v>44790</v>
       </c>
-      <c r="B84" s="42">
+      <c r="B84" s="35">
         <v>44783</v>
       </c>
       <c r="C84" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D84" s="16"/>
-      <c r="E84" s="28"/>
+      <c r="E84" s="25"/>
     </row>
     <row r="85" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A85" s="15">
         <v>44791</v>
       </c>
-      <c r="B85" s="42">
+      <c r="B85" s="35">
         <v>44784</v>
       </c>
       <c r="C85" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="16"/>
-      <c r="E85" s="28"/>
+      <c r="E85" s="25"/>
     </row>
     <row r="86" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A86" s="15">
         <v>44792</v>
       </c>
-      <c r="B86" s="42">
+      <c r="B86" s="35">
         <v>44785</v>
       </c>
       <c r="C86" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D86" s="16"/>
-      <c r="E86" s="28"/>
+      <c r="E86" s="25"/>
     </row>
     <row r="87" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A87" s="15">
         <v>44793</v>
       </c>
-      <c r="B87" s="42">
+      <c r="B87" s="35">
         <v>44786</v>
       </c>
       <c r="C87" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D87" s="16"/>
-      <c r="E87" s="28"/>
+      <c r="E87" s="25"/>
     </row>
     <row r="88" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A88" s="15">
         <v>44794</v>
       </c>
-      <c r="B88" s="42">
+      <c r="B88" s="35">
         <v>44787</v>
       </c>
       <c r="C88" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D88" s="16"/>
-      <c r="E88" s="28"/>
+      <c r="E88" s="25"/>
     </row>
     <row r="89" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A89" s="15">
         <v>44795</v>
       </c>
-      <c r="B89" s="42">
+      <c r="B89" s="35">
         <v>44788</v>
       </c>
       <c r="C89" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D89" s="16"/>
-      <c r="E89" s="28"/>
+      <c r="E89" s="25"/>
     </row>
     <row r="90" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A90" s="15">
         <v>44796</v>
       </c>
-      <c r="B90" s="42">
+      <c r="B90" s="35">
         <v>44789</v>
       </c>
       <c r="C90" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D90" s="16"/>
-      <c r="E90" s="28"/>
+      <c r="E90" s="25"/>
     </row>
     <row r="91" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A91" s="15">
         <v>44797</v>
       </c>
-      <c r="B91" s="42">
+      <c r="B91" s="35">
         <v>44790</v>
       </c>
       <c r="C91" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D91" s="16"/>
-      <c r="E91" s="28"/>
+      <c r="E91" s="25"/>
     </row>
     <row r="92" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A92" s="15">
         <v>44798</v>
       </c>
-      <c r="B92" s="42">
+      <c r="B92" s="35">
         <v>44791</v>
       </c>
       <c r="C92" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="16"/>
-      <c r="E92" s="28"/>
+      <c r="E92" s="25"/>
     </row>
     <row r="93" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A93" s="15">
         <v>44799</v>
       </c>
-      <c r="B93" s="42">
+      <c r="B93" s="35">
         <v>44792</v>
       </c>
       <c r="C93" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D93" s="16"/>
-      <c r="E93" s="28"/>
+      <c r="E93" s="25"/>
     </row>
     <row r="94" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A94" s="15">
         <v>44800</v>
       </c>
-      <c r="B94" s="42">
+      <c r="B94" s="35">
         <v>44793</v>
       </c>
       <c r="C94" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D94" s="16"/>
-      <c r="E94" s="28"/>
+      <c r="E94" s="25"/>
     </row>
     <row r="95" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A95" s="15">
         <v>44801</v>
       </c>
-      <c r="B95" s="42">
+      <c r="B95" s="35">
         <v>44794</v>
       </c>
       <c r="C95" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D95" s="16"/>
-      <c r="E95" s="28"/>
+      <c r="E95" s="25"/>
     </row>
     <row r="96" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A96" s="15">
         <v>44802</v>
       </c>
-      <c r="B96" s="42">
+      <c r="B96" s="35">
         <v>44795</v>
       </c>
       <c r="C96" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D96" s="16"/>
-      <c r="E96" s="28"/>
+      <c r="E96" s="25"/>
     </row>
     <row r="97" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A97" s="15">
         <v>44803</v>
       </c>
-      <c r="B97" s="42">
+      <c r="B97" s="35">
         <v>44796</v>
       </c>
       <c r="C97" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D97" s="16"/>
-      <c r="E97" s="28"/>
+      <c r="E97" s="25"/>
     </row>
     <row r="98" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A98" s="15">
         <v>44804</v>
       </c>
-      <c r="B98" s="42">
+      <c r="B98" s="35">
         <v>44797</v>
       </c>
       <c r="C98" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D98" s="16"/>
-      <c r="E98" s="28"/>
+      <c r="E98" s="25"/>
     </row>
     <row r="99" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A99" s="15">
         <v>44805</v>
       </c>
-      <c r="B99" s="42">
+      <c r="B99" s="35">
         <v>44798</v>
       </c>
       <c r="C99" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="16"/>
-      <c r="E99" s="28"/>
+      <c r="E99" s="25"/>
     </row>
     <row r="100" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A100" s="15">
         <v>44806</v>
       </c>
-      <c r="B100" s="42">
+      <c r="B100" s="35">
         <v>44799</v>
       </c>
       <c r="C100" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D100" s="16"/>
-      <c r="E100" s="28"/>
+      <c r="E100" s="25"/>
     </row>
     <row r="101" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A101" s="15">
         <v>44807</v>
       </c>
-      <c r="B101" s="42">
+      <c r="B101" s="35">
         <v>44800</v>
       </c>
       <c r="C101" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D101" s="16"/>
-      <c r="E101" s="28"/>
+      <c r="E101" s="25"/>
     </row>
     <row r="102" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A102" s="15">
         <v>44808</v>
       </c>
-      <c r="B102" s="42">
+      <c r="B102" s="35">
         <v>44801</v>
       </c>
       <c r="C102" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D102" s="16"/>
-      <c r="E102" s="28"/>
+      <c r="E102" s="25"/>
     </row>
     <row r="103" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A103" s="15">
         <v>44809</v>
       </c>
-      <c r="B103" s="42">
+      <c r="B103" s="35">
         <v>44802</v>
       </c>
       <c r="C103" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D103" s="16"/>
-      <c r="E103" s="28"/>
+      <c r="E103" s="25"/>
     </row>
     <row r="104" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A104" s="15">
         <v>44810</v>
       </c>
-      <c r="B104" s="42">
+      <c r="B104" s="35">
         <v>44803</v>
       </c>
       <c r="C104" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D104" s="16"/>
-      <c r="E104" s="28"/>
+      <c r="E104" s="25"/>
     </row>
     <row r="105" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A105" s="15">
         <v>44811</v>
       </c>
-      <c r="B105" s="42">
+      <c r="B105" s="35">
         <v>44804</v>
       </c>
       <c r="C105" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D105" s="16"/>
-      <c r="E105" s="28"/>
+      <c r="E105" s="25"/>
     </row>
     <row r="106" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A106" s="15">
         <v>44812</v>
       </c>
-      <c r="B106" s="42">
+      <c r="B106" s="35">
         <v>44805</v>
       </c>
       <c r="C106" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="16"/>
-      <c r="E106" s="28"/>
+      <c r="E106" s="25"/>
     </row>
     <row r="107" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A107" s="15">
         <v>44813</v>
       </c>
-      <c r="B107" s="42">
+      <c r="B107" s="35">
         <v>44806</v>
       </c>
       <c r="C107" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D107" s="16"/>
-      <c r="E107" s="28"/>
+      <c r="E107" s="25"/>
     </row>
     <row r="108" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A108" s="15">
         <v>44814</v>
       </c>
-      <c r="B108" s="42">
+      <c r="B108" s="35">
         <v>44807</v>
       </c>
       <c r="C108" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D108" s="16"/>
-      <c r="E108" s="28"/>
+      <c r="E108" s="25"/>
     </row>
     <row r="109" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A109" s="15">
         <v>44815</v>
       </c>
-      <c r="B109" s="42">
+      <c r="B109" s="35">
         <v>44808</v>
       </c>
       <c r="C109" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D109" s="16"/>
-      <c r="E109" s="28"/>
+      <c r="E109" s="25"/>
     </row>
     <row r="110" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A110" s="15">
         <v>44816</v>
       </c>
-      <c r="B110" s="42">
+      <c r="B110" s="35">
         <v>44809</v>
       </c>
       <c r="C110" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D110" s="16"/>
-      <c r="E110" s="28"/>
+      <c r="E110" s="25"/>
     </row>
     <row r="111" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A111" s="15">
         <v>44817</v>
       </c>
-      <c r="B111" s="42">
+      <c r="B111" s="35">
         <v>44810</v>
       </c>
       <c r="C111" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D111" s="16"/>
-      <c r="E111" s="28"/>
+      <c r="E111" s="25"/>
     </row>
     <row r="112" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A112" s="15">
         <v>44818</v>
       </c>
-      <c r="B112" s="42">
+      <c r="B112" s="35">
         <v>44811</v>
       </c>
       <c r="C112" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="16"/>
-      <c r="E112" s="28"/>
+      <c r="E112" s="25"/>
     </row>
     <row r="113" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A113" s="15">
         <v>44819</v>
       </c>
-      <c r="B113" s="42">
+      <c r="B113" s="35">
         <v>44812</v>
       </c>
       <c r="C113" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="16"/>
-      <c r="E113" s="28"/>
+      <c r="E113" s="25"/>
     </row>
     <row r="114" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A114" s="15">
         <v>44820</v>
       </c>
-      <c r="B114" s="42">
+      <c r="B114" s="35">
         <v>44813</v>
       </c>
       <c r="C114" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D114" s="16"/>
-      <c r="E114" s="28"/>
+      <c r="E114" s="25"/>
     </row>
     <row r="115" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A115" s="15">
         <v>44821</v>
       </c>
-      <c r="B115" s="42">
+      <c r="B115" s="35">
         <v>44814</v>
       </c>
       <c r="C115" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D115" s="16"/>
-      <c r="E115" s="28"/>
+      <c r="E115" s="25"/>
     </row>
     <row r="116" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A116" s="15">
         <v>44822</v>
       </c>
-      <c r="B116" s="42">
+      <c r="B116" s="35">
         <v>44815</v>
       </c>
       <c r="C116" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D116" s="16"/>
-      <c r="E116" s="28"/>
+      <c r="E116" s="25"/>
     </row>
     <row r="117" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A117" s="15">
         <v>44823</v>
       </c>
-      <c r="B117" s="42">
+      <c r="B117" s="35">
         <v>44816</v>
       </c>
       <c r="C117" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D117" s="16"/>
-      <c r="E117" s="28"/>
+      <c r="E117" s="25"/>
     </row>
     <row r="118" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A118" s="15">
         <v>44824</v>
       </c>
-      <c r="B118" s="42">
+      <c r="B118" s="35">
         <v>44817</v>
       </c>
       <c r="C118" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D118" s="16"/>
-      <c r="E118" s="28"/>
+      <c r="E118" s="25"/>
     </row>
     <row r="119" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A119" s="15">
         <v>44825</v>
       </c>
-      <c r="B119" s="42">
+      <c r="B119" s="35">
         <v>44818</v>
       </c>
       <c r="C119" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D119" s="16"/>
-      <c r="E119" s="28"/>
+      <c r="E119" s="25"/>
     </row>
     <row r="120" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A120" s="15">
         <v>44826</v>
       </c>
-      <c r="B120" s="42">
+      <c r="B120" s="35">
         <v>44819</v>
       </c>
       <c r="C120" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="16"/>
-      <c r="E120" s="28"/>
+      <c r="E120" s="25"/>
     </row>
     <row r="121" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A121" s="15">
         <v>44827</v>
       </c>
-      <c r="B121" s="42">
+      <c r="B121" s="35">
         <v>44820</v>
       </c>
       <c r="C121" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D121" s="16"/>
-      <c r="E121" s="28"/>
+      <c r="E121" s="25"/>
     </row>
     <row r="122" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A122" s="15">
         <v>44828</v>
       </c>
-      <c r="B122" s="42">
+      <c r="B122" s="35">
         <v>44821</v>
       </c>
       <c r="C122" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D122" s="16"/>
-      <c r="E122" s="28"/>
+      <c r="E122" s="25"/>
     </row>
     <row r="123" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A123" s="15">
         <v>44829</v>
       </c>
-      <c r="B123" s="42">
+      <c r="B123" s="35">
         <v>44822</v>
       </c>
       <c r="C123" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D123" s="16"/>
-      <c r="E123" s="28"/>
+      <c r="E123" s="25"/>
     </row>
     <row r="124" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A124" s="15">
         <v>44830</v>
       </c>
-      <c r="B124" s="42">
+      <c r="B124" s="35">
         <v>44823</v>
       </c>
       <c r="C124" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D124" s="16"/>
-      <c r="E124" s="28"/>
+      <c r="E124" s="25"/>
     </row>
     <row r="125" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A125" s="15">
         <v>44831</v>
       </c>
-      <c r="B125" s="42">
+      <c r="B125" s="35">
         <v>44824</v>
       </c>
       <c r="C125" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D125" s="16"/>
-      <c r="E125" s="28"/>
+      <c r="E125" s="25"/>
     </row>
     <row r="126" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A126" s="15">
         <v>44832</v>
       </c>
-      <c r="B126" s="42">
+      <c r="B126" s="35">
         <v>44825</v>
       </c>
       <c r="C126" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D126" s="16"/>
-      <c r="E126" s="28"/>
+      <c r="E126" s="25"/>
     </row>
     <row r="127" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A127" s="15">
         <v>44833</v>
       </c>
-      <c r="B127" s="42">
+      <c r="B127" s="35">
         <v>44826</v>
       </c>
       <c r="C127" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="16"/>
-      <c r="E127" s="28"/>
+      <c r="E127" s="25"/>
     </row>
     <row r="128" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A128" s="15">
         <v>44834</v>
       </c>
-      <c r="B128" s="42">
+      <c r="B128" s="35">
         <v>44827</v>
       </c>
       <c r="C128" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D128" s="16"/>
-      <c r="E128" s="28"/>
+      <c r="E128" s="25"/>
     </row>
     <row r="129" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A129" s="15">
         <v>44835</v>
       </c>
-      <c r="B129" s="42">
+      <c r="B129" s="35">
         <v>44828</v>
       </c>
       <c r="C129" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D129" s="16"/>
-      <c r="E129" s="28"/>
+      <c r="E129" s="25"/>
     </row>
     <row r="130" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A130" s="15">
         <v>44836</v>
       </c>
-      <c r="B130" s="42">
+      <c r="B130" s="35">
         <v>44829</v>
       </c>
       <c r="C130" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D130" s="16"/>
-      <c r="E130" s="28"/>
+      <c r="E130" s="25"/>
     </row>
     <row r="131" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A131" s="15">
         <v>44837</v>
       </c>
-      <c r="B131" s="42">
+      <c r="B131" s="35">
         <v>44830</v>
       </c>
       <c r="C131" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D131" s="16"/>
-      <c r="E131" s="28"/>
+      <c r="E131" s="25"/>
     </row>
     <row r="132" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A132" s="15">
         <v>44838</v>
       </c>
-      <c r="B132" s="42">
+      <c r="B132" s="35">
         <v>44831</v>
       </c>
       <c r="C132" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D132" s="16"/>
-      <c r="E132" s="28"/>
+      <c r="E132" s="25"/>
     </row>
     <row r="133" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A133" s="15">
         <v>44839</v>
       </c>
-      <c r="B133" s="42">
+      <c r="B133" s="35">
         <v>44832</v>
       </c>
       <c r="C133" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="16"/>
-      <c r="E133" s="28"/>
+      <c r="E133" s="25"/>
     </row>
     <row r="134" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A134" s="15">
         <v>44840</v>
       </c>
-      <c r="B134" s="42">
+      <c r="B134" s="35">
         <v>44833</v>
       </c>
       <c r="C134" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="16"/>
-      <c r="E134" s="28"/>
+      <c r="E134" s="25"/>
     </row>
     <row r="135" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A135" s="15">
         <v>44841</v>
       </c>
-      <c r="B135" s="42">
+      <c r="B135" s="35">
         <v>44834</v>
       </c>
       <c r="C135" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D135" s="16"/>
-      <c r="E135" s="28"/>
+      <c r="E135" s="25"/>
     </row>
     <row r="136" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A136" s="15">
         <v>44842</v>
       </c>
-      <c r="B136" s="42">
+      <c r="B136" s="35">
         <v>44835</v>
       </c>
       <c r="C136" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D136" s="16"/>
-      <c r="E136" s="28"/>
+      <c r="E136" s="25"/>
     </row>
     <row r="137" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A137" s="15">
         <v>44843</v>
       </c>
-      <c r="B137" s="42">
+      <c r="B137" s="35">
         <v>44836</v>
       </c>
       <c r="C137" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D137" s="16"/>
-      <c r="E137" s="28"/>
+      <c r="E137" s="25"/>
     </row>
     <row r="138" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A138" s="15">
         <v>44844</v>
       </c>
-      <c r="B138" s="42">
+      <c r="B138" s="35">
         <v>44837</v>
       </c>
       <c r="C138" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D138" s="16"/>
-      <c r="E138" s="28"/>
+      <c r="E138" s="25"/>
     </row>
     <row r="139" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A139" s="15">
         <v>44845</v>
       </c>
-      <c r="B139" s="42">
+      <c r="B139" s="35">
         <v>44838</v>
       </c>
       <c r="C139" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D139" s="16"/>
-      <c r="E139" s="28"/>
+      <c r="E139" s="25"/>
     </row>
     <row r="140" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A140" s="15">
@@ -2620,7 +2815,7 @@
         <v>8</v>
       </c>
       <c r="D140" s="16"/>
-      <c r="E140" s="28"/>
+      <c r="E140" s="25"/>
     </row>
     <row r="141" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A141" s="15">
@@ -2631,7 +2826,7 @@
         <v>9</v>
       </c>
       <c r="D141" s="16"/>
-      <c r="E141" s="28"/>
+      <c r="E141" s="25"/>
     </row>
     <row r="142" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A142" s="15">
@@ -2642,7 +2837,7 @@
         <v>3</v>
       </c>
       <c r="D142" s="16"/>
-      <c r="E142" s="28"/>
+      <c r="E142" s="25"/>
     </row>
     <row r="143" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A143" s="15">
@@ -2653,7 +2848,7 @@
         <v>4</v>
       </c>
       <c r="D143" s="16"/>
-      <c r="E143" s="28"/>
+      <c r="E143" s="25"/>
     </row>
     <row r="144" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A144" s="15">
@@ -2664,7 +2859,7 @@
         <v>5</v>
       </c>
       <c r="D144" s="16"/>
-      <c r="E144" s="28"/>
+      <c r="E144" s="25"/>
     </row>
     <row r="145" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A145" s="15">
@@ -2675,7 +2870,7 @@
         <v>6</v>
       </c>
       <c r="D145" s="16"/>
-      <c r="E145" s="28"/>
+      <c r="E145" s="25"/>
     </row>
     <row r="146" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A146" s="15">
@@ -2686,7 +2881,7 @@
         <v>7</v>
       </c>
       <c r="D146" s="16"/>
-      <c r="E146" s="28"/>
+      <c r="E146" s="25"/>
     </row>
     <row r="147" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A147" s="15">
@@ -2697,7 +2892,7 @@
         <v>8</v>
       </c>
       <c r="D147" s="16"/>
-      <c r="E147" s="28"/>
+      <c r="E147" s="25"/>
     </row>
     <row r="148" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A148" s="15">
@@ -2708,7 +2903,7 @@
         <v>9</v>
       </c>
       <c r="D148" s="16"/>
-      <c r="E148" s="28"/>
+      <c r="E148" s="25"/>
     </row>
     <row r="149" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A149" s="15">
@@ -2719,7 +2914,7 @@
         <v>3</v>
       </c>
       <c r="D149" s="16"/>
-      <c r="E149" s="28"/>
+      <c r="E149" s="25"/>
     </row>
     <row r="150" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A150" s="15">
@@ -2730,7 +2925,7 @@
         <v>4</v>
       </c>
       <c r="D150" s="16"/>
-      <c r="E150" s="28"/>
+      <c r="E150" s="25"/>
     </row>
     <row r="151" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A151" s="15">
@@ -2741,7 +2936,7 @@
         <v>5</v>
       </c>
       <c r="D151" s="16"/>
-      <c r="E151" s="28"/>
+      <c r="E151" s="25"/>
     </row>
     <row r="152" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A152" s="15">
@@ -2752,7 +2947,7 @@
         <v>6</v>
       </c>
       <c r="D152" s="16"/>
-      <c r="E152" s="28"/>
+      <c r="E152" s="25"/>
     </row>
     <row r="153" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A153" s="15">
@@ -2763,7 +2958,7 @@
         <v>7</v>
       </c>
       <c r="D153" s="16"/>
-      <c r="E153" s="28"/>
+      <c r="E153" s="25"/>
     </row>
     <row r="154" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A154" s="15">
@@ -2774,7 +2969,7 @@
         <v>8</v>
       </c>
       <c r="D154" s="16"/>
-      <c r="E154" s="28"/>
+      <c r="E154" s="25"/>
     </row>
     <row r="155" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A155" s="15">
@@ -2785,7 +2980,7 @@
         <v>9</v>
       </c>
       <c r="D155" s="16"/>
-      <c r="E155" s="28"/>
+      <c r="E155" s="25"/>
     </row>
     <row r="156" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A156" s="15">
@@ -2796,7 +2991,7 @@
         <v>3</v>
       </c>
       <c r="D156" s="16"/>
-      <c r="E156" s="28"/>
+      <c r="E156" s="25"/>
     </row>
     <row r="157" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A157" s="15">
@@ -2807,7 +3002,7 @@
         <v>4</v>
       </c>
       <c r="D157" s="16"/>
-      <c r="E157" s="28"/>
+      <c r="E157" s="25"/>
     </row>
     <row r="158" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A158" s="15">
@@ -2818,7 +3013,7 @@
         <v>5</v>
       </c>
       <c r="D158" s="16"/>
-      <c r="E158" s="28"/>
+      <c r="E158" s="25"/>
     </row>
     <row r="159" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A159" s="15">
@@ -2829,7 +3024,7 @@
         <v>6</v>
       </c>
       <c r="D159" s="16"/>
-      <c r="E159" s="28"/>
+      <c r="E159" s="25"/>
     </row>
     <row r="160" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A160" s="15">
@@ -2840,7 +3035,7 @@
         <v>7</v>
       </c>
       <c r="D160" s="16"/>
-      <c r="E160" s="28"/>
+      <c r="E160" s="25"/>
     </row>
     <row r="161" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A161" s="15">
@@ -2851,7 +3046,7 @@
         <v>8</v>
       </c>
       <c r="D161" s="16"/>
-      <c r="E161" s="28"/>
+      <c r="E161" s="25"/>
     </row>
     <row r="162" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A162" s="15">
@@ -2862,7 +3057,7 @@
         <v>9</v>
       </c>
       <c r="D162" s="16"/>
-      <c r="E162" s="28"/>
+      <c r="E162" s="25"/>
     </row>
     <row r="163" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A163" s="15">
@@ -2873,7 +3068,7 @@
         <v>3</v>
       </c>
       <c r="D163" s="16"/>
-      <c r="E163" s="28"/>
+      <c r="E163" s="25"/>
     </row>
     <row r="164" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A164" s="15">
@@ -2884,7 +3079,7 @@
         <v>4</v>
       </c>
       <c r="D164" s="16"/>
-      <c r="E164" s="28"/>
+      <c r="E164" s="25"/>
     </row>
     <row r="165" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A165" s="15">
@@ -2895,7 +3090,7 @@
         <v>5</v>
       </c>
       <c r="D165" s="16"/>
-      <c r="E165" s="28"/>
+      <c r="E165" s="25"/>
     </row>
     <row r="166" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A166" s="15">
@@ -2906,7 +3101,7 @@
         <v>6</v>
       </c>
       <c r="D166" s="16"/>
-      <c r="E166" s="28"/>
+      <c r="E166" s="25"/>
     </row>
     <row r="167" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A167" s="15">
@@ -2917,7 +3112,7 @@
         <v>7</v>
       </c>
       <c r="D167" s="16"/>
-      <c r="E167" s="28"/>
+      <c r="E167" s="25"/>
     </row>
     <row r="168" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A168" s="15">
@@ -2928,7 +3123,7 @@
         <v>8</v>
       </c>
       <c r="D168" s="16"/>
-      <c r="E168" s="28"/>
+      <c r="E168" s="25"/>
     </row>
     <row r="169" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A169" s="15">
@@ -2939,7 +3134,7 @@
         <v>9</v>
       </c>
       <c r="D169" s="16"/>
-      <c r="E169" s="28"/>
+      <c r="E169" s="25"/>
     </row>
     <row r="170" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A170" s="15">
@@ -2950,7 +3145,7 @@
         <v>3</v>
       </c>
       <c r="D170" s="16"/>
-      <c r="E170" s="28"/>
+      <c r="E170" s="25"/>
     </row>
     <row r="171" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A171" s="15">
@@ -2961,7 +3156,7 @@
         <v>4</v>
       </c>
       <c r="D171" s="16"/>
-      <c r="E171" s="28"/>
+      <c r="E171" s="25"/>
     </row>
     <row r="172" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A172" s="15">
@@ -2972,7 +3167,7 @@
         <v>5</v>
       </c>
       <c r="D172" s="16"/>
-      <c r="E172" s="28"/>
+      <c r="E172" s="25"/>
     </row>
     <row r="173" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A173" s="15">
@@ -2983,7 +3178,7 @@
         <v>6</v>
       </c>
       <c r="D173" s="16"/>
-      <c r="E173" s="28"/>
+      <c r="E173" s="25"/>
     </row>
     <row r="174" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A174" s="15">
@@ -2994,7 +3189,7 @@
         <v>7</v>
       </c>
       <c r="D174" s="16"/>
-      <c r="E174" s="28"/>
+      <c r="E174" s="25"/>
     </row>
     <row r="175" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A175" s="15">
@@ -3005,7 +3200,7 @@
         <v>8</v>
       </c>
       <c r="D175" s="16"/>
-      <c r="E175" s="28"/>
+      <c r="E175" s="25"/>
     </row>
     <row r="176" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A176" s="15">
@@ -3016,7 +3211,7 @@
         <v>9</v>
       </c>
       <c r="D176" s="16"/>
-      <c r="E176" s="28"/>
+      <c r="E176" s="25"/>
     </row>
     <row r="177" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A177" s="15">
@@ -3027,7 +3222,7 @@
         <v>3</v>
       </c>
       <c r="D177" s="16"/>
-      <c r="E177" s="28"/>
+      <c r="E177" s="25"/>
     </row>
     <row r="178" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A178" s="15">
@@ -3038,7 +3233,7 @@
         <v>4</v>
       </c>
       <c r="D178" s="16"/>
-      <c r="E178" s="28"/>
+      <c r="E178" s="25"/>
     </row>
     <row r="179" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A179" s="15">
@@ -3049,7 +3244,7 @@
         <v>5</v>
       </c>
       <c r="D179" s="16"/>
-      <c r="E179" s="28"/>
+      <c r="E179" s="25"/>
     </row>
     <row r="180" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A180" s="15">
@@ -3060,7 +3255,7 @@
         <v>6</v>
       </c>
       <c r="D180" s="16"/>
-      <c r="E180" s="28"/>
+      <c r="E180" s="25"/>
     </row>
     <row r="181" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A181" s="15">
@@ -3071,7 +3266,7 @@
         <v>7</v>
       </c>
       <c r="D181" s="16"/>
-      <c r="E181" s="28"/>
+      <c r="E181" s="25"/>
     </row>
     <row r="182" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A182" s="15">
@@ -3082,7 +3277,7 @@
         <v>8</v>
       </c>
       <c r="D182" s="16"/>
-      <c r="E182" s="28"/>
+      <c r="E182" s="25"/>
     </row>
     <row r="183" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A183" s="15">
@@ -3093,7 +3288,7 @@
         <v>9</v>
       </c>
       <c r="D183" s="16"/>
-      <c r="E183" s="28"/>
+      <c r="E183" s="25"/>
     </row>
     <row r="184" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A184" s="15">
@@ -3104,7 +3299,7 @@
         <v>3</v>
       </c>
       <c r="D184" s="16"/>
-      <c r="E184" s="28"/>
+      <c r="E184" s="25"/>
     </row>
     <row r="185" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A185" s="15">
@@ -3115,7 +3310,7 @@
         <v>4</v>
       </c>
       <c r="D185" s="16"/>
-      <c r="E185" s="28"/>
+      <c r="E185" s="25"/>
     </row>
     <row r="186" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A186" s="15">
@@ -3126,7 +3321,7 @@
         <v>5</v>
       </c>
       <c r="D186" s="16"/>
-      <c r="E186" s="28"/>
+      <c r="E186" s="25"/>
     </row>
     <row r="187" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A187" s="15">
@@ -3137,7 +3332,7 @@
         <v>6</v>
       </c>
       <c r="D187" s="16"/>
-      <c r="E187" s="28"/>
+      <c r="E187" s="25"/>
     </row>
     <row r="188" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A188" s="15">
@@ -3148,7 +3343,7 @@
         <v>7</v>
       </c>
       <c r="D188" s="16"/>
-      <c r="E188" s="28"/>
+      <c r="E188" s="25"/>
     </row>
     <row r="189" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A189" s="15">
@@ -3159,7 +3354,7 @@
         <v>8</v>
       </c>
       <c r="D189" s="16"/>
-      <c r="E189" s="28"/>
+      <c r="E189" s="25"/>
     </row>
     <row r="190" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A190" s="15">
@@ -3170,7 +3365,7 @@
         <v>9</v>
       </c>
       <c r="D190" s="16"/>
-      <c r="E190" s="28"/>
+      <c r="E190" s="25"/>
     </row>
     <row r="191" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A191" s="15">
@@ -3181,7 +3376,7 @@
         <v>3</v>
       </c>
       <c r="D191" s="16"/>
-      <c r="E191" s="28"/>
+      <c r="E191" s="25"/>
     </row>
     <row r="192" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A192" s="15">
@@ -3192,7 +3387,7 @@
         <v>4</v>
       </c>
       <c r="D192" s="16"/>
-      <c r="E192" s="28"/>
+      <c r="E192" s="25"/>
     </row>
     <row r="193" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A193" s="15">
@@ -3203,7 +3398,7 @@
         <v>5</v>
       </c>
       <c r="D193" s="16"/>
-      <c r="E193" s="28"/>
+      <c r="E193" s="25"/>
     </row>
     <row r="194" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A194" s="15">
@@ -3214,7 +3409,7 @@
         <v>6</v>
       </c>
       <c r="D194" s="16"/>
-      <c r="E194" s="28"/>
+      <c r="E194" s="25"/>
     </row>
     <row r="195" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A195" s="15">
@@ -3225,7 +3420,7 @@
         <v>7</v>
       </c>
       <c r="D195" s="16"/>
-      <c r="E195" s="28"/>
+      <c r="E195" s="25"/>
     </row>
     <row r="196" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A196" s="15">
@@ -3236,7 +3431,7 @@
         <v>8</v>
       </c>
       <c r="D196" s="16"/>
-      <c r="E196" s="28"/>
+      <c r="E196" s="25"/>
     </row>
     <row r="197" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A197" s="15">
@@ -3247,7 +3442,7 @@
         <v>9</v>
       </c>
       <c r="D197" s="16"/>
-      <c r="E197" s="28"/>
+      <c r="E197" s="25"/>
     </row>
     <row r="198" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A198" s="15">
@@ -3258,7 +3453,7 @@
         <v>3</v>
       </c>
       <c r="D198" s="16"/>
-      <c r="E198" s="28"/>
+      <c r="E198" s="25"/>
     </row>
     <row r="199" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A199" s="15">
@@ -3269,7 +3464,7 @@
         <v>4</v>
       </c>
       <c r="D199" s="16"/>
-      <c r="E199" s="28"/>
+      <c r="E199" s="25"/>
     </row>
     <row r="200" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A200" s="15">
@@ -3280,7 +3475,7 @@
         <v>5</v>
       </c>
       <c r="D200" s="16"/>
-      <c r="E200" s="28"/>
+      <c r="E200" s="25"/>
     </row>
     <row r="201" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A201" s="15">
@@ -3291,7 +3486,7 @@
         <v>6</v>
       </c>
       <c r="D201" s="16"/>
-      <c r="E201" s="28"/>
+      <c r="E201" s="25"/>
     </row>
     <row r="202" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A202" s="15">
@@ -3302,7 +3497,7 @@
         <v>7</v>
       </c>
       <c r="D202" s="16"/>
-      <c r="E202" s="28"/>
+      <c r="E202" s="25"/>
     </row>
     <row r="203" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A203" s="15">
@@ -3313,7 +3508,7 @@
         <v>8</v>
       </c>
       <c r="D203" s="16"/>
-      <c r="E203" s="28"/>
+      <c r="E203" s="25"/>
     </row>
     <row r="204" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A204" s="15">
@@ -3324,7 +3519,7 @@
         <v>9</v>
       </c>
       <c r="D204" s="16"/>
-      <c r="E204" s="28"/>
+      <c r="E204" s="25"/>
     </row>
     <row r="205" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A205" s="15">
@@ -3335,7 +3530,7 @@
         <v>3</v>
       </c>
       <c r="D205" s="16"/>
-      <c r="E205" s="28"/>
+      <c r="E205" s="25"/>
     </row>
     <row r="206" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A206" s="15">
@@ -3346,7 +3541,7 @@
         <v>4</v>
       </c>
       <c r="D206" s="16"/>
-      <c r="E206" s="28"/>
+      <c r="E206" s="25"/>
     </row>
     <row r="207" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A207" s="15">
@@ -3357,7 +3552,7 @@
         <v>5</v>
       </c>
       <c r="D207" s="16"/>
-      <c r="E207" s="28"/>
+      <c r="E207" s="25"/>
     </row>
     <row r="208" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A208" s="15">
@@ -3368,7 +3563,7 @@
         <v>6</v>
       </c>
       <c r="D208" s="16"/>
-      <c r="E208" s="28"/>
+      <c r="E208" s="25"/>
     </row>
     <row r="209" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A209" s="15">
@@ -3379,7 +3574,7 @@
         <v>7</v>
       </c>
       <c r="D209" s="16"/>
-      <c r="E209" s="28"/>
+      <c r="E209" s="25"/>
     </row>
     <row r="210" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A210" s="15">
@@ -3390,7 +3585,7 @@
         <v>8</v>
       </c>
       <c r="D210" s="16"/>
-      <c r="E210" s="28"/>
+      <c r="E210" s="25"/>
     </row>
     <row r="211" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A211" s="15">
@@ -3401,7 +3596,7 @@
         <v>9</v>
       </c>
       <c r="D211" s="16"/>
-      <c r="E211" s="28"/>
+      <c r="E211" s="25"/>
     </row>
     <row r="212" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A212" s="15">
@@ -3412,7 +3607,7 @@
         <v>3</v>
       </c>
       <c r="D212" s="16"/>
-      <c r="E212" s="28"/>
+      <c r="E212" s="25"/>
     </row>
     <row r="213" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A213" s="15">
@@ -3423,7 +3618,7 @@
         <v>4</v>
       </c>
       <c r="D213" s="16"/>
-      <c r="E213" s="28"/>
+      <c r="E213" s="25"/>
     </row>
     <row r="214" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A214" s="15">
@@ -3434,7 +3629,7 @@
         <v>5</v>
       </c>
       <c r="D214" s="16"/>
-      <c r="E214" s="28"/>
+      <c r="E214" s="25"/>
     </row>
     <row r="215" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A215" s="15">
@@ -3445,7 +3640,7 @@
         <v>6</v>
       </c>
       <c r="D215" s="16"/>
-      <c r="E215" s="28"/>
+      <c r="E215" s="25"/>
     </row>
     <row r="216" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A216" s="15">
@@ -3456,7 +3651,7 @@
         <v>7</v>
       </c>
       <c r="D216" s="16"/>
-      <c r="E216" s="28"/>
+      <c r="E216" s="25"/>
     </row>
     <row r="217" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A217" s="15">
@@ -3467,7 +3662,7 @@
         <v>8</v>
       </c>
       <c r="D217" s="16"/>
-      <c r="E217" s="28"/>
+      <c r="E217" s="25"/>
     </row>
     <row r="218" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A218" s="15">
@@ -3478,7 +3673,7 @@
         <v>9</v>
       </c>
       <c r="D218" s="16"/>
-      <c r="E218" s="28"/>
+      <c r="E218" s="25"/>
     </row>
     <row r="219" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A219" s="15">
@@ -3489,7 +3684,7 @@
         <v>3</v>
       </c>
       <c r="D219" s="16"/>
-      <c r="E219" s="28"/>
+      <c r="E219" s="25"/>
     </row>
     <row r="220" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A220" s="15">
@@ -3500,14 +3695,14 @@
         <v>4</v>
       </c>
       <c r="D220" s="16"/>
-      <c r="E220" s="28"/>
+      <c r="E220" s="25"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="14"/>
       <c r="B221" s="14"/>
       <c r="C221" s="14"/>
       <c r="D221" s="14"/>
-      <c r="E221" s="29"/>
+      <c r="E221" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3519,15 +3714,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.5703125" style="1" customWidth="1"/>
     <col min="2" max="3" width="26.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="32" style="9" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -3544,7 +3739,7 @@
       <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="28" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -3558,7 +3753,7 @@
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="34"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="10">
         <f>320+1000</f>
         <v>1320</v>
@@ -3573,29 +3768,29 @@
         <v>17</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="35">
+        <v>22</v>
+      </c>
+      <c r="D3" s="30">
         <v>-300</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <v>44715</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="19"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30">
         <v>1000</v>
       </c>
-      <c r="F4" s="35"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -3603,19 +3798,19 @@
         <v>44722</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="31">
         <f>-700+300</f>
         <v>-400</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -3623,16 +3818,16 @@
         <v>44729</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="36">
+        <v>22</v>
+      </c>
+      <c r="D6" s="31">
         <v>-300</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36">
+      <c r="E6" s="31"/>
+      <c r="F6" s="31">
         <v>75</v>
       </c>
     </row>
@@ -3640,153 +3835,163 @@
       <c r="A7" s="17">
         <v>44743</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="B7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="31">
+        <v>300</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="17">
+        <v>44750</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="37">
+      <c r="D24" s="32">
         <f>SUM(D3:D23)</f>
-        <v>-1000</v>
+        <v>-700</v>
       </c>
       <c r="E24" s="20">
         <f>E2+D24</f>
-        <v>320</v>
-      </c>
-      <c r="F24" s="40">
+        <v>620</v>
+      </c>
+      <c r="F24" s="34">
         <f>SUM(F5:F23)</f>
         <v>75</v>
       </c>
@@ -3802,10 +4007,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:XFC33"/>
+  <dimension ref="A1:XFC40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -3813,83 +4018,169 @@
     <col min="1" max="1" width="26.140625" style="13" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" style="13" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" style="13" customWidth="1"/>
     <col min="5" max="16382" width="9.140625" style="12" hidden="1"/>
     <col min="16383" max="16383" width="6.85546875" style="12" hidden="1" customWidth="1"/>
     <col min="16384" max="16384" width="6.5703125" style="12" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="25">
-        <v>44735</v>
+      <c r="A1" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="53">
+        <v>44744</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="A2" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="A3" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="54"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="39"/>
+      <c r="A4" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="54"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="54"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6" s="24"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D7" s="43"/>
+      <c r="A7" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="56"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="54"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="54"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="54"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="24"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="54"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="58"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="50"/>
+      <c r="B38" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="50"/>
+      <c r="B39" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D28" s="23"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="24"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="51" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3899,117 +4190,901 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6BC4EC-74D1-47F7-93CE-D93ADF8E9329}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="48" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="39"/>
+    <col min="7" max="7" width="13.42578125" style="48" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" style="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="31"/>
-      <c r="B1" s="32"/>
-    </row>
-    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-    </row>
-    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-    </row>
-    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-    </row>
-    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-    </row>
-    <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-    </row>
-    <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-    </row>
-    <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-    </row>
-    <row r="9" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-    </row>
-    <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-    </row>
-    <row r="11" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-    </row>
-    <row r="12" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-    </row>
-    <row r="13" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-    </row>
-    <row r="14" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-    </row>
-    <row r="15" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-    </row>
-    <row r="16" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-    </row>
-    <row r="17" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-    </row>
-    <row r="18" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-    </row>
-    <row r="19" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-    </row>
-    <row r="20" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-    </row>
-    <row r="21" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-    </row>
-    <row r="22" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-    </row>
-    <row r="23" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-    </row>
-    <row r="24" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-    </row>
-    <row r="25" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
+    <row r="1" spans="1:12" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+    </row>
+    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="45">
+        <v>44856</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="46">
+        <v>50.04</v>
+      </c>
+      <c r="D3" s="46">
+        <v>3800</v>
+      </c>
+      <c r="E3" s="46">
+        <f>C3*D3</f>
+        <v>190152</v>
+      </c>
+      <c r="G3" s="45">
+        <v>44734</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="46">
+        <v>49.4</v>
+      </c>
+      <c r="J3" s="46">
+        <v>3800</v>
+      </c>
+      <c r="K3" s="46">
+        <f>I3*J3</f>
+        <v>187720</v>
+      </c>
+      <c r="L3" s="47">
+        <f>E3-K3</f>
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="45">
+        <v>44734</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="46">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="D4" s="46">
+        <v>1430</v>
+      </c>
+      <c r="E4" s="46">
+        <f>C4*D4</f>
+        <v>54626.000000000007</v>
+      </c>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46">
+        <f t="shared" ref="K4:K43" si="0">I4*J4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="46"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="45">
+        <v>44734</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="46">
+        <v>48.3</v>
+      </c>
+      <c r="D5" s="46">
+        <v>1130</v>
+      </c>
+      <c r="E5" s="46">
+        <f>C5*D5</f>
+        <v>54579</v>
+      </c>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="46"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="45">
+        <v>44734</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="46">
+        <v>158</v>
+      </c>
+      <c r="D6" s="46">
+        <v>345</v>
+      </c>
+      <c r="E6" s="46">
+        <f t="shared" ref="E6:E43" si="1">C6*D6</f>
+        <v>54510</v>
+      </c>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="46"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="46"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="46"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="46"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="46"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="46"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="46"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="46"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="46"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="46"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="46"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="46"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="46"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="46"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="46"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="46"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="46"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="46"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="46"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="46"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="46"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="46"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="46"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="46"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="46"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="46"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="46"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="46"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="46"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="46"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="46"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="46"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="46"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="46"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="46"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="46"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
